--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\datalandClean\dataland-framework-toolbox\inputs\sfdr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685024E-4D60-40B9-890F-2B3035173700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F34E5-F514-4E45-B3B0-782519684694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="-10800" windowWidth="38620" windowHeight="21220" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="531">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1441,254 +1441,248 @@
     <t>Does your company have measures in place to prevent your security forces from: Violating the prohibition of torture or cruel, inhuman, or degrading treatment; Damaging life or limbs; Impairing the right to exercise the freedom of association?</t>
   </si>
   <si>
-    <t>min: 0</t>
-  </si>
-  <si>
-    <t>[{
+    <t>ISO 2 Codes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>LkSG - risk Positions</t>
+  </si>
+  <si>
+    <t>Multi-Select Dropdown</t>
+  </si>
+  <si>
+    <t>Single-Select Dropdown</t>
+  </si>
+  <si>
+    <t>Short-lived and changing business relationships; High price pressure; Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers; None of the above</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>LkSG</t>
+  </si>
+  <si>
+    <t>Risk position - EN</t>
+  </si>
+  <si>
+    <t>Rechstspositionen - DE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 2 Nr. 1 und 2</t>
+  </si>
+  <si>
+    <t>Kinderarbeit</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§ 2 Abs. 2 Nr. 3 </t>
+  </si>
+  <si>
+    <t>Forced labor</t>
+  </si>
+  <si>
+    <t>Zwangsarbeit</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§ 2 Abs. 2 Nr. 4 </t>
+  </si>
+  <si>
+    <t>Slavery</t>
+  </si>
+  <si>
+    <t>Sklaverei</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 2 Nr. 5</t>
+  </si>
+  <si>
+    <t>Missachtung von Arbeitsschutz/-sicherheit</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 2 Nr. 6 a) - c)</t>
+  </si>
+  <si>
+    <t>Missachtung der Koalitionsfreiheit</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 2 Nr. 7</t>
+  </si>
+  <si>
+    <t>Ungleiche Behandlung bei der Beschäftigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§ 2 Abs. 2 Nr. 8 </t>
+  </si>
+  <si>
+    <t>Vorenthaltung angemessener Löhne</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§ 2 Abs. 2 Nr. 9 </t>
+  </si>
+  <si>
+    <t>Umweltverschmutzung, Lärmemissionen, übermäßiger Wasserverbrauch</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§ 2 Abs. 2 Nr. 10 </t>
+  </si>
+  <si>
+    <t>Rechtswidrige Räumung/Entziehung von Land, Wäldern und Gewässern</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 2 Nr. 11 a ) -  c )</t>
+  </si>
+  <si>
+    <t>Einsatz privater/öffentlicher Sicherheitskräfte unter Verletzung von Menschenrechten</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 3 Nr. 1 - 3</t>
+  </si>
+  <si>
+    <t>Verwendung von Quecksilber, Quecksilberabfällen (Minamata-Übereinkommen)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 3 Nr. 4 - 5</t>
+  </si>
+  <si>
+    <t>Herstellung/Verwendung persistenter organischer Schadstoffe (POPs-Konvention)</t>
+  </si>
+  <si>
+    <t>§ 2 Abs. 3 Nr. 6 - 8</t>
+  </si>
+  <si>
+    <t>Ausfuhr/Einfuhr von gefährlichen Abfällen (Basler Übereinkommen)</t>
+  </si>
+  <si>
+    <t>Custom LkSG Production Sites</t>
+  </si>
+  <si>
+    <t>Custom LkSG Most-Important-Products</t>
+  </si>
+  <si>
+    <t>Custom LkSG Procurement Categories</t>
+  </si>
+  <si>
+    <t>Yes/No/NA</t>
+  </si>
+  <si>
+    <t>National | International | Both</t>
+  </si>
+  <si>
+    <t>Allowed Range: [0, INF]</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NACE codes</t>
+  </si>
+  <si>
+    <t>{
 	"label": "&lt;10%",
 	"value": "Smaller10"
-}, {
+} | {
 	"label": "10-25%",
 	"value": "Between10And25"
-}, {
+} | {
 	"label": "25-50%",
 	"value": "Between25And50"
-}, {
+} | {
 	"label": "&gt;50%",
 	"value": "Greater50"
-}]</t>
-  </si>
-  <si>
-    <t>ISO 2 Codes</t>
-  </si>
-  <si>
-    <t>[{
-	"label": "National",
-	"value": "National"
-}, {
-	"label": "International",
-	"value": "International"
-}, {
-	"label": "Both",
-	"value": "Both"
-}]</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Yes/No/Na</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>LkSG - risk Positions</t>
-  </si>
-  <si>
-    <t>Multi-Select Dropdown</t>
-  </si>
-  <si>
-    <t>Nace-Codes</t>
-  </si>
-  <si>
-    <t>Custom - LkSG Production Sites</t>
-  </si>
-  <si>
-    <t>Custom - LkSG Most-Important-Products</t>
-  </si>
-  <si>
-    <t>Custom - LkSG Procurement Categories</t>
-  </si>
-  <si>
-    <t>Single-Select Dropdown</t>
-  </si>
-  <si>
-    <t>Short-lived and changing business relationships; High price pressure; Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers; None of the above</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>LkSG</t>
-  </si>
-  <si>
-    <t>Risk position - EN</t>
-  </si>
-  <si>
-    <t>Rechstspositionen - DE</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 2 Nr. 1 und 2</t>
-  </si>
-  <si>
-    <t>Kinderarbeit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ 2 Abs. 2 Nr. 3 </t>
-  </si>
-  <si>
-    <t>Forced labor</t>
-  </si>
-  <si>
-    <t>Zwangsarbeit</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ 2 Abs. 2 Nr. 4 </t>
-  </si>
-  <si>
-    <t>Slavery</t>
-  </si>
-  <si>
-    <t>Sklaverei</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 2 Nr. 5</t>
-  </si>
-  <si>
-    <t>Missachtung von Arbeitsschutz/-sicherheit</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 2 Nr. 6 a) - c)</t>
-  </si>
-  <si>
-    <t>Missachtung der Koalitionsfreiheit</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 2 Nr. 7</t>
-  </si>
-  <si>
-    <t>Ungleiche Behandlung bei der Beschäftigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ 2 Abs. 2 Nr. 8 </t>
-  </si>
-  <si>
-    <t>Vorenthaltung angemessener Löhne</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ 2 Abs. 2 Nr. 9 </t>
-  </si>
-  <si>
-    <t>Umweltverschmutzung, Lärmemissionen, übermäßiger Wasserverbrauch</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ 2 Abs. 2 Nr. 10 </t>
-  </si>
-  <si>
-    <t>Rechtswidrige Räumung/Entziehung von Land, Wäldern und Gewässern</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 2 Nr. 11 a ) -  c )</t>
-  </si>
-  <si>
-    <t>Einsatz privater/öffentlicher Sicherheitskräfte unter Verletzung von Menschenrechten</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 3 Nr. 1 - 3</t>
-  </si>
-  <si>
-    <t>Verwendung von Quecksilber, Quecksilberabfällen (Minamata-Übereinkommen)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 3 Nr. 4 - 5</t>
-  </si>
-  <si>
-    <t>Herstellung/Verwendung persistenter organischer Schadstoffe (POPs-Konvention)</t>
-  </si>
-  <si>
-    <t>§ 2 Abs. 3 Nr. 6 - 8</t>
-  </si>
-  <si>
-    <t>Ausfuhr/Einfuhr von gefährlichen Abfällen (Basler Übereinkommen)</t>
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,6 +1727,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1816,7 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1852,6 +1851,7 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,29 +2169,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="150.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="150.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2252,10 +2252,10 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>259</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2338,10 +2338,10 @@
         <v>260</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2360,11 +2360,14 @@
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2403,17 +2406,17 @@
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>457</v>
+      <c r="H9" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2490,16 +2493,16 @@
         <v>267</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2522,10 +2525,10 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2542,19 +2545,19 @@
         <v>269</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2571,16 +2574,16 @@
         <v>270</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2603,10 +2606,10 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2623,13 +2626,13 @@
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2646,16 +2649,16 @@
         <v>272</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2675,16 +2678,16 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2701,19 +2704,19 @@
         <v>274</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2730,16 +2733,16 @@
         <v>275</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2756,16 +2759,16 @@
         <v>276</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2811,10 +2814,10 @@
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2834,13 +2837,13 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2857,19 +2860,19 @@
         <v>280</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2892,10 +2895,10 @@
         <v>45</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2912,16 +2915,16 @@
         <v>282</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2944,10 +2947,10 @@
         <v>23</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2993,10 +2996,10 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3019,10 +3022,10 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3045,10 +3048,10 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3071,10 +3074,10 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3097,10 +3100,10 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3119,17 +3122,20 @@
       <c r="G37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>456</v>
+      <c r="H37" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3146,19 +3152,19 @@
         <v>291</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3175,16 +3181,16 @@
         <v>292</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3207,10 +3213,10 @@
         <v>48</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3227,16 +3233,16 @@
         <v>294</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3259,10 +3265,10 @@
         <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3285,10 +3291,10 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3311,10 +3317,10 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3383,10 +3389,10 @@
         <v>50</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3449,16 +3455,16 @@
         <v>303</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3621,19 +3627,19 @@
         <v>311</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3656,10 +3662,10 @@
         <v>53</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3676,16 +3682,16 @@
         <v>313</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3722,19 +3728,19 @@
         <v>315</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3771,19 +3777,19 @@
         <v>317</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3820,19 +3826,19 @@
         <v>317</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3875,10 +3881,10 @@
         <v>66</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3901,10 +3907,10 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3927,10 +3933,10 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3953,10 +3959,10 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3973,16 +3979,16 @@
         <v>323</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4025,10 +4031,10 @@
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4051,10 +4057,10 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4077,10 +4083,10 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4106,10 +4112,10 @@
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4132,10 +4138,10 @@
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4161,10 +4167,10 @@
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4190,10 +4196,10 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4210,16 +4216,16 @@
         <v>332</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4256,16 +4262,16 @@
         <v>333</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4308,10 +4314,10 @@
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4334,10 +4340,10 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4360,10 +4366,10 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4386,10 +4392,10 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4415,10 +4421,10 @@
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4444,10 +4450,10 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4473,10 +4479,10 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4493,16 +4499,16 @@
         <v>342</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4568,10 +4574,10 @@
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -4597,10 +4603,10 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -4623,10 +4629,10 @@
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -4643,16 +4649,16 @@
         <v>348</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -4669,16 +4675,16 @@
         <v>349</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4704,10 +4710,10 @@
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4724,16 +4730,16 @@
         <v>351</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -4819,10 +4825,10 @@
         <v>103</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -4848,10 +4854,10 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -4877,10 +4883,10 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -4906,10 +4912,10 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -4926,16 +4932,16 @@
         <v>359</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -4992,16 +4998,16 @@
         <v>362</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -5021,7 +5027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -5044,10 +5050,10 @@
         <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5070,10 +5076,10 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5099,10 +5105,10 @@
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -5128,10 +5134,10 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -5157,10 +5163,10 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5177,16 +5183,16 @@
         <v>369</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5229,10 +5235,10 @@
         <v>120</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -5255,10 +5261,10 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5281,10 +5287,10 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -5310,10 +5316,10 @@
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5336,10 +5342,10 @@
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -5365,10 +5371,10 @@
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5394,10 +5400,10 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -5414,16 +5420,16 @@
         <v>378</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -5466,10 +5472,10 @@
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5492,10 +5498,10 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -5518,10 +5524,10 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -5544,10 +5550,10 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -5570,10 +5576,10 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -5599,10 +5605,10 @@
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -5628,10 +5634,10 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -5674,10 +5680,10 @@
         <v>136</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -5700,10 +5706,10 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -5729,10 +5735,10 @@
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -5758,10 +5764,10 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -5781,7 +5787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -5804,10 +5810,10 @@
         <v>141</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -5833,10 +5839,10 @@
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -5862,10 +5868,10 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -5885,7 +5891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -5908,10 +5914,10 @@
         <v>145</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -5937,10 +5943,10 @@
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -5966,10 +5972,10 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -6012,10 +6018,10 @@
         <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -6032,16 +6038,16 @@
         <v>402</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6067,10 +6073,10 @@
         <v>149</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -6096,10 +6102,10 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6122,10 +6128,10 @@
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -6165,16 +6171,16 @@
         <v>450</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K157" s="7">
         <v>155</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -6211,16 +6217,16 @@
         <v>406</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K159" s="7">
         <v>157</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -6240,7 +6246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -6266,10 +6272,10 @@
         <v>159</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -6292,10 +6298,10 @@
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -6321,10 +6327,10 @@
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -6350,10 +6356,10 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -6370,16 +6376,16 @@
         <v>412</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K165" s="7">
         <v>163</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -6442,10 +6448,10 @@
         <v>166</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -6471,10 +6477,10 @@
         <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -6500,10 +6506,10 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -6520,16 +6526,16 @@
         <v>417</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -6546,7 +6552,7 @@
         <v>418</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
@@ -6555,10 +6561,10 @@
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -6584,10 +6590,10 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -6604,16 +6610,16 @@
         <v>420</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K174" s="7">
         <v>172</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -6633,7 +6639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -6656,10 +6662,10 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -6682,10 +6688,10 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -6708,10 +6714,10 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -6734,10 +6740,10 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -6760,10 +6766,10 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -6786,10 +6792,10 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -6815,10 +6821,10 @@
         <v>180</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -6844,10 +6850,10 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -6864,16 +6870,16 @@
         <v>430</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K184" s="7">
         <v>182</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -6910,16 +6916,16 @@
         <v>432</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K186" s="7">
         <v>184</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -6942,10 +6948,10 @@
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -6968,10 +6974,10 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -6994,10 +7000,10 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -7020,10 +7026,10 @@
         <v>188</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -7049,10 +7055,10 @@
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -7069,16 +7075,16 @@
         <v>437</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K192" s="7">
         <v>190</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -7121,10 +7127,10 @@
         <v>192</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -7147,10 +7153,10 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -7173,10 +7179,10 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -7199,10 +7205,10 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -7228,10 +7234,10 @@
         <v>193</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -7254,10 +7260,10 @@
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -7277,7 +7283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -7300,10 +7306,10 @@
         <v>199</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -7329,10 +7335,10 @@
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -7349,13 +7355,13 @@
         <v>446</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K203" s="7">
         <v>201</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7372,208 +7378,208 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>503</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F34E5-F514-4E45-B3B0-782519684694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC356BD-DB64-4415-A10C-BA96239AEBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -1465,9 +1465,6 @@
     <t>Single-Select Dropdown</t>
   </si>
   <si>
-    <t>Short-lived and changing business relationships; High price pressure; Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers; None of the above</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -1663,19 +1660,10 @@
     <t>NACE codes</t>
   </si>
   <si>
-    <t>{
-	"label": "&lt;10%",
-	"value": "Smaller10"
-} | {
-	"label": "10-25%",
-	"value": "Between10And25"
-} | {
-	"label": "25-50%",
-	"value": "Between25And50"
-} | {
-	"label": "&gt;50%",
-	"value": "Greater50"
-}</t>
+    <t>Smaller10 |Between10And25 | Between25And50 | Greater50"</t>
+  </si>
+  <si>
+    <t>Short-lived and changing business relationships | High price pressure | Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers | None of the above</t>
   </si>
 </sst>
 </file>
@@ -2169,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2252,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2338,7 +2326,7 @@
         <v>260</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2361,7 +2349,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2387,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2406,11 +2394,11 @@
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>530</v>
+      <c r="H9" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>457</v>
@@ -2574,7 +2562,7 @@
         <v>270</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
@@ -2626,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>457</v>
@@ -2649,10 +2637,10 @@
         <v>272</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>457</v>
@@ -2678,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
@@ -2707,7 +2695,7 @@
         <v>463</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
@@ -2733,7 +2721,7 @@
         <v>275</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
@@ -2759,7 +2747,7 @@
         <v>276</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
@@ -2866,7 +2854,7 @@
         <v>461</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>457</v>
@@ -3123,7 +3111,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>22</v>
@@ -3685,7 +3673,7 @@
         <v>459</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>457</v>
@@ -3783,7 +3771,7 @@
         <v>456</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>457</v>
@@ -3832,7 +3820,7 @@
         <v>456</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>457</v>
@@ -4265,7 +4253,7 @@
         <v>459</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>457</v>
@@ -4502,7 +4490,7 @@
         <v>459</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>457</v>
@@ -4649,7 +4637,7 @@
         <v>348</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
@@ -4675,7 +4663,7 @@
         <v>349</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
@@ -4733,7 +4721,7 @@
         <v>459</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>457</v>
@@ -4935,7 +4923,7 @@
         <v>459</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>457</v>
@@ -5001,7 +4989,7 @@
         <v>460</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>457</v>
@@ -5186,7 +5174,7 @@
         <v>459</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>457</v>
@@ -5423,7 +5411,7 @@
         <v>459</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>457</v>
@@ -6041,7 +6029,7 @@
         <v>459</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>457</v>
@@ -6526,7 +6514,7 @@
         <v>417</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
@@ -6552,7 +6540,7 @@
         <v>418</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
@@ -7388,184 +7376,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>483</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>484</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>488</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>494</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>495</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>501</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>505</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>506</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>508</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>509</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>515</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>517</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>518</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7573,13 +7561,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC356BD-DB64-4415-A10C-BA96239AEBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D60458-1755-4203-9DF7-3194527299E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="530">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1442,9 +1442,6 @@
   </si>
   <si>
     <t>ISO 2 Codes</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>24</t>
@@ -2157,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="F190" workbookViewId="0">
+      <selection activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2300,13 +2297,13 @@
         <v>259</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2326,7 +2323,7 @@
         <v>260</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2349,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2395,13 +2392,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2481,13 +2478,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2513,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2533,7 +2530,7 @@
         <v>269</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>456</v>
@@ -2542,7 +2539,7 @@
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2562,13 +2559,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2594,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2614,10 +2611,10 @@
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2637,13 +2634,13 @@
         <v>272</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2666,13 +2663,13 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2692,16 +2689,16 @@
         <v>274</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2721,13 +2718,13 @@
         <v>275</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2747,13 +2744,13 @@
         <v>276</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2802,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2825,10 +2822,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2848,16 +2845,16 @@
         <v>280</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2883,7 +2880,7 @@
         <v>45</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2903,13 +2900,13 @@
         <v>282</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2935,7 +2932,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2984,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3010,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3036,7 +3033,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3062,7 +3059,7 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3088,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3111,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>22</v>
@@ -3120,7 +3117,7 @@
         <v>47</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3140,16 +3137,16 @@
         <v>291</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3169,13 +3166,13 @@
         <v>292</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3201,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3221,13 +3218,13 @@
         <v>294</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3253,7 +3250,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3279,7 +3276,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3305,7 +3302,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3377,7 +3374,7 @@
         <v>50</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3443,13 +3440,13 @@
         <v>303</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3615,16 +3612,16 @@
         <v>311</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3650,7 +3647,7 @@
         <v>53</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3670,13 +3667,13 @@
         <v>313</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,7 +3713,7 @@
         <v>315</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>456</v>
@@ -3725,7 +3722,7 @@
         <v>54</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3765,16 +3762,16 @@
         <v>317</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>456</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3814,16 +3811,16 @@
         <v>317</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>456</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3869,7 +3866,7 @@
         <v>66</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3895,7 +3892,7 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -3921,7 +3918,7 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3947,7 +3944,7 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3967,13 +3964,13 @@
         <v>323</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4019,7 +4016,7 @@
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4045,7 +4042,7 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4071,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4100,7 +4097,7 @@
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4126,7 +4123,7 @@
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4155,7 +4152,7 @@
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4184,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4204,13 +4201,13 @@
         <v>332</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4250,13 +4247,13 @@
         <v>333</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -4302,7 +4299,7 @@
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4328,7 +4325,7 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4354,7 +4351,7 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4380,7 +4377,7 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4409,7 +4406,7 @@
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4438,7 +4435,7 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4467,7 +4464,7 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4487,13 +4484,13 @@
         <v>342</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4562,7 +4559,7 @@
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4591,7 +4588,7 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4617,7 +4614,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4637,13 +4634,13 @@
         <v>348</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4663,13 +4660,13 @@
         <v>349</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4698,7 +4695,7 @@
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4718,13 +4715,13 @@
         <v>351</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4813,7 +4810,7 @@
         <v>103</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4842,7 +4839,7 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4871,7 +4868,7 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4900,7 +4897,7 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4920,13 +4917,13 @@
         <v>359</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4986,13 +4983,13 @@
         <v>362</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -5038,7 +5035,7 @@
         <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5064,7 +5061,7 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5093,7 +5090,7 @@
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5122,7 +5119,7 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5151,7 +5148,7 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5171,13 +5168,13 @@
         <v>369</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5223,7 +5220,7 @@
         <v>120</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5249,7 +5246,7 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5275,7 +5272,7 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5304,7 +5301,7 @@
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5330,7 +5327,7 @@
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5359,7 +5356,7 @@
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5388,7 +5385,7 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5408,13 +5405,13 @@
         <v>378</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5460,7 +5457,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5486,7 +5483,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5512,7 +5509,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5538,7 +5535,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5564,7 +5561,7 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5593,7 +5590,7 @@
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5622,7 +5619,7 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5668,7 +5665,7 @@
         <v>136</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5694,7 +5691,7 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5723,7 +5720,7 @@
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5752,7 +5749,7 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5798,7 +5795,7 @@
         <v>141</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5827,7 +5824,7 @@
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5856,7 +5853,7 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5902,7 +5899,7 @@
         <v>145</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -5931,7 +5928,7 @@
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5960,7 +5957,7 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -6006,7 +6003,7 @@
         <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -6026,13 +6023,13 @@
         <v>402</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -6061,7 +6058,7 @@
         <v>149</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6090,7 +6087,7 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6116,7 +6113,7 @@
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -6159,13 +6156,13 @@
         <v>450</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K157" s="7">
         <v>155</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -6205,13 +6202,13 @@
         <v>406</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K159" s="7">
         <v>157</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -6260,7 +6257,7 @@
         <v>159</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -6286,7 +6283,7 @@
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -6315,7 +6312,7 @@
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -6344,7 +6341,7 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -6364,13 +6361,13 @@
         <v>412</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K165" s="7">
         <v>163</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -6436,7 +6433,7 @@
         <v>166</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -6465,7 +6462,7 @@
         <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -6494,7 +6491,7 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -6514,13 +6511,13 @@
         <v>417</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -6540,7 +6537,7 @@
         <v>418</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
@@ -6549,7 +6546,7 @@
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -6578,7 +6575,7 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -6598,13 +6595,13 @@
         <v>420</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K174" s="7">
         <v>172</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -6650,7 +6647,7 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -6676,7 +6673,7 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -6702,7 +6699,7 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -6728,7 +6725,7 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -6754,7 +6751,7 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -6780,7 +6777,7 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -6809,7 +6806,7 @@
         <v>180</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -6838,7 +6835,7 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -6858,13 +6855,13 @@
         <v>430</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K184" s="7">
         <v>182</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -6904,13 +6901,13 @@
         <v>432</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K186" s="7">
         <v>184</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -6936,7 +6933,7 @@
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -6962,7 +6959,7 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -6988,7 +6985,7 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -7014,7 +7011,7 @@
         <v>188</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -7043,7 +7040,7 @@
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -7063,13 +7060,13 @@
         <v>437</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K192" s="7">
         <v>190</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -7115,7 +7112,7 @@
         <v>192</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -7141,7 +7138,7 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -7167,7 +7164,7 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -7193,7 +7190,7 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -7222,7 +7219,7 @@
         <v>193</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -7248,7 +7245,7 @@
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -7294,7 +7291,7 @@
         <v>199</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -7323,7 +7320,7 @@
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -7343,13 +7340,13 @@
         <v>446</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K203" s="7">
         <v>201</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -7376,184 +7373,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>491</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>494</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>497</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>499</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>500</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>505</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>508</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>514</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>516</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>517</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7561,13 +7558,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D60458-1755-4203-9DF7-3194527299E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8179F-DE84-4BDA-B3C4-F52E5E5B568B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="532">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1657,10 +1657,16 @@
     <t>NACE codes</t>
   </si>
   <si>
-    <t>Smaller10 |Between10And25 | Between25And50 | Greater50"</t>
-  </si>
-  <si>
     <t>Short-lived and changing business relationships | High price pressure | Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers | None of the above</t>
+  </si>
+  <si>
+    <t>WARNINGREMOVELATER</t>
+  </si>
+  <si>
+    <t>Warning remove this object later in the process!</t>
+  </si>
+  <si>
+    <t>Smaller10 |Between10And25 | Between25And50 | Greater50</t>
   </si>
 </sst>
 </file>
@@ -2152,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F190" workbookViewId="0">
-      <selection activeCell="I193" sqref="I193"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2398,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>476</v>
@@ -2692,7 +2698,7 @@
         <v>462</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
@@ -2703,7 +2709,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -2712,24 +2718,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>275</v>
+        <v>530</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="K22" s="7">
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>526</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
@@ -2738,13 +2739,13 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
@@ -2755,30 +2756,33 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>22</v>
+        <v>276</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="K24" s="7">
+        <v>11</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2787,24 +2791,21 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7">
-        <v>23</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>526</v>
+      <c r="J25" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2813,16 +2814,16 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>457</v>
+      <c r="K26" s="7">
+        <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>526</v>
@@ -2830,7 +2831,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -2839,19 +2840,16 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>526</v>
@@ -2859,7 +2857,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -2868,16 +2866,19 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
+        <v>461</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>526</v>
@@ -2885,7 +2886,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
@@ -2894,16 +2895,16 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>526</v>
@@ -2911,7 +2912,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -2920,16 +2921,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="7">
-        <v>23</v>
+        <v>458</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>526</v>
@@ -2937,30 +2938,33 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="7">
         <v>23</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>22</v>
+      <c r="L31" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -2969,24 +2973,21 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="7">
-        <v>30</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>526</v>
+      <c r="J32" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -2995,10 +2996,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3012,7 +3013,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3021,10 +3022,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3038,7 +3039,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3047,10 +3048,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -3064,7 +3065,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3073,10 +3074,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>20</v>
@@ -3090,7 +3091,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3099,22 +3100,16 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="K37" s="7">
+        <v>30</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>526</v>
@@ -3122,7 +3117,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3131,16 +3126,19 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>460</v>
+        <v>19</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>47</v>
@@ -3151,7 +3149,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3160,16 +3158,19 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>526</v>
@@ -3177,7 +3178,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3186,13 +3187,13 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>48</v>
@@ -3203,7 +3204,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3212,16 +3213,16 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>526</v>
@@ -3229,7 +3230,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3238,16 +3239,16 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="7">
-        <v>30</v>
+        <v>458</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>526</v>
@@ -3255,7 +3256,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3264,10 +3265,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3281,7 +3282,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3290,10 +3291,10 @@
         <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
@@ -3307,30 +3308,33 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="7">
         <v>30</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>22</v>
+      <c r="L45" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3339,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3353,7 +3357,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3362,24 +3366,21 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>526</v>
+      <c r="J47" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3388,21 +3389,24 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>22</v>
+      <c r="K48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3411,10 +3415,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3425,7 +3429,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3434,24 +3438,21 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -3460,21 +3461,24 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>22</v>
+        <v>458</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3483,10 +3487,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -3497,27 +3501,30 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3526,10 +3533,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3537,7 +3544,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3546,10 +3553,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3557,7 +3564,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3566,10 +3573,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3577,7 +3584,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3586,10 +3593,10 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -3597,7 +3604,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3606,27 +3613,18 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3635,16 +3633,19 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>20</v>
+        <v>461</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>526</v>
@@ -3652,7 +3653,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3661,16 +3662,16 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>526</v>
@@ -3678,7 +3679,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3687,18 +3688,24 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -3707,27 +3714,18 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -3736,18 +3734,27 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>20</v>
+        <v>461</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -3756,27 +3763,18 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -3785,18 +3783,27 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>20</v>
+        <v>461</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -3805,47 +3812,47 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>20</v>
+        <v>461</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3854,24 +3861,18 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K68" s="7">
-        <v>66</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3880,10 +3881,10 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
@@ -3895,9 +3896,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3906,10 +3907,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>447</v>
+        <v>122</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3921,9 +3922,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3932,10 +3933,10 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>322</v>
+        <v>123</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3949,7 +3950,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3958,16 +3959,16 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="K72" s="7">
+        <v>66</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>526</v>
@@ -3975,7 +3976,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3984,18 +3985,24 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -4004,24 +4011,18 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K74" s="7">
-        <v>72</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -4030,10 +4031,10 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4047,7 +4048,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4056,10 +4057,10 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -4073,7 +4074,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4082,16 +4083,13 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K77" s="7">
         <v>72</v>
@@ -4102,7 +4100,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
@@ -4111,13 +4109,16 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K78" s="7">
         <v>72</v>
@@ -4128,7 +4129,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -4137,16 +4138,13 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K79" s="7">
         <v>72</v>
@@ -4157,7 +4155,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
@@ -4166,10 +4164,10 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4186,7 +4184,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4195,16 +4193,19 @@
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="7">
+        <v>72</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>526</v>
@@ -4212,27 +4213,33 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>448</v>
+        <v>332</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4241,24 +4248,18 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4267,18 +4268,24 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4287,24 +4294,18 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K85" s="7">
-        <v>83</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4313,10 +4314,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4330,7 +4331,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4339,10 +4340,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
@@ -4356,7 +4357,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4365,10 +4366,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
@@ -4382,7 +4383,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>21</v>
@@ -4391,16 +4392,13 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K89" s="7">
         <v>83</v>
@@ -4411,7 +4409,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>21</v>
@@ -4420,10 +4418,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4440,7 +4438,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>21</v>
@@ -4449,10 +4447,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4469,7 +4467,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4478,16 +4476,19 @@
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>469</v>
+        <v>20</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="7">
+        <v>83</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>526</v>
@@ -4495,27 +4496,33 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4524,10 +4531,10 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
@@ -4535,7 +4542,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4544,27 +4551,18 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="7">
-        <v>93</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4573,10 +4571,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4593,7 +4591,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4602,13 +4600,16 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K97" s="7">
         <v>93</v>
@@ -4619,7 +4620,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -4628,13 +4629,13 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>523</v>
+        <v>20</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
@@ -4645,7 +4646,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -4654,10 +4655,10 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>523</v>
@@ -4671,7 +4672,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
@@ -4680,16 +4681,13 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="K100" s="7">
         <v>93</v>
@@ -4700,7 +4698,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4709,16 +4707,19 @@
         <v>34</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>468</v>
+        <v>20</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="7">
+        <v>93</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>526</v>
@@ -4726,27 +4727,33 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4755,10 +4762,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4766,7 +4773,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4775,10 +4782,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -4786,7 +4793,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4795,27 +4802,18 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K105" s="7">
-        <v>103</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4824,10 +4822,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4844,7 +4842,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -4853,10 +4851,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4873,7 +4871,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -4882,10 +4880,10 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
@@ -4902,7 +4900,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -4911,16 +4909,19 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>467</v>
+        <v>20</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="7">
+        <v>103</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>526</v>
@@ -4928,7 +4929,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -4937,30 +4938,36 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
@@ -4968,7 +4975,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -4977,24 +4984,18 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -5003,18 +5004,24 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>20</v>
+        <v>459</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -5023,24 +5030,18 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K114" s="7">
-        <v>112</v>
-      </c>
-      <c r="L114" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5049,10 +5050,10 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
@@ -5066,7 +5067,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
@@ -5075,16 +5076,13 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K116" s="7">
         <v>112</v>
@@ -5095,7 +5093,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
@@ -5104,10 +5102,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5124,7 +5122,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
@@ -5133,10 +5131,10 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
@@ -5153,7 +5151,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5162,16 +5160,19 @@
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>465</v>
+        <v>20</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="7">
+        <v>112</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>526</v>
@@ -5179,27 +5180,33 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5208,24 +5215,18 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K121" s="7">
-        <v>120</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5234,10 +5235,10 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5251,7 +5252,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5260,10 +5261,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
@@ -5277,7 +5278,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5286,16 +5287,13 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K124" s="7">
         <v>120</v>
@@ -5306,7 +5304,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
@@ -5315,13 +5313,16 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K125" s="7">
         <v>120</v>
@@ -5332,7 +5333,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
@@ -5341,16 +5342,13 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K126" s="7">
         <v>120</v>
@@ -5361,7 +5359,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
@@ -5370,10 +5368,10 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5390,7 +5388,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5399,16 +5397,19 @@
         <v>37</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>464</v>
+        <v>20</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="7">
+        <v>120</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>526</v>
@@ -5416,27 +5417,33 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5445,24 +5452,18 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K130" s="7">
-        <v>128</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5471,10 +5472,10 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5488,7 +5489,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5497,10 +5498,10 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
@@ -5514,7 +5515,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5523,10 +5524,10 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -5540,7 +5541,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5549,10 +5550,10 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5566,7 +5567,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5575,16 +5576,13 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K135" s="7">
         <v>128</v>
@@ -5595,7 +5593,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5604,10 +5602,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5624,7 +5622,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5633,18 +5631,27 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="7">
+        <v>128</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5653,24 +5660,18 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K138" s="7">
-        <v>136</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5679,10 +5680,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
@@ -5696,7 +5697,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5705,16 +5706,13 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K140" s="7">
         <v>136</v>
@@ -5725,7 +5723,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5734,10 +5732,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5754,7 +5752,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5763,18 +5761,27 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" s="7">
+        <v>136</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5783,24 +5790,18 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K143" s="7">
-        <v>141</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5809,16 +5810,13 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K144" s="7">
         <v>141</v>
@@ -5829,7 +5827,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5838,10 +5836,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5858,7 +5856,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5867,18 +5865,27 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" s="7">
+        <v>141</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5887,24 +5894,18 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K147" s="7">
-        <v>145</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5913,16 +5914,13 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K148" s="7">
         <v>145</v>
@@ -5933,7 +5931,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5942,10 +5940,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5962,7 +5960,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -5971,18 +5969,27 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="7">
+        <v>145</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -5991,24 +5998,18 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K151" s="7">
-        <v>149</v>
-      </c>
-      <c r="L151" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -6017,16 +6018,16 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>463</v>
+        <v>20</v>
+      </c>
+      <c r="K152" s="7">
+        <v>149</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>526</v>
@@ -6034,7 +6035,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -6043,19 +6044,16 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J153" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K153" s="7">
-        <v>149</v>
+        <v>458</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>526</v>
@@ -6063,7 +6061,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
@@ -6072,10 +6070,10 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
@@ -6092,7 +6090,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
@@ -6101,13 +6099,16 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K155" s="7">
         <v>149</v>
@@ -6118,7 +6119,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -6127,21 +6128,24 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J156" s="9" t="s">
-        <v>22</v>
+      <c r="K156" s="7">
+        <v>149</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6150,44 +6154,47 @@
         <v>38</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K157" s="7">
-        <v>155</v>
-      </c>
-      <c r="L157" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K158" s="7">
+        <v>155</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6196,24 +6203,18 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K159" s="7">
-        <v>157</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6222,18 +6223,24 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K160" s="7">
+        <v>157</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6242,27 +6249,18 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K161" s="7">
-        <v>159</v>
-      </c>
-      <c r="L161" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6271,13 +6269,16 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K162" s="7">
         <v>159</v>
@@ -6288,7 +6289,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>21</v>
@@ -6297,16 +6298,13 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K163" s="7">
         <v>159</v>
@@ -6317,7 +6315,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>21</v>
@@ -6326,10 +6324,10 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
@@ -6346,7 +6344,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>21</v>
@@ -6355,16 +6353,19 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K165" s="7">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>526</v>
@@ -6372,7 +6373,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6381,30 +6382,36 @@
         <v>39</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K166" s="7">
+        <v>163</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
@@ -6412,7 +6419,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6421,24 +6428,18 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K168" s="7">
-        <v>166</v>
-      </c>
-      <c r="L168" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6447,19 +6448,16 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K169" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>526</v>
@@ -6467,7 +6465,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>21</v>
@@ -6476,10 +6474,10 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
@@ -6496,7 +6494,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>21</v>
@@ -6505,13 +6503,16 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>523</v>
+        <v>416</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
@@ -6522,7 +6523,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>21</v>
@@ -6531,16 +6532,13 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G172" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G172" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="J172" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K172" s="7">
         <v>167</v>
@@ -6551,7 +6549,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>21</v>
@@ -6560,13 +6558,13 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>20</v>
+        <v>523</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>22</v>
@@ -6580,7 +6578,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>21</v>
@@ -6589,16 +6587,19 @@
         <v>40</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K174" s="7">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>526</v>
@@ -6606,27 +6607,33 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K175" s="7">
+        <v>172</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6635,24 +6642,18 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K176" s="7">
-        <v>174</v>
-      </c>
-      <c r="L176" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6661,10 +6662,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6678,7 +6679,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6687,10 +6688,10 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
@@ -6704,7 +6705,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6713,10 +6714,10 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
@@ -6730,7 +6731,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6739,10 +6740,10 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
@@ -6756,7 +6757,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
@@ -6765,10 +6766,10 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -6782,7 +6783,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
@@ -6791,19 +6792,16 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G182" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J182" s="9" t="s">
-        <v>22</v>
+        <v>427</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="K182" s="7">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>526</v>
@@ -6811,7 +6809,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
@@ -6820,12 +6818,12 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G183" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G183" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J183" s="9" t="s">
@@ -6840,7 +6838,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6849,16 +6847,19 @@
         <v>41</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K184" s="7">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>526</v>
@@ -6866,27 +6867,33 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K185" s="7">
+        <v>182</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6895,24 +6902,18 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K186" s="7">
-        <v>184</v>
-      </c>
-      <c r="L186" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6921,13 +6922,13 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="K187" s="7">
         <v>184</v>
@@ -6938,7 +6939,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -6947,10 +6948,10 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -6964,7 +6965,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
@@ -6973,10 +6974,10 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6990,7 +6991,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
@@ -6999,16 +7000,16 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K190" s="7">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>526</v>
@@ -7016,7 +7017,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
@@ -7025,16 +7026,13 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J191" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K191" s="7">
         <v>188</v>
@@ -7045,7 +7043,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -7054,16 +7052,19 @@
         <v>42</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>458</v>
+        <v>20</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K192" s="7">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>526</v>
@@ -7071,27 +7072,33 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="K193" s="7">
+        <v>190</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7100,24 +7107,18 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>453</v>
+        <v>246</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K194" s="7">
-        <v>192</v>
-      </c>
-      <c r="L194" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7126,10 +7127,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>438</v>
+        <v>247</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
@@ -7143,7 +7144,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7152,10 +7153,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
@@ -7169,7 +7170,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7178,10 +7179,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
@@ -7195,7 +7196,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7204,19 +7205,16 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J198" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K198" s="7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>526</v>
@@ -7224,7 +7222,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>18</v>
@@ -7233,13 +7231,16 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K199" s="7">
         <v>193</v>
@@ -7250,7 +7251,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>18</v>
@@ -7259,18 +7260,24 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K200" s="7">
+        <v>193</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>18</v>
@@ -7279,24 +7286,18 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K201" s="7">
-        <v>199</v>
-      </c>
-      <c r="L201" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>18</v>
@@ -7305,16 +7306,13 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K202" s="7">
         <v>199</v>
@@ -7324,8 +7322,8 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="9">
-        <v>202</v>
+      <c r="A203" s="4">
+        <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>18</v>
@@ -7334,18 +7332,47 @@
         <v>43</v>
       </c>
       <c r="D203" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K203" s="7">
+        <v>199</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="9">
+        <v>202</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E204" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G203" s="4" t="s">
+      <c r="G204" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="K203" s="7">
+      <c r="K204" s="7">
         <v>201</v>
       </c>
-      <c r="L203" s="4" t="s">
+      <c r="L204" s="4" t="s">
         <v>526</v>
       </c>
     </row>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8179F-DE84-4BDA-B3C4-F52E5E5B568B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8996C1-6BD6-4597-B6BC-3375FE35E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="531">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
   </si>
   <si>
     <t>39</t>
@@ -2160,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2257,10 +2254,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2277,10 +2274,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2297,19 +2294,19 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2323,13 +2320,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2343,16 +2340,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2369,10 +2366,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2389,22 +2386,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2418,10 +2415,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2438,10 +2435,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2458,10 +2455,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2478,19 +2475,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2504,10 +2501,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2516,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2530,22 +2527,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,19 +2556,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2585,10 +2582,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
@@ -2597,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2611,16 +2608,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2634,19 +2631,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2660,22 +2657,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2689,22 +2686,22 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2718,13 +2715,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>530</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7"/>
     </row>
@@ -2739,19 +2736,19 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2765,19 +2762,19 @@
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K24" s="7">
         <v>11</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2791,10 +2788,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
@@ -2814,10 +2811,10 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
@@ -2826,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2840,19 +2837,19 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2866,22 +2863,22 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2895,10 +2892,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>20</v>
@@ -2907,7 +2904,7 @@
         <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2921,19 +2918,19 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2947,10 +2944,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
@@ -2959,7 +2956,7 @@
         <v>23</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2976,7 +2973,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
@@ -2996,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3008,7 +3005,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3022,10 +3019,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3034,7 +3031,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3048,10 +3045,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -3060,7 +3057,7 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3074,10 +3071,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>20</v>
@@ -3086,7 +3083,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3100,10 +3097,10 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>20</v>
@@ -3112,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3126,16 +3123,16 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>22</v>
@@ -3144,7 +3141,7 @@
         <v>47</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3158,22 +3155,22 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3187,19 +3184,19 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3213,19 +3210,19 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3239,19 +3236,19 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3265,10 +3262,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3277,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3291,10 +3288,10 @@
         <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
@@ -3303,7 +3300,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3317,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
@@ -3329,7 +3326,7 @@
         <v>30</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3343,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3366,10 +3363,10 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
@@ -3389,19 +3386,19 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3415,10 +3412,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3438,10 +3435,10 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>20</v>
@@ -3461,19 +3458,19 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3487,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -3510,10 +3507,10 @@
         <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
@@ -3533,10 +3530,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3553,10 +3550,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3573,10 +3570,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3593,10 +3590,10 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -3613,10 +3610,10 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>20</v>
@@ -3633,22 +3630,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3662,19 +3659,19 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3688,19 +3685,19 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3714,10 +3711,10 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>20</v>
@@ -3734,22 +3731,22 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3763,10 +3760,10 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>20</v>
@@ -3783,22 +3780,22 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3812,10 +3809,10 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>20</v>
@@ -3832,22 +3829,22 @@
         <v>31</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3861,10 +3858,10 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
@@ -3881,10 +3878,10 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
@@ -3893,7 +3890,7 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3907,10 +3904,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3919,7 +3916,7 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -3933,10 +3930,10 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3945,7 +3942,7 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3959,10 +3956,10 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>20</v>
@@ -3971,7 +3968,7 @@
         <v>66</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3985,19 +3982,19 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4011,10 +4008,10 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
@@ -4031,10 +4028,10 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4043,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4057,10 +4054,10 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -4069,7 +4066,7 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4083,10 +4080,10 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
@@ -4095,7 +4092,7 @@
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4109,10 +4106,10 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
@@ -4124,7 +4121,7 @@
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4138,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
@@ -4150,7 +4147,7 @@
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4164,10 +4161,10 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4179,7 +4176,7 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4193,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>20</v>
@@ -4208,7 +4205,7 @@
         <v>72</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4222,19 +4219,19 @@
         <v>32</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4248,10 +4245,10 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>20</v>
@@ -4268,19 +4265,19 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4294,10 +4291,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
@@ -4314,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4326,7 +4323,7 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4340,10 +4337,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
@@ -4352,7 +4349,7 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4366,10 +4363,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
@@ -4378,7 +4375,7 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4392,10 +4389,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
@@ -4404,7 +4401,7 @@
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4418,10 +4415,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4433,7 +4430,7 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4447,10 +4444,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4462,7 +4459,7 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4476,10 +4473,10 @@
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>20</v>
@@ -4491,7 +4488,7 @@
         <v>83</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4505,19 +4502,19 @@
         <v>33</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4531,10 +4528,10 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
@@ -4551,10 +4548,10 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
@@ -4571,10 +4568,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4586,7 +4583,7 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4600,10 +4597,10 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
@@ -4615,7 +4612,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4629,10 +4626,10 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>20</v>
@@ -4641,7 +4638,7 @@
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4655,19 +4652,19 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4681,19 +4678,19 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K100" s="7">
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4707,10 +4704,10 @@
         <v>34</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>20</v>
@@ -4722,7 +4719,7 @@
         <v>93</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4736,19 +4733,19 @@
         <v>34</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4762,10 +4759,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4782,10 +4779,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -4802,10 +4799,10 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
@@ -4822,10 +4819,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4837,7 +4834,7 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4851,10 +4848,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4866,7 +4863,7 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4880,10 +4877,10 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
@@ -4895,7 +4892,7 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4909,10 +4906,10 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>20</v>
@@ -4924,7 +4921,7 @@
         <v>103</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4938,19 +4935,19 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4964,10 +4961,10 @@
         <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
@@ -4984,10 +4981,10 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>20</v>
@@ -5004,19 +5001,19 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5030,10 +5027,10 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
@@ -5050,10 +5047,10 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
@@ -5062,7 +5059,7 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5076,10 +5073,10 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
@@ -5088,7 +5085,7 @@
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5102,10 +5099,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5117,7 +5114,7 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5131,10 +5128,10 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
@@ -5146,7 +5143,7 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5160,10 +5157,10 @@
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>20</v>
@@ -5175,7 +5172,7 @@
         <v>112</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5189,19 +5186,19 @@
         <v>36</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5215,10 +5212,10 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
@@ -5235,10 +5232,10 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5247,7 +5244,7 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5261,10 +5258,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
@@ -5273,7 +5270,7 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5287,10 +5284,10 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
@@ -5299,7 +5296,7 @@
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5313,10 +5310,10 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
@@ -5328,7 +5325,7 @@
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5342,10 +5339,10 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
@@ -5354,7 +5351,7 @@
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5368,10 +5365,10 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5383,7 +5380,7 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5397,10 +5394,10 @@
         <v>37</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
@@ -5412,7 +5409,7 @@
         <v>120</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5426,19 +5423,19 @@
         <v>37</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5452,10 +5449,10 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
@@ -5472,10 +5469,10 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5484,7 +5481,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5498,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
@@ -5510,7 +5507,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5524,10 +5521,10 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -5536,7 +5533,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5550,10 +5547,10 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5562,7 +5559,7 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5576,10 +5573,10 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
@@ -5588,7 +5585,7 @@
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5602,10 +5599,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5617,7 +5614,7 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5631,10 +5628,10 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
@@ -5646,7 +5643,7 @@
         <v>128</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5660,10 +5657,10 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
@@ -5680,10 +5677,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
@@ -5692,7 +5689,7 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5706,10 +5703,10 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5718,7 +5715,7 @@
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5732,10 +5729,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5747,7 +5744,7 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5761,10 +5758,10 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
@@ -5776,7 +5773,7 @@
         <v>136</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5790,10 +5787,10 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
@@ -5810,10 +5807,10 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
@@ -5822,7 +5819,7 @@
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5836,10 +5833,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5851,7 +5848,7 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5865,10 +5862,10 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
@@ -5880,7 +5877,7 @@
         <v>141</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -5894,10 +5891,10 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
@@ -5914,10 +5911,10 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
@@ -5926,7 +5923,7 @@
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5940,10 +5937,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5955,7 +5952,7 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -5969,10 +5966,10 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
@@ -5984,7 +5981,7 @@
         <v>145</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -5998,10 +5995,10 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
@@ -6018,10 +6015,10 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>20</v>
@@ -6030,7 +6027,7 @@
         <v>149</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -6044,19 +6041,19 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6070,10 +6067,10 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
@@ -6085,7 +6082,7 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6099,10 +6096,10 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
@@ -6114,7 +6111,7 @@
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -6128,10 +6125,10 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
@@ -6140,7 +6137,7 @@
         <v>149</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -6154,10 +6151,10 @@
         <v>38</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>20</v>
@@ -6177,19 +6174,19 @@
         <v>38</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K158" s="7">
         <v>155</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -6203,10 +6200,10 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>20</v>
@@ -6223,19 +6220,19 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K160" s="7">
         <v>157</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -6249,10 +6246,10 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
@@ -6269,10 +6266,10 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
@@ -6284,7 +6281,7 @@
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -6298,10 +6295,10 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
@@ -6310,7 +6307,7 @@
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -6324,10 +6321,10 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
@@ -6339,7 +6336,7 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -6353,10 +6350,10 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>20</v>
@@ -6368,7 +6365,7 @@
         <v>159</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -6382,19 +6379,19 @@
         <v>39</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K166" s="7">
         <v>163</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -6408,10 +6405,10 @@
         <v>39</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
@@ -6428,10 +6425,10 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
@@ -6448,10 +6445,10 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
@@ -6460,7 +6457,7 @@
         <v>166</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -6474,10 +6471,10 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
@@ -6489,7 +6486,7 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -6503,10 +6500,10 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>20</v>
@@ -6518,7 +6515,7 @@
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -6532,19 +6529,19 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K172" s="7">
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -6558,13 +6555,13 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>22</v>
@@ -6573,7 +6570,7 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -6587,10 +6584,10 @@
         <v>40</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>20</v>
@@ -6602,7 +6599,7 @@
         <v>167</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -6616,19 +6613,19 @@
         <v>40</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K175" s="7">
         <v>172</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -6642,10 +6639,10 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
@@ -6662,10 +6659,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6674,7 +6671,7 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -6688,10 +6685,10 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
@@ -6700,7 +6697,7 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -6714,10 +6711,10 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
@@ -6726,7 +6723,7 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -6740,10 +6737,10 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
@@ -6752,7 +6749,7 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -6766,10 +6763,10 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -6778,7 +6775,7 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -6792,10 +6789,10 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>20</v>
@@ -6804,7 +6801,7 @@
         <v>174</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -6818,10 +6815,10 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>20</v>
@@ -6833,7 +6830,7 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -6847,10 +6844,10 @@
         <v>41</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>20</v>
@@ -6862,7 +6859,7 @@
         <v>180</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -6876,19 +6873,19 @@
         <v>41</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K185" s="7">
         <v>182</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -6902,10 +6899,10 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>20</v>
@@ -6922,19 +6919,19 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K187" s="7">
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -6948,10 +6945,10 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -6960,7 +6957,7 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -6974,10 +6971,10 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6986,7 +6983,7 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -7000,10 +6997,10 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
@@ -7012,7 +7009,7 @@
         <v>184</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -7026,10 +7023,10 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
@@ -7038,7 +7035,7 @@
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -7052,10 +7049,10 @@
         <v>42</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>20</v>
@@ -7067,7 +7064,7 @@
         <v>188</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -7081,19 +7078,19 @@
         <v>42</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K193" s="7">
         <v>190</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -7107,10 +7104,10 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
@@ -7127,10 +7124,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
@@ -7139,7 +7136,7 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -7153,10 +7150,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
@@ -7165,7 +7162,7 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -7179,10 +7176,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
@@ -7191,7 +7188,7 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -7205,10 +7202,10 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
@@ -7217,7 +7214,7 @@
         <v>192</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -7231,10 +7228,10 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
@@ -7246,7 +7243,7 @@
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -7260,10 +7257,10 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
@@ -7272,7 +7269,7 @@
         <v>193</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -7286,10 +7283,10 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
@@ -7306,10 +7303,10 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
@@ -7318,7 +7315,7 @@
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -7332,10 +7329,10 @@
         <v>43</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>20</v>
@@ -7347,7 +7344,7 @@
         <v>199</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -7361,19 +7358,19 @@
         <v>43</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K204" s="7">
         <v>201</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7400,184 +7397,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>479</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>482</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>493</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>495</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>496</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>504</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>506</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>507</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>515</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>516</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7585,13 +7582,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8996C1-6BD6-4597-B6BC-3375FE35E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB35970-26F5-4AD9-93E9-CDBB1664D59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="529">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1633,9 +1633,6 @@
     <t>Custom LkSG Production Sites</t>
   </si>
   <si>
-    <t>Custom LkSG Most-Important-Products</t>
-  </si>
-  <si>
     <t>Custom LkSG Procurement Categories</t>
   </si>
   <si>
@@ -1657,13 +1654,10 @@
     <t>Short-lived and changing business relationships | High price pressure | Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers | None of the above</t>
   </si>
   <si>
-    <t>WARNINGREMOVELATER</t>
-  </si>
-  <si>
-    <t>Warning remove this object later in the process!</t>
-  </si>
-  <si>
     <t>Smaller10 |Between10And25 | Between25And50 | Greater50</t>
+  </si>
+  <si>
+    <t>LkSG Most Important Products</t>
   </si>
 </sst>
 </file>
@@ -2155,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2306,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2326,7 +2320,7 @@
         <v>259</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2349,7 +2343,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2395,13 +2389,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>475</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2487,7 +2481,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2513,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2542,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2562,13 +2556,13 @@
         <v>269</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2594,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2617,7 +2611,7 @@
         <v>474</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2643,7 +2637,7 @@
         <v>474</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2666,13 +2660,13 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2695,18 +2689,18 @@
         <v>461</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -2715,19 +2709,24 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
@@ -2736,10 +2735,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>520</v>
@@ -2748,38 +2747,35 @@
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="K24" s="7">
-        <v>11</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2788,21 +2784,24 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>22</v>
+      <c r="K25" s="7">
+        <v>23</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2811,24 +2810,24 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="7">
-        <v>23</v>
+      <c r="K26" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -2837,24 +2836,27 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -2863,27 +2865,24 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>459</v>
+        <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>473</v>
+        <v>45</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
@@ -2892,24 +2891,24 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -2918,50 +2917,47 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="K30" s="7">
+        <v>23</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="7">
-        <v>23</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>525</v>
+      <c r="J31" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -2970,21 +2966,24 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>22</v>
+      <c r="K32" s="7">
+        <v>30</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -2993,10 +2992,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3005,12 +3004,12 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3019,10 +3018,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3031,12 +3030,12 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3045,10 +3044,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -3057,12 +3056,12 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3071,10 +3070,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>20</v>
@@ -3083,12 +3082,12 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3097,24 +3096,30 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="7">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3123,30 +3128,27 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>22</v>
+        <v>460</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3155,27 +3157,24 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3184,24 +3183,24 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3210,24 +3209,24 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3236,24 +3235,24 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="K42" s="7">
+        <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3262,10 +3261,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3274,12 +3273,12 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3288,10 +3287,10 @@
         <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
@@ -3300,38 +3299,35 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="7">
-        <v>30</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>525</v>
+      <c r="J45" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3340,10 +3336,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3354,7 +3350,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3363,21 +3359,24 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>22</v>
+      <c r="K47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3386,24 +3385,21 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>525</v>
+      <c r="J48" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3412,10 +3408,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3426,7 +3422,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3435,21 +3431,24 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -3458,24 +3457,21 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3484,10 +3480,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -3498,30 +3494,27 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3530,10 +3523,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3541,7 +3534,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3550,10 +3543,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3561,7 +3554,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3570,10 +3563,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3581,7 +3574,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3590,10 +3583,10 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -3601,7 +3594,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3610,18 +3603,27 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3630,27 +3632,24 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>459</v>
+        <v>20</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3659,24 +3658,24 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>52</v>
+        <v>472</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3685,24 +3684,18 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -3711,18 +3704,27 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -3731,27 +3733,18 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -3760,18 +3753,27 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -3780,27 +3782,18 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -3809,47 +3802,47 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3858,18 +3851,24 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K68" s="7">
+        <v>66</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3878,10 +3877,10 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
@@ -3890,12 +3889,12 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3904,10 +3903,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>320</v>
+        <v>122</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3916,12 +3915,12 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3930,10 +3929,10 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>446</v>
+        <v>123</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3942,12 +3941,12 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3956,24 +3955,24 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="7">
-        <v>66</v>
+        <v>457</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3982,24 +3981,18 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -4008,18 +4001,24 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K74" s="7">
+        <v>72</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -4028,10 +4027,10 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4040,12 +4039,12 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4054,10 +4053,10 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -4066,12 +4065,12 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4080,24 +4079,27 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K77" s="7">
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
@@ -4106,27 +4108,24 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K78" s="7">
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -4135,24 +4134,27 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K79" s="7">
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
@@ -4161,10 +4163,10 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4176,12 +4178,12 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4190,53 +4192,44 @@
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="7">
-        <v>72</v>
+        <v>457</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4245,18 +4238,24 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4265,24 +4264,18 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4291,18 +4284,24 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K85" s="7">
+        <v>83</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4311,10 +4310,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4323,12 +4322,12 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4337,10 +4336,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
@@ -4349,12 +4348,12 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4363,10 +4362,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
@@ -4375,12 +4374,12 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>21</v>
@@ -4389,24 +4388,27 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K89" s="7">
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>21</v>
@@ -4415,10 +4417,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4430,12 +4432,12 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>21</v>
@@ -4444,10 +4446,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4459,12 +4461,12 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4473,53 +4475,44 @@
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="7">
-        <v>83</v>
+        <v>457</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4528,10 +4521,10 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
@@ -4539,7 +4532,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4548,18 +4541,27 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="7">
+        <v>93</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4568,10 +4570,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4583,12 +4585,12 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4597,27 +4599,24 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K97" s="7">
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -4626,24 +4625,24 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>20</v>
+        <v>521</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -4652,24 +4651,24 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
@@ -4678,24 +4677,27 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K100" s="7">
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4704,53 +4706,44 @@
         <v>34</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="7">
-        <v>93</v>
+        <v>457</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4759,10 +4752,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4770,7 +4763,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4779,10 +4772,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -4790,7 +4783,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4799,18 +4792,27 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" s="7">
+        <v>103</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4819,10 +4821,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4834,12 +4836,12 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -4848,10 +4850,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4863,12 +4865,12 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -4877,10 +4879,10 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
@@ -4892,12 +4894,12 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -4906,27 +4908,24 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K109" s="7">
-        <v>103</v>
+        <v>457</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -4935,36 +4934,30 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
@@ -4972,7 +4965,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -4981,18 +4974,24 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -5001,24 +5000,18 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -5027,18 +5020,24 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K114" s="7">
+        <v>112</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5047,10 +5046,10 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
@@ -5059,12 +5058,12 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
@@ -5073,24 +5072,27 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K116" s="7">
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
@@ -5099,10 +5101,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5114,12 +5116,12 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
@@ -5128,10 +5130,10 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
@@ -5143,12 +5145,12 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5157,53 +5159,44 @@
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" s="7">
-        <v>112</v>
+        <v>457</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5212,18 +5205,24 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K121" s="7">
+        <v>120</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5232,10 +5231,10 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5244,12 +5243,12 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5258,10 +5257,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
@@ -5270,12 +5269,12 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5284,24 +5283,27 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K124" s="7">
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
@@ -5310,27 +5312,24 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K125" s="7">
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
@@ -5339,24 +5338,27 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K126" s="7">
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
@@ -5365,10 +5367,10 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5380,12 +5382,12 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5394,53 +5396,44 @@
         <v>37</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="7">
-        <v>120</v>
+        <v>457</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5449,18 +5442,24 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K130" s="7">
+        <v>128</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5469,10 +5468,10 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5481,12 +5480,12 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5495,10 +5494,10 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
@@ -5507,12 +5506,12 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5521,10 +5520,10 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -5533,12 +5532,12 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5547,10 +5546,10 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5559,12 +5558,12 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5573,24 +5572,27 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K135" s="7">
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5599,10 +5601,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5614,12 +5616,12 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5628,27 +5630,18 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="7">
-        <v>128</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5657,18 +5650,24 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K138" s="7">
+        <v>136</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5677,10 +5676,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
@@ -5689,12 +5688,12 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5703,24 +5702,27 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K140" s="7">
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5729,10 +5731,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5744,12 +5746,12 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5758,27 +5760,18 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K142" s="7">
-        <v>136</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5787,18 +5780,24 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K143" s="7">
+        <v>141</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5807,24 +5806,27 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K144" s="7">
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5833,10 +5835,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5848,12 +5850,12 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5862,27 +5864,18 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K146" s="7">
-        <v>141</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5891,18 +5884,24 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K147" s="7">
+        <v>145</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5911,24 +5910,27 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K148" s="7">
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5937,10 +5939,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5952,12 +5954,12 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -5966,27 +5968,18 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K150" s="7">
-        <v>145</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -5995,18 +5988,24 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K151" s="7">
+        <v>149</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -6015,24 +6014,24 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K152" s="7">
-        <v>149</v>
+        <v>457</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -6041,24 +6040,27 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>462</v>
+        <v>20</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="7">
+        <v>149</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
@@ -6067,10 +6069,10 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
@@ -6082,12 +6084,12 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
@@ -6096,27 +6098,24 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K155" s="7">
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -6125,24 +6124,21 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K156" s="7">
-        <v>149</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>525</v>
+      <c r="J156" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6151,47 +6147,44 @@
         <v>38</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
+      </c>
+      <c r="K157" s="7">
+        <v>155</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K158" s="7">
-        <v>155</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6200,18 +6193,24 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K159" s="7">
+        <v>157</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6220,24 +6219,18 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K160" s="7">
-        <v>157</v>
-      </c>
-      <c r="L160" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6246,18 +6239,27 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="7">
+        <v>159</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6266,27 +6268,24 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K162" s="7">
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>21</v>
@@ -6295,24 +6294,27 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K163" s="7">
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>21</v>
@@ -6321,10 +6323,10 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
@@ -6336,12 +6338,12 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>21</v>
@@ -6350,27 +6352,24 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="K165" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6379,36 +6378,30 @@
         <v>39</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K166" s="7">
-        <v>163</v>
-      </c>
-      <c r="L166" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
@@ -6416,7 +6409,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6425,18 +6418,24 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K168" s="7">
+        <v>166</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6445,24 +6444,27 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J169" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K169" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>21</v>
@@ -6471,10 +6473,10 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
@@ -6486,12 +6488,12 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>21</v>
@@ -6500,27 +6502,24 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J171" s="9" t="s">
-        <v>22</v>
+        <v>416</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>521</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>21</v>
@@ -6529,24 +6528,27 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>522</v>
+        <v>417</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K172" s="7">
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>21</v>
@@ -6555,13 +6557,13 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>22</v>
@@ -6570,12 +6572,12 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>21</v>
@@ -6584,53 +6586,44 @@
         <v>40</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J174" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="K174" s="7">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K175" s="7">
-        <v>172</v>
-      </c>
-      <c r="L175" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6639,18 +6632,24 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K176" s="7">
+        <v>174</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6659,10 +6658,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6671,12 +6670,12 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6685,10 +6684,10 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
@@ -6697,12 +6696,12 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6711,10 +6710,10 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
@@ -6723,12 +6722,12 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6737,10 +6736,10 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
@@ -6749,12 +6748,12 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
@@ -6763,10 +6762,10 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -6775,12 +6774,12 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
@@ -6789,24 +6788,27 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>20</v>
+        <v>427</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K182" s="7">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
@@ -6815,12 +6817,12 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G183" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G183" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J183" s="9" t="s">
@@ -6830,12 +6832,12 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6844,53 +6846,44 @@
         <v>41</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J184" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="K184" s="7">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K185" s="7">
-        <v>182</v>
-      </c>
-      <c r="L185" s="4" t="s">
-        <v>525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6899,18 +6892,24 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K186" s="7">
+        <v>184</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6919,24 +6918,24 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="K187" s="7">
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -6945,10 +6944,10 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -6957,12 +6956,12 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
@@ -6971,10 +6970,10 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6983,12 +6982,12 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
@@ -6997,24 +6996,24 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K190" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
@@ -7023,24 +7022,27 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K191" s="7">
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -7049,53 +7051,44 @@
         <v>42</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J192" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="K192" s="7">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K193" s="7">
-        <v>190</v>
-      </c>
-      <c r="L193" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7104,18 +7097,24 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>451</v>
+        <v>246</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="K194" s="7">
+        <v>192</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7124,10 +7123,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>452</v>
+        <v>247</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
@@ -7136,12 +7135,12 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7150,10 +7149,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
@@ -7162,12 +7161,12 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7176,10 +7175,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
@@ -7188,12 +7187,12 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7202,24 +7201,27 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J198" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K198" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>18</v>
@@ -7228,27 +7230,24 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J199" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K199" s="7">
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>18</v>
@@ -7257,24 +7256,18 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K200" s="7">
-        <v>193</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>18</v>
@@ -7283,18 +7276,24 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K201" s="7">
+        <v>199</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>18</v>
@@ -7303,24 +7302,27 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K202" s="7">
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
-        <v>201</v>
+      <c r="A203" s="9">
+        <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>18</v>
@@ -7329,48 +7331,19 @@
         <v>43</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J203" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="K203" s="7">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" s="9">
-        <v>202</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K204" s="7">
-        <v>201</v>
-      </c>
-      <c r="L204" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB35970-26F5-4AD9-93E9-CDBB1664D59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811BA20-5898-4597-ACC1-EF031F92C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="531">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1654,10 +1654,16 @@
     <t>Short-lived and changing business relationships | High price pressure | Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers | None of the above</t>
   </si>
   <si>
+    <t>WARNINGREMOVELATER</t>
+  </si>
+  <si>
+    <t>Warning remove this object later in the process!</t>
+  </si>
+  <si>
     <t>Smaller10 |Between10And25 | Between25And50 | Greater50</t>
   </si>
   <si>
-    <t>LkSG Most Important Products</t>
+    <t>Custom LkSG Most Important Products</t>
   </si>
 </sst>
 </file>
@@ -2149,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2395,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>475</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -2709,24 +2715,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>527</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>274</v>
+        <v>528</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="K22" s="7">
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>524</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
@@ -2735,13 +2736,13 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
@@ -2752,30 +2753,33 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>22</v>
+        <v>275</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="K24" s="7">
+        <v>11</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2784,24 +2788,21 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7">
-        <v>23</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>524</v>
+      <c r="J25" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2810,16 +2811,16 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>456</v>
+      <c r="K26" s="7">
+        <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>524</v>
@@ -2827,7 +2828,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -2836,19 +2837,16 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>459</v>
+        <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>524</v>
@@ -2856,7 +2854,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -2865,16 +2863,19 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>524</v>
@@ -2882,7 +2883,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
@@ -2891,16 +2892,16 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>524</v>
@@ -2908,7 +2909,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -2917,16 +2918,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="7">
-        <v>23</v>
+        <v>457</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>524</v>
@@ -2934,30 +2935,33 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="7">
         <v>23</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>22</v>
+      <c r="L31" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -2966,24 +2970,21 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="7">
-        <v>30</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>524</v>
+      <c r="J32" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -2992,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3009,7 +3010,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3018,10 +3019,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3035,7 +3036,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3044,10 +3045,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -3061,7 +3062,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3070,10 +3071,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>20</v>
@@ -3087,7 +3088,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3096,22 +3097,16 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="K37" s="7">
+        <v>30</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>524</v>
@@ -3119,7 +3114,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3128,16 +3123,19 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>459</v>
+        <v>19</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>47</v>
@@ -3148,7 +3146,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3157,13 +3155,16 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
@@ -3174,7 +3175,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3183,13 +3184,13 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>47</v>
@@ -3200,7 +3201,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3209,16 +3210,16 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>524</v>
@@ -3226,7 +3227,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3235,16 +3236,16 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="7">
-        <v>30</v>
+        <v>457</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>524</v>
@@ -3252,7 +3253,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3261,10 +3262,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3278,7 +3279,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3287,10 +3288,10 @@
         <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
@@ -3304,30 +3305,33 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="7">
         <v>30</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>22</v>
+      <c r="L45" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3336,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3350,7 +3354,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3359,24 +3363,21 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>524</v>
+      <c r="J47" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3385,21 +3386,24 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>22</v>
+      <c r="K48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3408,10 +3412,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3422,7 +3426,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3431,24 +3435,21 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -3457,21 +3458,24 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>22</v>
+        <v>457</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3480,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -3494,27 +3498,30 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3523,10 +3530,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3534,7 +3541,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3543,10 +3550,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3554,7 +3561,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3563,10 +3570,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3574,7 +3581,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3583,10 +3590,10 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -3594,7 +3601,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3603,27 +3610,18 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3632,16 +3630,19 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>524</v>
@@ -3649,7 +3650,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3658,16 +3659,16 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>472</v>
+        <v>52</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>524</v>
@@ -3675,7 +3676,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3684,18 +3685,24 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -3704,27 +3711,18 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -3733,18 +3731,27 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -3753,27 +3760,18 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -3782,18 +3780,27 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -3802,47 +3809,47 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>20</v>
+        <v>460</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3851,24 +3858,18 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K68" s="7">
-        <v>66</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3877,10 +3878,10 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
@@ -3892,9 +3893,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3903,10 +3904,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>446</v>
+        <v>121</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3918,9 +3919,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3929,10 +3930,10 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>321</v>
+        <v>122</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3946,7 +3947,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3955,16 +3956,16 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="K72" s="7">
+        <v>66</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>524</v>
@@ -3972,7 +3973,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3981,18 +3982,24 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -4001,24 +4008,18 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K74" s="7">
-        <v>72</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -4027,10 +4028,10 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4044,7 +4045,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4053,10 +4054,10 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -4070,7 +4071,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4079,16 +4080,13 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K77" s="7">
         <v>72</v>
@@ -4099,7 +4097,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
@@ -4108,13 +4106,16 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K78" s="7">
         <v>72</v>
@@ -4125,7 +4126,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -4134,16 +4135,13 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K79" s="7">
         <v>72</v>
@@ -4154,7 +4152,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
@@ -4163,10 +4161,10 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4183,7 +4181,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4192,16 +4190,19 @@
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="7">
+        <v>72</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>524</v>
@@ -4209,27 +4210,33 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4238,24 +4245,18 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4264,18 +4265,24 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4284,24 +4291,18 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K85" s="7">
-        <v>83</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4310,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4327,7 +4328,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4336,10 +4337,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
@@ -4353,7 +4354,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4362,10 +4363,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
@@ -4379,7 +4380,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>21</v>
@@ -4388,16 +4389,13 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K89" s="7">
         <v>83</v>
@@ -4408,7 +4406,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>21</v>
@@ -4417,10 +4415,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4437,7 +4435,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>21</v>
@@ -4446,10 +4444,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4466,7 +4464,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4475,16 +4473,19 @@
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>468</v>
+        <v>20</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="7">
+        <v>83</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>524</v>
@@ -4492,27 +4493,33 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4521,10 +4528,10 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
@@ -4532,7 +4539,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4541,27 +4548,18 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="7">
-        <v>93</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4570,10 +4568,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4590,7 +4588,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4599,13 +4597,16 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K97" s="7">
         <v>93</v>
@@ -4616,7 +4617,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -4625,13 +4626,13 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>521</v>
+        <v>20</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
@@ -4642,7 +4643,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -4651,10 +4652,10 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>521</v>
@@ -4668,7 +4669,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
@@ -4677,16 +4678,13 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="K100" s="7">
         <v>93</v>
@@ -4697,7 +4695,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4706,16 +4704,19 @@
         <v>34</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>467</v>
+        <v>20</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="7">
+        <v>93</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>524</v>
@@ -4723,27 +4724,33 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4752,10 +4759,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4763,7 +4770,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4772,10 +4779,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -4783,7 +4790,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4792,27 +4799,18 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K105" s="7">
-        <v>103</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4821,10 +4819,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4841,7 +4839,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -4850,10 +4848,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4870,7 +4868,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -4879,10 +4877,10 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
@@ -4899,7 +4897,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -4908,16 +4906,19 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>466</v>
+        <v>20</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="7">
+        <v>103</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>524</v>
@@ -4925,7 +4926,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -4934,30 +4935,36 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
@@ -4965,7 +4972,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -4974,24 +4981,18 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -5000,18 +5001,24 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>20</v>
+        <v>458</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -5020,24 +5027,18 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K114" s="7">
-        <v>112</v>
-      </c>
-      <c r="L114" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5046,10 +5047,10 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
@@ -5063,7 +5064,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
@@ -5072,16 +5073,13 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K116" s="7">
         <v>112</v>
@@ -5092,7 +5090,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
@@ -5101,10 +5099,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5121,7 +5119,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
@@ -5130,10 +5128,10 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
@@ -5150,7 +5148,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5159,16 +5157,19 @@
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>464</v>
+        <v>20</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="7">
+        <v>112</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>524</v>
@@ -5176,27 +5177,33 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5205,24 +5212,18 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K121" s="7">
-        <v>120</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5231,10 +5232,10 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5248,7 +5249,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5257,10 +5258,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
@@ -5274,7 +5275,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5283,16 +5284,13 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K124" s="7">
         <v>120</v>
@@ -5303,7 +5301,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
@@ -5312,13 +5310,16 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K125" s="7">
         <v>120</v>
@@ -5329,7 +5330,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
@@ -5338,16 +5339,13 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K126" s="7">
         <v>120</v>
@@ -5358,7 +5356,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
@@ -5367,10 +5365,10 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5387,7 +5385,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5396,16 +5394,19 @@
         <v>37</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>463</v>
+        <v>20</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="7">
+        <v>120</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>524</v>
@@ -5413,27 +5414,33 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5442,24 +5449,18 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K130" s="7">
-        <v>128</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5468,10 +5469,10 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5485,7 +5486,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5494,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
@@ -5511,7 +5512,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5520,10 +5521,10 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -5537,7 +5538,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5546,10 +5547,10 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5563,7 +5564,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5572,16 +5573,13 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K135" s="7">
         <v>128</v>
@@ -5592,7 +5590,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5601,10 +5599,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5621,7 +5619,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5630,18 +5628,27 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="7">
+        <v>128</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5650,24 +5657,18 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K138" s="7">
-        <v>136</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5676,10 +5677,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
@@ -5693,7 +5694,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5702,16 +5703,13 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K140" s="7">
         <v>136</v>
@@ -5722,7 +5720,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5731,10 +5729,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5751,7 +5749,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5760,18 +5758,27 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" s="7">
+        <v>136</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5780,24 +5787,18 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K143" s="7">
-        <v>141</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5806,16 +5807,13 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K144" s="7">
         <v>141</v>
@@ -5826,7 +5824,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5835,10 +5833,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5855,7 +5853,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5864,18 +5862,27 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" s="7">
+        <v>141</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5884,24 +5891,18 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K147" s="7">
-        <v>145</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5910,16 +5911,13 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K148" s="7">
         <v>145</v>
@@ -5930,7 +5928,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5939,10 +5937,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5959,7 +5957,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -5968,18 +5966,27 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="7">
+        <v>145</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -5988,24 +5995,18 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K151" s="7">
-        <v>149</v>
-      </c>
-      <c r="L151" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -6014,16 +6015,16 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>462</v>
+        <v>20</v>
+      </c>
+      <c r="K152" s="7">
+        <v>149</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>524</v>
@@ -6031,7 +6032,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -6040,19 +6041,16 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J153" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K153" s="7">
-        <v>149</v>
+        <v>457</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>524</v>
@@ -6060,7 +6058,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
@@ -6069,10 +6067,10 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
@@ -6089,7 +6087,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
@@ -6098,13 +6096,16 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K155" s="7">
         <v>149</v>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -6124,21 +6125,24 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J156" s="9" t="s">
-        <v>22</v>
+      <c r="K156" s="7">
+        <v>149</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6147,44 +6151,47 @@
         <v>38</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K157" s="7">
-        <v>155</v>
-      </c>
-      <c r="L157" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K158" s="7">
+        <v>155</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6193,24 +6200,18 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K159" s="7">
-        <v>157</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6219,18 +6220,24 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K160" s="7">
+        <v>157</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6239,27 +6246,18 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K161" s="7">
-        <v>159</v>
-      </c>
-      <c r="L161" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6268,13 +6266,16 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K162" s="7">
         <v>159</v>
@@ -6285,7 +6286,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>21</v>
@@ -6294,16 +6295,13 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K163" s="7">
         <v>159</v>
@@ -6314,7 +6312,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>21</v>
@@ -6323,10 +6321,10 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
@@ -6343,7 +6341,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>21</v>
@@ -6352,16 +6350,19 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K165" s="7">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>524</v>
@@ -6369,7 +6370,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6378,30 +6379,36 @@
         <v>39</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K166" s="7">
+        <v>163</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
@@ -6409,7 +6416,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6418,24 +6425,18 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K168" s="7">
-        <v>166</v>
-      </c>
-      <c r="L168" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6444,19 +6445,16 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K169" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>524</v>
@@ -6464,7 +6462,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>21</v>
@@ -6473,10 +6471,10 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
@@ -6493,7 +6491,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>21</v>
@@ -6502,13 +6500,16 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>521</v>
+        <v>415</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
@@ -6519,7 +6520,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>21</v>
@@ -6528,16 +6529,13 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G172" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G172" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="J172" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K172" s="7">
         <v>167</v>
@@ -6548,7 +6546,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>21</v>
@@ -6557,13 +6555,13 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>20</v>
+        <v>521</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>22</v>
@@ -6577,7 +6575,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>21</v>
@@ -6586,16 +6584,19 @@
         <v>40</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K174" s="7">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>524</v>
@@ -6603,27 +6604,33 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K175" s="7">
+        <v>172</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6632,24 +6639,18 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K176" s="7">
-        <v>174</v>
-      </c>
-      <c r="L176" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6658,10 +6659,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6675,7 +6676,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6684,10 +6685,10 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
@@ -6701,7 +6702,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6710,10 +6711,10 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
@@ -6727,7 +6728,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6736,10 +6737,10 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
@@ -6753,7 +6754,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
@@ -6762,10 +6763,10 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -6779,7 +6780,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
@@ -6788,19 +6789,16 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G182" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J182" s="9" t="s">
-        <v>22</v>
+        <v>426</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="K182" s="7">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>524</v>
@@ -6808,7 +6806,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
@@ -6817,12 +6815,12 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G183" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G183" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J183" s="9" t="s">
@@ -6837,7 +6835,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6846,16 +6844,19 @@
         <v>41</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K184" s="7">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>524</v>
@@ -6863,27 +6864,33 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="K185" s="7">
+        <v>182</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6892,24 +6899,18 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K186" s="7">
-        <v>184</v>
-      </c>
-      <c r="L186" s="4" t="s">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6918,13 +6919,13 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="K187" s="7">
         <v>184</v>
@@ -6935,7 +6936,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -6944,10 +6945,10 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -6961,7 +6962,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
@@ -6970,10 +6971,10 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6987,7 +6988,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
@@ -6996,16 +6997,16 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K190" s="7">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>524</v>
@@ -7013,7 +7014,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
@@ -7022,16 +7023,13 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J191" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K191" s="7">
         <v>188</v>
@@ -7042,7 +7040,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -7051,16 +7049,19 @@
         <v>42</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>457</v>
+        <v>20</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K192" s="7">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>524</v>
@@ -7068,27 +7069,33 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="K193" s="7">
+        <v>190</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7097,24 +7104,18 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>452</v>
+        <v>245</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K194" s="7">
-        <v>192</v>
-      </c>
-      <c r="L194" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7123,10 +7124,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>437</v>
+        <v>246</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
@@ -7140,7 +7141,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7149,10 +7150,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
@@ -7166,7 +7167,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7175,10 +7176,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
@@ -7192,7 +7193,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7201,19 +7202,16 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J198" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K198" s="7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>524</v>
@@ -7221,7 +7219,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>18</v>
@@ -7230,13 +7228,16 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K199" s="7">
         <v>193</v>
@@ -7247,7 +7248,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>18</v>
@@ -7256,18 +7257,24 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K200" s="7">
+        <v>193</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>18</v>
@@ -7276,24 +7283,18 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K201" s="7">
-        <v>199</v>
-      </c>
-      <c r="L201" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>18</v>
@@ -7302,16 +7303,13 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K202" s="7">
         <v>199</v>
@@ -7321,8 +7319,8 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="9">
-        <v>202</v>
+      <c r="A203" s="4">
+        <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>18</v>
@@ -7331,18 +7329,47 @@
         <v>43</v>
       </c>
       <c r="D203" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K203" s="7">
+        <v>199</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="9">
+        <v>202</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E204" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G203" s="4" t="s">
+      <c r="G204" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="K203" s="7">
+      <c r="K204" s="7">
         <v>201</v>
       </c>
-      <c r="L203" s="4" t="s">
+      <c r="L204" s="4" t="s">
         <v>524</v>
       </c>
     </row>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811BA20-5898-4597-ACC1-EF031F92C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F009FD-5720-42BD-A0DC-0B1C513183A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -1663,7 +1663,7 @@
     <t>Smaller10 |Between10And25 | Between25And50 | Greater50</t>
   </si>
   <si>
-    <t>Custom LkSG Most Important Products</t>
+    <t>LkSG Most Important Products</t>
   </si>
 </sst>
 </file>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F009FD-5720-42BD-A0DC-0B1C513183A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ABE78-B33B-41B7-84A7-178B17BA148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>Most Important Products</t>
   </si>
   <si>
-    <t>Procurement Category</t>
-  </si>
-  <si>
     <t>Risk Management System</t>
   </si>
   <si>
@@ -1633,9 +1630,6 @@
     <t>Custom LkSG Production Sites</t>
   </si>
   <si>
-    <t>Custom LkSG Procurement Categories</t>
-  </si>
-  <si>
     <t>Yes/No/NA</t>
   </si>
   <si>
@@ -1664,6 +1658,12 @@
   </si>
   <si>
     <t>LkSG Most Important Products</t>
+  </si>
+  <si>
+    <t>Procurement Categories</t>
+  </si>
+  <si>
+    <t>LkSG Procurement Categories</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2240,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2277,7 +2277,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2297,16 +2297,16 @@
         <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2323,10 +2323,10 @@
         <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2343,13 +2343,13 @@
         <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2369,7 +2369,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2389,19 +2389,19 @@
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2418,7 +2418,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2438,7 +2438,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2458,7 +2458,7 @@
         <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2478,16 +2478,16 @@
         <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2513,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2530,19 +2530,19 @@
         <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,16 +2559,16 @@
         <v>69</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
@@ -2594,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2614,10 +2614,10 @@
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2634,16 +2634,16 @@
         <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2660,19 +2660,19 @@
         <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2689,19 +2689,19 @@
         <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2715,13 +2715,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7"/>
     </row>
@@ -2739,16 +2739,16 @@
         <v>75</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2762,19 +2762,19 @@
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K24" s="7">
         <v>11</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2788,10 +2788,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
@@ -2811,10 +2811,10 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
@@ -2823,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2837,19 +2837,19 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2863,22 +2863,22 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2892,10 +2892,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>20</v>
@@ -2904,7 +2904,7 @@
         <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2918,19 +2918,19 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2944,10 +2944,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
@@ -2956,7 +2956,7 @@
         <v>23</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
@@ -2993,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3005,7 +3005,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3019,10 +3019,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3031,7 +3031,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3045,10 +3045,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -3057,7 +3057,7 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3071,10 +3071,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>20</v>
@@ -3083,7 +3083,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3097,10 +3097,10 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>20</v>
@@ -3109,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3123,16 +3123,16 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>22</v>
@@ -3141,7 +3141,7 @@
         <v>47</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3155,22 +3155,22 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3184,19 +3184,19 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3210,10 +3210,10 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>20</v>
@@ -3222,7 +3222,7 @@
         <v>47</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3236,19 +3236,19 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3262,10 +3262,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3288,10 +3288,10 @@
         <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
@@ -3300,7 +3300,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
@@ -3326,7 +3326,7 @@
         <v>30</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3340,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3363,10 +3363,10 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
@@ -3386,10 +3386,10 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
@@ -3398,7 +3398,7 @@
         <v>49</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3412,10 +3412,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3435,10 +3435,10 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>20</v>
@@ -3458,19 +3458,19 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3484,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -3507,10 +3507,10 @@
         <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
@@ -3530,10 +3530,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3550,10 +3550,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3570,10 +3570,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3590,10 +3590,10 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -3610,10 +3610,10 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>20</v>
@@ -3630,22 +3630,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3659,10 +3659,10 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>20</v>
@@ -3671,7 +3671,7 @@
         <v>52</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3685,19 +3685,19 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3711,10 +3711,10 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>20</v>
@@ -3731,22 +3731,22 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3760,10 +3760,10 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>20</v>
@@ -3780,22 +3780,22 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3809,10 +3809,10 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>20</v>
@@ -3829,22 +3829,22 @@
         <v>31</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3858,10 +3858,10 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
@@ -3878,10 +3878,10 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
@@ -3890,7 +3890,7 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3904,10 +3904,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3916,7 +3916,7 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -3930,10 +3930,10 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3942,7 +3942,7 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3956,10 +3956,10 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>20</v>
@@ -3968,7 +3968,7 @@
         <v>66</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3982,19 +3982,19 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4008,10 +4008,10 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
@@ -4028,10 +4028,10 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4040,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4054,10 +4054,10 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -4066,7 +4066,7 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4080,10 +4080,10 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
@@ -4092,7 +4092,7 @@
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4106,10 +4106,10 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
@@ -4121,7 +4121,7 @@
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4135,10 +4135,10 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
@@ -4147,7 +4147,7 @@
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4161,10 +4161,10 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4176,7 +4176,7 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4190,10 +4190,10 @@
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>20</v>
@@ -4205,7 +4205,7 @@
         <v>72</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4219,19 +4219,19 @@
         <v>32</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4245,10 +4245,10 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>20</v>
@@ -4265,19 +4265,19 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4291,10 +4291,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4323,7 +4323,7 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4337,10 +4337,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
@@ -4349,7 +4349,7 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4363,10 +4363,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
@@ -4375,7 +4375,7 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4389,10 +4389,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
@@ -4401,7 +4401,7 @@
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4415,10 +4415,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4430,7 +4430,7 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4444,10 +4444,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4459,7 +4459,7 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4473,10 +4473,10 @@
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>20</v>
@@ -4488,7 +4488,7 @@
         <v>83</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4502,19 +4502,19 @@
         <v>33</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4528,10 +4528,10 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
@@ -4548,10 +4548,10 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
@@ -4568,10 +4568,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4583,7 +4583,7 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4597,10 +4597,10 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
@@ -4612,7 +4612,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4626,10 +4626,10 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>20</v>
@@ -4638,7 +4638,7 @@
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4652,19 +4652,19 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4678,19 +4678,19 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K100" s="7">
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4704,10 +4704,10 @@
         <v>34</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>20</v>
@@ -4719,7 +4719,7 @@
         <v>93</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4733,19 +4733,19 @@
         <v>34</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4759,10 +4759,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4779,10 +4779,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -4799,10 +4799,10 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
@@ -4819,10 +4819,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4834,7 +4834,7 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4848,10 +4848,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4863,7 +4863,7 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4877,10 +4877,10 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
@@ -4892,7 +4892,7 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4906,10 +4906,10 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>20</v>
@@ -4921,7 +4921,7 @@
         <v>103</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4935,19 +4935,19 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4961,10 +4961,10 @@
         <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
@@ -4981,10 +4981,10 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>20</v>
@@ -5001,19 +5001,19 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5027,10 +5027,10 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
@@ -5047,10 +5047,10 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
@@ -5059,7 +5059,7 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5073,10 +5073,10 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
@@ -5085,7 +5085,7 @@
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5099,10 +5099,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5114,7 +5114,7 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5128,10 +5128,10 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
@@ -5143,7 +5143,7 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5157,10 +5157,10 @@
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>20</v>
@@ -5172,7 +5172,7 @@
         <v>112</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5186,19 +5186,19 @@
         <v>36</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5212,10 +5212,10 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
@@ -5232,10 +5232,10 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5244,7 +5244,7 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5258,10 +5258,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
@@ -5270,7 +5270,7 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5284,10 +5284,10 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
@@ -5296,7 +5296,7 @@
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5310,10 +5310,10 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
@@ -5325,7 +5325,7 @@
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5339,10 +5339,10 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
@@ -5351,7 +5351,7 @@
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5365,10 +5365,10 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5380,7 +5380,7 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5394,10 +5394,10 @@
         <v>37</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
@@ -5409,7 +5409,7 @@
         <v>120</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5423,19 +5423,19 @@
         <v>37</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5449,10 +5449,10 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
@@ -5469,10 +5469,10 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5481,7 +5481,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5495,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
@@ -5507,7 +5507,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5521,10 +5521,10 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -5533,7 +5533,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5547,10 +5547,10 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5559,7 +5559,7 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5573,10 +5573,10 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
@@ -5585,7 +5585,7 @@
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5599,10 +5599,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5614,7 +5614,7 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5628,10 +5628,10 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
@@ -5643,7 +5643,7 @@
         <v>128</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5657,10 +5657,10 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
@@ -5677,10 +5677,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
@@ -5689,7 +5689,7 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5703,10 +5703,10 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5715,7 +5715,7 @@
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5729,10 +5729,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5744,7 +5744,7 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5758,10 +5758,10 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
@@ -5773,7 +5773,7 @@
         <v>136</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5787,10 +5787,10 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
@@ -5807,10 +5807,10 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
@@ -5819,7 +5819,7 @@
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5833,10 +5833,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5848,7 +5848,7 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5862,10 +5862,10 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
@@ -5877,7 +5877,7 @@
         <v>141</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -5891,10 +5891,10 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
@@ -5911,10 +5911,10 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
@@ -5923,7 +5923,7 @@
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5937,10 +5937,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5952,7 +5952,7 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -5966,10 +5966,10 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
@@ -5981,7 +5981,7 @@
         <v>145</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -5995,10 +5995,10 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
@@ -6015,10 +6015,10 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>20</v>
@@ -6027,7 +6027,7 @@
         <v>149</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -6041,19 +6041,19 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6067,10 +6067,10 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
@@ -6082,7 +6082,7 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6096,10 +6096,10 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
@@ -6111,7 +6111,7 @@
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -6125,10 +6125,10 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
@@ -6137,7 +6137,7 @@
         <v>149</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -6151,10 +6151,10 @@
         <v>38</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>20</v>
@@ -6174,19 +6174,19 @@
         <v>38</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K158" s="7">
         <v>155</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -6200,10 +6200,10 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>20</v>
@@ -6220,19 +6220,19 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K160" s="7">
         <v>157</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -6246,10 +6246,10 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
@@ -6266,10 +6266,10 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
@@ -6281,7 +6281,7 @@
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -6295,10 +6295,10 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
@@ -6307,7 +6307,7 @@
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -6321,10 +6321,10 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
@@ -6336,7 +6336,7 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -6350,10 +6350,10 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>20</v>
@@ -6365,7 +6365,7 @@
         <v>159</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -6379,19 +6379,19 @@
         <v>39</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K166" s="7">
         <v>163</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -6405,10 +6405,10 @@
         <v>39</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
@@ -6425,10 +6425,10 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
@@ -6445,10 +6445,10 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
@@ -6457,7 +6457,7 @@
         <v>166</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -6471,10 +6471,10 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
@@ -6486,7 +6486,7 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -6500,10 +6500,10 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>20</v>
@@ -6515,7 +6515,7 @@
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -6529,19 +6529,19 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K172" s="7">
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -6555,13 +6555,13 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>22</v>
@@ -6570,7 +6570,7 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -6584,10 +6584,10 @@
         <v>40</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>20</v>
@@ -6599,7 +6599,7 @@
         <v>167</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -6613,19 +6613,19 @@
         <v>40</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K175" s="7">
         <v>172</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -6639,10 +6639,10 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
@@ -6659,10 +6659,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6671,7 +6671,7 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -6685,10 +6685,10 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
@@ -6697,7 +6697,7 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -6711,10 +6711,10 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
@@ -6723,7 +6723,7 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -6737,10 +6737,10 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
@@ -6749,7 +6749,7 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -6763,10 +6763,10 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -6775,7 +6775,7 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -6789,10 +6789,10 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>20</v>
@@ -6801,7 +6801,7 @@
         <v>174</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -6815,10 +6815,10 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>20</v>
@@ -6830,7 +6830,7 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -6844,10 +6844,10 @@
         <v>41</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>20</v>
@@ -6859,7 +6859,7 @@
         <v>180</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -6873,19 +6873,19 @@
         <v>41</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K185" s="7">
         <v>182</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -6899,10 +6899,10 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>20</v>
@@ -6919,19 +6919,19 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K187" s="7">
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -6945,10 +6945,10 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -6957,7 +6957,7 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -6971,10 +6971,10 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6983,7 +6983,7 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -6997,10 +6997,10 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
@@ -7009,7 +7009,7 @@
         <v>184</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -7023,10 +7023,10 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
@@ -7035,7 +7035,7 @@
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -7049,10 +7049,10 @@
         <v>42</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>20</v>
@@ -7064,7 +7064,7 @@
         <v>188</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -7078,19 +7078,19 @@
         <v>42</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K193" s="7">
         <v>190</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -7104,10 +7104,10 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
@@ -7124,10 +7124,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
@@ -7136,7 +7136,7 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -7150,10 +7150,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
@@ -7162,7 +7162,7 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -7176,10 +7176,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
@@ -7188,7 +7188,7 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -7202,10 +7202,10 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
@@ -7214,7 +7214,7 @@
         <v>192</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -7228,10 +7228,10 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
@@ -7243,7 +7243,7 @@
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -7257,10 +7257,10 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
@@ -7269,7 +7269,7 @@
         <v>193</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -7283,10 +7283,10 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
@@ -7303,10 +7303,10 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
@@ -7315,7 +7315,7 @@
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -7329,10 +7329,10 @@
         <v>43</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>20</v>
@@ -7344,7 +7344,7 @@
         <v>199</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -7358,19 +7358,19 @@
         <v>43</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K204" s="7">
         <v>201</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -7397,184 +7397,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>481</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>485</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>491</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>492</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>502</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>503</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>505</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>506</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>508</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>509</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>515</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7582,13 +7582,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ABE78-B33B-41B7-84A7-178B17BA148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8E0EAD-690B-4FA6-9363-FC19D6C9DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="528">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -206,9 +206,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
   </si>
   <si>
     <t>60</t>
@@ -1453,9 +1447,6 @@
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
-    <t>Single-Select Dropdown</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -1627,9 +1618,6 @@
     <t>Ausfuhr/Einfuhr von gefährlichen Abfällen (Basler Übereinkommen)</t>
   </si>
   <si>
-    <t>Custom LkSG Production Sites</t>
-  </si>
-  <si>
     <t>Yes/No/NA</t>
   </si>
   <si>
@@ -1648,12 +1636,6 @@
     <t>Short-lived and changing business relationships | High price pressure | Tightly timed or short-term adjusted delivery deadlines and conditions with suppliers | None of the above</t>
   </si>
   <si>
-    <t>WARNINGREMOVELATER</t>
-  </si>
-  <si>
-    <t>Warning remove this object later in the process!</t>
-  </si>
-  <si>
     <t>Smaller10 |Between10And25 | Between25And50 | Greater50</t>
   </si>
   <si>
@@ -1664,6 +1646,15 @@
   </si>
   <si>
     <t>LkSG Procurement Categories</t>
+  </si>
+  <si>
+    <t>How many production sites are there?</t>
+  </si>
+  <si>
+    <t>LkSG Production Sites</t>
+  </si>
+  <si>
+    <t>FreeText</t>
   </si>
 </sst>
 </file>
@@ -2155,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="F70" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2254,10 +2245,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2274,10 +2265,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2294,19 +2285,19 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2320,13 +2311,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2340,16 +2331,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2366,10 +2357,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2386,22 +2377,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2415,10 +2406,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2435,10 +2426,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2455,10 +2446,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2475,19 +2466,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2501,10 +2492,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2513,7 +2504,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2527,22 +2518,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2556,19 +2547,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,10 +2573,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
@@ -2594,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2608,16 +2599,19 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2631,19 +2625,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2657,22 +2651,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2686,27 +2680,27 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -2715,19 +2709,24 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>525</v>
+        <v>73</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>526</v>
+        <v>271</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="K22" s="7"/>
+        <v>522</v>
+      </c>
+      <c r="K22" s="7">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
@@ -2736,50 +2735,47 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>523</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="K24" s="7">
-        <v>11</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2788,21 +2784,24 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>22</v>
+      <c r="K25" s="7">
+        <v>23</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2811,24 +2810,24 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="7">
-        <v>23</v>
+      <c r="K26" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -2837,24 +2836,27 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -2863,27 +2865,24 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
@@ -2892,24 +2891,24 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -2918,50 +2917,47 @@
         <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="K30" s="7">
+        <v>23</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="7">
-        <v>23</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>522</v>
+      <c r="J31" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -2970,21 +2966,24 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>22</v>
+      <c r="K32" s="7">
+        <v>30</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -2993,10 +2992,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3005,12 +3004,12 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3019,10 +3018,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3031,12 +3030,12 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3045,10 +3044,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
@@ -3057,12 +3056,12 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3071,10 +3070,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>20</v>
@@ -3083,12 +3082,12 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3097,24 +3096,30 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="7">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3123,30 +3128,27 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>22</v>
+        <v>457</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3155,27 +3157,24 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3184,24 +3183,24 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3210,24 +3209,24 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3236,24 +3235,24 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="K42" s="7">
+        <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3262,10 +3261,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3274,12 +3273,12 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3288,10 +3287,10 @@
         <v>29</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
@@ -3300,38 +3299,35 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="7">
-        <v>30</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>522</v>
+      <c r="J45" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3340,10 +3336,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3354,7 +3350,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3363,21 +3359,24 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>22</v>
+      <c r="K47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3386,24 +3385,21 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>522</v>
+      <c r="J48" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3412,10 +3408,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3426,7 +3422,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3435,21 +3431,24 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>22</v>
+        <v>454</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -3458,24 +3457,21 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3484,10 +3480,10 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
@@ -3498,30 +3494,27 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3530,10 +3523,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3541,7 +3534,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3550,10 +3543,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3561,7 +3554,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3570,10 +3563,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3581,7 +3574,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3590,10 +3583,10 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
@@ -3601,7 +3594,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3610,18 +3603,27 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3630,27 +3632,24 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3659,24 +3658,24 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>52</v>
+        <v>468</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3685,24 +3684,18 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -3711,18 +3704,27 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -3731,27 +3733,18 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -3760,18 +3753,27 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -3780,27 +3782,18 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -3809,47 +3802,47 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>315</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3858,18 +3851,24 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K68" s="7">
+        <v>66</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3878,10 +3877,10 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
@@ -3890,12 +3889,12 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3904,10 +3903,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>319</v>
+        <v>119</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3916,12 +3915,12 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3930,10 +3929,10 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>445</v>
+        <v>120</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3942,12 +3941,12 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3956,24 +3955,24 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="7">
-        <v>66</v>
+        <v>454</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3982,24 +3981,18 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -4008,18 +4001,24 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K74" s="7">
+        <v>72</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -4028,10 +4027,10 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4040,12 +4039,12 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4054,10 +4053,10 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
@@ -4066,12 +4065,12 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4080,24 +4079,27 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K77" s="7">
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
@@ -4106,27 +4108,24 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K78" s="7">
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -4135,24 +4134,27 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K79" s="7">
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
@@ -4161,10 +4163,10 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4176,12 +4178,12 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4190,53 +4192,44 @@
         <v>32</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="7">
-        <v>72</v>
+        <v>454</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>330</v>
+        <v>444</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4245,18 +4238,24 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>446</v>
+        <v>329</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>20</v>
+        <v>454</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4265,24 +4264,18 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4291,18 +4284,24 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K85" s="7">
+        <v>83</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4311,10 +4310,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4323,12 +4322,12 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4337,10 +4336,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
@@ -4349,12 +4348,12 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4363,10 +4362,10 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
@@ -4375,12 +4374,12 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>21</v>
@@ -4389,24 +4388,27 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K89" s="7">
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>21</v>
@@ -4415,10 +4417,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4430,12 +4432,12 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>21</v>
@@ -4444,10 +4446,10 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4459,12 +4461,12 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4473,53 +4475,44 @@
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="7">
-        <v>83</v>
+        <v>527</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4528,10 +4521,10 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
@@ -4539,7 +4532,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4548,18 +4541,27 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="7">
+        <v>93</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4568,10 +4570,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4583,12 +4585,12 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4597,27 +4599,24 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K97" s="7">
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -4626,24 +4625,24 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>20</v>
+        <v>515</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -4652,24 +4651,24 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
@@ -4678,24 +4677,27 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>519</v>
+        <v>20</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K100" s="7">
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4704,53 +4706,44 @@
         <v>34</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="7">
-        <v>93</v>
+        <v>454</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4759,10 +4752,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4770,7 +4763,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4779,10 +4772,10 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
@@ -4790,7 +4783,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4799,18 +4792,27 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" s="7">
+        <v>103</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4819,10 +4821,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4834,12 +4836,12 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -4848,10 +4850,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4863,12 +4865,12 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -4877,10 +4879,10 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
@@ -4892,12 +4894,12 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -4906,27 +4908,24 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K109" s="7">
-        <v>103</v>
+        <v>454</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -4935,36 +4934,30 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
@@ -4972,7 +4965,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -4981,18 +4974,24 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>20</v>
+        <v>455</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -5001,24 +5000,18 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -5027,18 +5020,24 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K114" s="7">
+        <v>112</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5047,10 +5046,10 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
@@ -5059,12 +5058,12 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
@@ -5073,24 +5072,27 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K116" s="7">
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
@@ -5099,10 +5101,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5114,12 +5116,12 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
@@ -5128,10 +5130,10 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
@@ -5143,12 +5145,12 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5157,53 +5159,44 @@
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" s="7">
-        <v>112</v>
+        <v>454</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5212,18 +5205,24 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K121" s="7">
+        <v>120</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5232,10 +5231,10 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5244,12 +5243,12 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5258,10 +5257,10 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
@@ -5270,12 +5269,12 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5284,24 +5283,27 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K124" s="7">
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
@@ -5310,27 +5312,24 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K125" s="7">
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
@@ -5339,24 +5338,27 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K126" s="7">
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
@@ -5365,10 +5367,10 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5380,12 +5382,12 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5394,53 +5396,44 @@
         <v>37</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J128" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="7">
-        <v>120</v>
+        <v>454</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5449,18 +5442,24 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K130" s="7">
+        <v>128</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5469,10 +5468,10 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5481,12 +5480,12 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5495,10 +5494,10 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
@@ -5507,12 +5506,12 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5521,10 +5520,10 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -5533,12 +5532,12 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5547,10 +5546,10 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5559,12 +5558,12 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5573,24 +5572,27 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K135" s="7">
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5599,10 +5601,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5614,12 +5616,12 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5628,27 +5630,18 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="7">
-        <v>128</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5657,18 +5650,24 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K138" s="7">
+        <v>136</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5677,10 +5676,10 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
@@ -5689,12 +5688,12 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5703,24 +5702,27 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K140" s="7">
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5729,10 +5731,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5744,12 +5746,12 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5758,27 +5760,18 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K142" s="7">
-        <v>136</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5787,18 +5780,24 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K143" s="7">
+        <v>141</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5807,24 +5806,27 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K144" s="7">
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5833,10 +5835,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5848,12 +5850,12 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5862,27 +5864,18 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K146" s="7">
-        <v>141</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5891,18 +5884,24 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K147" s="7">
+        <v>145</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5911,24 +5910,27 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K148" s="7">
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5937,10 +5939,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5952,12 +5954,12 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -5966,27 +5968,18 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K150" s="7">
-        <v>145</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -5995,18 +5988,24 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K151" s="7">
+        <v>149</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -6015,24 +6014,24 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K152" s="7">
-        <v>149</v>
+        <v>454</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -6041,24 +6040,27 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>461</v>
+        <v>20</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="7">
+        <v>149</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
@@ -6067,10 +6069,10 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
@@ -6082,12 +6084,12 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
@@ -6096,27 +6098,24 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K155" s="7">
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -6125,24 +6124,21 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K156" s="7">
-        <v>149</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>522</v>
+      <c r="J156" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6151,47 +6147,44 @@
         <v>38</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>22</v>
+        <v>454</v>
+      </c>
+      <c r="K157" s="7">
+        <v>155</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K158" s="7">
-        <v>155</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6200,18 +6193,24 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>20</v>
+        <v>454</v>
+      </c>
+      <c r="K159" s="7">
+        <v>157</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6220,24 +6219,18 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K160" s="7">
-        <v>157</v>
-      </c>
-      <c r="L160" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6246,18 +6239,27 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="7">
+        <v>159</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6266,27 +6268,24 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K162" s="7">
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>21</v>
@@ -6295,24 +6294,27 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K163" s="7">
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>21</v>
@@ -6321,10 +6323,10 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
@@ -6336,12 +6338,12 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>21</v>
@@ -6350,27 +6352,24 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="K165" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6379,36 +6378,30 @@
         <v>39</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K166" s="7">
-        <v>163</v>
-      </c>
-      <c r="L166" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
@@ -6416,7 +6409,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6425,18 +6418,24 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K168" s="7">
+        <v>166</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6445,24 +6444,27 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J169" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K169" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>21</v>
@@ -6471,10 +6473,10 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
@@ -6486,12 +6488,12 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>21</v>
@@ -6500,27 +6502,24 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J171" s="9" t="s">
-        <v>22</v>
+        <v>413</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>515</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>21</v>
@@ -6529,24 +6528,27 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>519</v>
+        <v>414</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K172" s="7">
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>21</v>
@@ -6555,13 +6557,13 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>22</v>
@@ -6570,12 +6572,12 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>21</v>
@@ -6584,53 +6586,44 @@
         <v>40</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J174" s="9" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="K174" s="7">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K175" s="7">
-        <v>172</v>
-      </c>
-      <c r="L175" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6639,18 +6632,24 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K176" s="7">
+        <v>174</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6659,10 +6658,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6671,12 +6670,12 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6685,10 +6684,10 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
@@ -6697,12 +6696,12 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6711,10 +6710,10 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
@@ -6723,12 +6722,12 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6737,10 +6736,10 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
@@ -6749,12 +6748,12 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
@@ -6763,10 +6762,10 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -6775,12 +6774,12 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
@@ -6789,24 +6788,27 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>20</v>
+        <v>424</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K182" s="7">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
@@ -6815,12 +6817,12 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G183" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G183" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J183" s="9" t="s">
@@ -6830,12 +6832,12 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6844,53 +6846,44 @@
         <v>41</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J184" s="9" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="K184" s="7">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K185" s="7">
-        <v>182</v>
-      </c>
-      <c r="L185" s="4" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6899,18 +6892,24 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>20</v>
+        <v>454</v>
+      </c>
+      <c r="K186" s="7">
+        <v>184</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6919,24 +6918,24 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="K187" s="7">
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -6945,10 +6944,10 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -6957,12 +6956,12 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
@@ -6971,10 +6970,10 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6983,12 +6982,12 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
@@ -6997,24 +6996,24 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K190" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
@@ -7023,24 +7022,27 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K191" s="7">
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -7049,53 +7051,44 @@
         <v>42</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J192" s="9" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="K192" s="7">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K193" s="7">
-        <v>190</v>
-      </c>
-      <c r="L193" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7104,18 +7097,24 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>450</v>
+        <v>243</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="K194" s="7">
+        <v>192</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7124,10 +7123,10 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>451</v>
+        <v>244</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
@@ -7136,12 +7135,12 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7150,10 +7149,10 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
@@ -7162,12 +7161,12 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7176,10 +7175,10 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
@@ -7188,12 +7187,12 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7202,24 +7201,27 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J198" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K198" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>18</v>
@@ -7228,27 +7230,24 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J199" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="K199" s="7">
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>18</v>
@@ -7257,24 +7256,18 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K200" s="7">
-        <v>193</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>18</v>
@@ -7283,18 +7276,24 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K201" s="7">
+        <v>199</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>18</v>
@@ -7303,24 +7302,27 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K202" s="7">
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
-        <v>201</v>
+      <c r="A203" s="9">
+        <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>18</v>
@@ -7329,48 +7331,19 @@
         <v>43</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J203" s="9" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="K203" s="7">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" s="9">
-        <v>202</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K204" s="7">
-        <v>201</v>
-      </c>
-      <c r="L204" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7397,184 +7370,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7582,13 +7555,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8E0EAD-690B-4FA6-9363-FC19D6C9DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F28D188-79FE-4F5F-A3FD-BF45939B39F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F70" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="F174" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7357,7 +7357,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7566,5 +7566,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F28D188-79FE-4F5F-A3FD-BF45939B39F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4950D-9F5B-4C1E-AA41-5B0AD254F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="528">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>Does your company have measures in place to prevent your security forces from: Violating the prohibition of torture or cruel, inhuman, or degrading treatment; Damaging life or limbs; Impairing the right to exercise the freedom of association?</t>
   </si>
   <si>
-    <t>ISO 2 Codes</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -1655,6 +1652,9 @@
   </si>
   <si>
     <t>FreeText</t>
+  </si>
+  <si>
+    <t>ISO2 Codes Multi-Select Dropdown</t>
   </si>
 </sst>
 </file>
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F174" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2231,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2291,13 +2291,13 @@
         <v>255</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
         <v>256</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2386,13 +2386,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2472,13 +2472,13 @@
         <v>263</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2524,16 +2524,13 @@
         <v>265</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2553,13 +2550,13 @@
         <v>266</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2585,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2602,16 +2599,16 @@
         <v>69</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2631,13 +2628,13 @@
         <v>268</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2660,13 +2657,13 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2686,16 +2683,16 @@
         <v>270</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2715,13 +2712,13 @@
         <v>271</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2735,19 +2732,19 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2796,7 +2793,7 @@
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2819,10 +2816,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2842,16 +2839,16 @@
         <v>276</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2874,10 +2871,10 @@
         <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2897,13 +2894,13 @@
         <v>278</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2929,7 +2926,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2978,7 +2975,7 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3004,7 +3001,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3030,7 +3027,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3056,7 +3053,7 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3082,7 +3079,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3105,7 +3102,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>22</v>
@@ -3114,7 +3111,7 @@
         <v>46</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3134,16 +3131,16 @@
         <v>287</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3163,13 +3160,13 @@
         <v>288</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3195,7 +3192,7 @@
         <v>46</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3215,13 +3212,13 @@
         <v>290</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3247,7 +3244,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3273,7 +3270,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3299,7 +3296,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3371,7 +3368,7 @@
         <v>48</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3437,13 +3434,13 @@
         <v>299</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3609,16 +3606,16 @@
         <v>307</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3644,7 +3641,7 @@
         <v>50</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3664,13 +3661,13 @@
         <v>309</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3709,17 +3706,14 @@
       <c r="E62" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>452</v>
+      <c r="G62" s="9" t="s">
+        <v>527</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3758,17 +3752,14 @@
       <c r="E64" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>452</v>
+      <c r="G64" s="9" t="s">
+        <v>527</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3807,17 +3798,14 @@
       <c r="E66" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>452</v>
+      <c r="G66" s="9" t="s">
+        <v>527</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3863,7 +3851,7 @@
         <v>66</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3889,7 +3877,7 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -3915,7 +3903,7 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3941,7 +3929,7 @@
         <v>66</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3961,13 +3949,13 @@
         <v>319</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4013,7 +4001,7 @@
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4039,7 +4027,7 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4065,7 +4053,7 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4094,7 +4082,7 @@
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4120,7 +4108,7 @@
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4149,7 +4137,7 @@
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4178,7 +4166,7 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4198,13 +4186,13 @@
         <v>328</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4244,13 +4232,13 @@
         <v>329</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -4296,7 +4284,7 @@
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4322,7 +4310,7 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4348,7 +4336,7 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4374,7 +4362,7 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4403,7 +4391,7 @@
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4432,7 +4420,7 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4461,7 +4449,7 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4481,13 +4469,13 @@
         <v>338</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4556,7 +4544,7 @@
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4585,7 +4573,7 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4611,7 +4599,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4631,13 +4619,13 @@
         <v>344</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4657,13 +4645,13 @@
         <v>345</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4692,7 +4680,7 @@
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4712,13 +4700,13 @@
         <v>347</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4807,7 +4795,7 @@
         <v>103</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4836,7 +4824,7 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4865,7 +4853,7 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4894,7 +4882,7 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4914,13 +4902,13 @@
         <v>355</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4980,13 +4968,13 @@
         <v>358</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -5032,7 +5020,7 @@
         <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5058,7 +5046,7 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5087,7 +5075,7 @@
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5116,7 +5104,7 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5145,7 +5133,7 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5165,13 +5153,13 @@
         <v>365</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5217,7 +5205,7 @@
         <v>120</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5243,7 +5231,7 @@
         <v>120</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5269,7 +5257,7 @@
         <v>120</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5298,7 +5286,7 @@
         <v>120</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5324,7 +5312,7 @@
         <v>120</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5353,7 +5341,7 @@
         <v>120</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5382,7 +5370,7 @@
         <v>120</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5402,13 +5390,13 @@
         <v>374</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5454,7 +5442,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5480,7 +5468,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5506,7 +5494,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5532,7 +5520,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5558,7 +5546,7 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5587,7 +5575,7 @@
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5616,7 +5604,7 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5662,7 +5650,7 @@
         <v>136</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5688,7 +5676,7 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5717,7 +5705,7 @@
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5746,7 +5734,7 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5792,7 +5780,7 @@
         <v>141</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5821,7 +5809,7 @@
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5850,7 +5838,7 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5896,7 +5884,7 @@
         <v>145</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -5925,7 +5913,7 @@
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5954,7 +5942,7 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -6000,7 +5988,7 @@
         <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -6020,13 +6008,13 @@
         <v>398</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -6055,7 +6043,7 @@
         <v>149</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6084,7 +6072,7 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6110,7 +6098,7 @@
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -6153,13 +6141,13 @@
         <v>446</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K157" s="7">
         <v>155</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -6199,13 +6187,13 @@
         <v>402</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K159" s="7">
         <v>157</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -6254,7 +6242,7 @@
         <v>159</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -6280,7 +6268,7 @@
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -6309,7 +6297,7 @@
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -6338,7 +6326,7 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -6358,13 +6346,13 @@
         <v>408</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K165" s="7">
         <v>163</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -6430,7 +6418,7 @@
         <v>166</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -6459,7 +6447,7 @@
         <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -6488,7 +6476,7 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -6508,13 +6496,13 @@
         <v>413</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -6534,7 +6522,7 @@
         <v>414</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
@@ -6543,7 +6531,7 @@
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -6572,7 +6560,7 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -6592,13 +6580,13 @@
         <v>416</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K174" s="7">
         <v>172</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -6644,7 +6632,7 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -6670,7 +6658,7 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -6696,7 +6684,7 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -6722,7 +6710,7 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -6748,7 +6736,7 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -6774,7 +6762,7 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -6803,7 +6791,7 @@
         <v>180</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -6832,7 +6820,7 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -6852,13 +6840,13 @@
         <v>426</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K184" s="7">
         <v>182</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -6898,13 +6886,13 @@
         <v>428</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K186" s="7">
         <v>184</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -6930,7 +6918,7 @@
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -6956,7 +6944,7 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -6982,7 +6970,7 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -7008,7 +6996,7 @@
         <v>188</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -7037,7 +7025,7 @@
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -7057,13 +7045,13 @@
         <v>433</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K192" s="7">
         <v>190</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -7109,7 +7097,7 @@
         <v>192</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -7135,7 +7123,7 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -7161,7 +7149,7 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -7187,7 +7175,7 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -7216,7 +7204,7 @@
         <v>193</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -7242,7 +7230,7 @@
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -7288,7 +7276,7 @@
         <v>199</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -7317,7 +7305,7 @@
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -7337,13 +7325,13 @@
         <v>442</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K203" s="7">
         <v>201</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -7370,184 +7358,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>476</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>477</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>485</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>488</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>491</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>494</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>501</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>502</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>505</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>508</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7555,13 +7543,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4950D-9F5B-4C1E-AA41-5B0AD254F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2CF64-F50D-4F90-8F84-728EAE940E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="529">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1655,6 +1655,9 @@
   </si>
   <si>
     <t>ISO2 Codes Multi-Select Dropdown</t>
+  </si>
+  <si>
+    <t>Free Text</t>
   </si>
 </sst>
 </file>
@@ -2148,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6580,7 +6583,7 @@
         <v>416</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="K174" s="7">
         <v>172</v>
@@ -7325,7 +7328,7 @@
         <v>442</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="K203" s="7">
         <v>201</v>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2CF64-F50D-4F90-8F84-728EAE940E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97D5F4-EE1E-4026-AB79-942982794143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="528">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1655,9 +1655,6 @@
   </si>
   <si>
     <t>ISO2 Codes Multi-Select Dropdown</t>
-  </si>
-  <si>
-    <t>Free Text</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6583,7 +6580,7 @@
         <v>416</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K174" s="7">
         <v>172</v>
@@ -7328,7 +7325,7 @@
         <v>442</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K203" s="7">
         <v>201</v>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97D5F4-EE1E-4026-AB79-942982794143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFFBB4-1DE5-44CB-8E72-80B0D090934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="532">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1655,6 +1655,18 @@
   </si>
   <si>
     <t>ISO2 Codes Multi-Select Dropdown</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Extended</t>
   </si>
 </sst>
 </file>
@@ -2148,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2424,10 @@
         <v>260</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>528</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3880,7 +3895,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3891,10 +3906,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>443</v>
+        <v>120</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3906,7 +3921,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3917,16 +3932,16 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>318</v>
+        <v>119</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="7">
-        <v>66</v>
+      <c r="K71" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>517</v>
@@ -3952,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>52</v>
+        <v>529</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>517</v>
@@ -5201,8 +5216,8 @@
       <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K121" s="7">
-        <v>120</v>
+      <c r="K121" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>517</v>
@@ -5227,8 +5242,8 @@
       <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K122" s="7">
-        <v>120</v>
+      <c r="K122" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>517</v>
@@ -5253,8 +5268,8 @@
       <c r="G123" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K123" s="7">
-        <v>120</v>
+      <c r="K123" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>517</v>
@@ -5282,8 +5297,8 @@
       <c r="J124" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K124" s="7">
-        <v>120</v>
+      <c r="K124" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>517</v>
@@ -5308,8 +5323,8 @@
       <c r="G125" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K125" s="7">
-        <v>120</v>
+      <c r="K125" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>517</v>
@@ -5337,8 +5352,8 @@
       <c r="J126" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K126" s="7">
-        <v>120</v>
+      <c r="K126" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>517</v>
@@ -5366,8 +5381,8 @@
       <c r="J127" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K127" s="7">
-        <v>120</v>
+      <c r="K127" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>517</v>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFFBB4-1DE5-44CB-8E72-80B0D090934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214D279-C418-4F5B-AB0B-3EFEEEA5B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214D279-C418-4F5B-AB0B-3EFEEEA5B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB4AD4-272B-4E83-BD8B-B553DE47CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="531">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1658,9 +1658,6 @@
   </si>
   <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
   <si>
     <t>119</t>
@@ -2160,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2424,7 @@
         <v>528</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3967,7 +3964,7 @@
         <v>453</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>529</v>
+        <v>52</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>517</v>
@@ -5217,7 +5214,7 @@
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>517</v>
@@ -5243,7 +5240,7 @@
         <v>20</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>517</v>
@@ -5269,7 +5266,7 @@
         <v>20</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>517</v>
@@ -5298,7 +5295,7 @@
         <v>22</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>517</v>
@@ -5324,7 +5321,7 @@
         <v>20</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>517</v>
@@ -5353,7 +5350,7 @@
         <v>22</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>517</v>
@@ -5382,7 +5379,7 @@
         <v>22</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>517</v>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB4AD4-272B-4E83-BD8B-B553DE47CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E28F16-7541-4204-9429-A50FB84224AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="530">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1657,13 +1657,10 @@
     <t>ISO2 Codes Multi-Select Dropdown</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>119</t>
   </si>
   <si>
-    <t>Extended</t>
+    <t>LksgValueWithCurrencyComponent</t>
   </si>
 </sst>
 </file>
@@ -2157,29 +2154,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="150.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="150.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="14" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2309,7 +2306,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2355,7 +2352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2375,7 +2372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2421,13 +2418,10 @@
         <v>260</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2447,7 +2441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2467,7 +2461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2519,7 +2513,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2545,7 +2539,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2571,7 +2565,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2623,7 +2617,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2707,7 +2701,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2733,7 +2727,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2782,7 +2776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2808,7 +2802,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2834,7 +2828,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2863,7 +2857,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2889,7 +2883,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2964,7 +2958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2990,7 +2984,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3042,7 +3036,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3068,7 +3062,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3094,7 +3088,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3181,7 +3175,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3233,7 +3227,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3259,7 +3253,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3334,7 +3328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3357,7 +3351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3383,7 +3377,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3406,7 +3400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3429,7 +3423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3455,7 +3449,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3478,7 +3472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3501,7 +3495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3521,7 +3515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3541,7 +3535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3561,7 +3555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3581,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3601,7 +3595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3630,7 +3624,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3682,7 +3676,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3702,7 +3696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3728,7 +3722,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3748,7 +3742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3774,7 +3768,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3794,7 +3788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3820,7 +3814,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3866,7 +3860,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3892,7 +3886,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3918,7 +3912,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3944,7 +3938,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3970,7 +3964,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4016,7 +4010,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4042,7 +4036,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4068,7 +4062,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4097,7 +4091,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4123,7 +4117,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4181,7 +4175,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4207,7 +4201,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4227,7 +4221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4253,7 +4247,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4273,7 +4267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4299,7 +4293,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4351,7 +4345,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4377,7 +4371,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4406,7 +4400,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4435,7 +4429,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4464,7 +4458,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4490,7 +4484,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4510,7 +4504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4559,7 +4553,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -4588,7 +4582,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -4614,7 +4608,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -4640,7 +4634,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -4666,7 +4660,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4695,7 +4689,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4721,7 +4715,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4741,7 +4735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -4761,7 +4755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -4781,7 +4775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -4810,7 +4804,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -4839,7 +4833,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -4868,7 +4862,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -4897,7 +4891,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -4923,7 +4917,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -4943,7 +4937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -4963,7 +4957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -4989,7 +4983,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -5009,7 +5003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -5035,7 +5029,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5061,7 +5055,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5090,7 +5084,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -5119,7 +5113,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5174,7 +5168,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5214,13 +5208,13 @@
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L121" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -5240,13 +5234,13 @@
         <v>20</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5266,13 +5260,13 @@
         <v>20</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -5295,13 +5289,13 @@
         <v>22</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5321,13 +5315,13 @@
         <v>20</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -5350,13 +5344,13 @@
         <v>22</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5379,13 +5373,13 @@
         <v>22</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -5411,7 +5405,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5431,7 +5425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -5457,7 +5451,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5483,7 +5477,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -5509,7 +5503,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -5535,7 +5529,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -5561,7 +5555,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -5590,7 +5584,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -5619,7 +5613,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -5639,7 +5633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -5665,7 +5659,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -5691,7 +5685,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -5769,7 +5763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -5795,7 +5789,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -5824,7 +5818,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -5853,7 +5847,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -5873,7 +5867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -5899,7 +5893,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -5928,7 +5922,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -5957,7 +5951,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -5977,7 +5971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -6003,7 +5997,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -6029,7 +6023,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6058,7 +6052,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -6087,7 +6081,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6113,7 +6107,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -6136,7 +6130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -6162,7 +6156,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -6182,7 +6176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -6208,7 +6202,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -6228,7 +6222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -6257,7 +6251,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -6283,7 +6277,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -6312,7 +6306,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -6341,7 +6335,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -6367,7 +6361,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -6387,7 +6381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -6407,7 +6401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -6433,7 +6427,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -6462,7 +6456,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -6491,7 +6485,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -6517,7 +6511,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -6546,7 +6540,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -6575,7 +6569,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -6601,7 +6595,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -6621,7 +6615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -6647,7 +6641,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -6673,7 +6667,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -6699,7 +6693,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -6725,7 +6719,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -6751,7 +6745,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -6777,7 +6771,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -6806,7 +6800,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -6835,7 +6829,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -6861,7 +6855,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -6881,7 +6875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -6907,7 +6901,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -6933,7 +6927,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -6959,7 +6953,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -6985,7 +6979,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -7011,7 +7005,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -7040,7 +7034,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -7086,7 +7080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -7112,7 +7106,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -7138,7 +7132,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -7164,7 +7158,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -7190,7 +7184,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -7219,7 +7213,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -7245,7 +7239,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -7265,7 +7259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -7291,7 +7285,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -7320,7 +7314,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -7360,15 +7354,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>471</v>
       </c>
@@ -7382,7 +7376,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>475</v>
       </c>
@@ -7396,7 +7390,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>478</v>
       </c>
@@ -7410,7 +7404,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>482</v>
       </c>
@@ -7424,7 +7418,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>486</v>
       </c>
@@ -7438,7 +7432,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>489</v>
       </c>
@@ -7452,7 +7446,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>492</v>
       </c>
@@ -7466,7 +7460,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>470</v>
       </c>
@@ -7480,7 +7474,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>497</v>
       </c>
@@ -7494,7 +7488,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>500</v>
       </c>
@@ -7508,7 +7502,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>503</v>
       </c>
@@ -7522,7 +7516,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>506</v>
       </c>
@@ -7536,7 +7530,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>509</v>
       </c>
@@ -7550,7 +7544,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E28F16-7541-4204-9429-A50FB84224AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393CBEC-24EB-4BD3-ACDD-7D4E9D6E881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2438,7 +2438,7 @@
         <v>261</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393CBEC-24EB-4BD3-ACDD-7D4E9D6E881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E008B4-7F0E-4F7B-85F1-726CA9758E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -1660,7 +1660,7 @@
     <t>119</t>
   </si>
   <si>
-    <t>LksgValueWithCurrencyComponent</t>
+    <t>AmountWithCurrencyComponent</t>
   </si>
 </sst>
 </file>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E008B4-7F0E-4F7B-85F1-726CA9758E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB582CBD-E321-4C81-B1B9-49DA82D9B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="559">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -206,33 +206,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>Head Office in Germany</t>
   </si>
   <si>
@@ -272,9 +245,6 @@
     <t>Subcontracting Companies Countries</t>
   </si>
   <si>
-    <t>Subcontracting Companies Industries</t>
-  </si>
-  <si>
     <t>Production Sites</t>
   </si>
   <si>
@@ -867,9 +837,6 @@
   </si>
   <si>
     <t>In which countries do the subcontracting companies operate?</t>
-  </si>
-  <si>
-    <t>In which industries do the subcontracting companies operate?</t>
   </si>
   <si>
     <t>Do you have production sites in your company?</t>
@@ -1444,45 +1411,6 @@
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1657,17 +1585,176 @@
     <t>ISO2 Codes Multi-Select Dropdown</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>AmountWithCurrencyComponent</t>
+  </si>
+  <si>
+    <t>LkSG Subcontracting Companies</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>198</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1717,6 +1804,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2152,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2237,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2251,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2271,10 +2364,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2291,19 +2384,19 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2317,13 +2410,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2337,16 +2430,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2363,10 +2456,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2383,22 +2476,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2412,13 +2505,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2432,13 +2525,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2452,10 +2545,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2472,19 +2565,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2498,10 +2591,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2510,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2524,19 +2617,19 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2550,19 +2643,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>256</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6">
+        <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2576,19 +2669,19 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="6">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>506</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2602,19 +2695,19 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>257</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2628,19 +2721,22 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K19" s="7">
+        <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2654,22 +2750,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2680,25 +2776,22 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2712,19 +2805,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>498</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2732,25 +2825,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>522</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K23" s="7">
-        <v>11</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>517</v>
+        <v>262</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2764,16 +2854,19 @@
         <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>22</v>
+      <c r="K24" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2787,19 +2880,19 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7">
-        <v>23</v>
+      <c r="K25" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2813,19 +2906,22 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>20</v>
+        <v>445</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2839,22 +2935,19 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2868,19 +2961,19 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2894,19 +2987,19 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>45</v>
+        <v>507</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2917,22 +3010,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="7">
-        <v>23</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>517</v>
+      <c r="J30" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2946,16 +3036,19 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>22</v>
+      <c r="K31" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2969,19 +3062,19 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="7">
-        <v>30</v>
+      <c r="K32" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2995,19 +3088,19 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="7">
-        <v>30</v>
+      <c r="K33" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -3021,19 +3114,19 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="7">
-        <v>30</v>
+      <c r="K34" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3047,19 +3140,19 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="7">
-        <v>30</v>
+      <c r="K35" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -3073,19 +3166,25 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="7">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>510</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3099,25 +3198,22 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>22</v>
+        <v>445</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>46</v>
+        <v>510</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3131,22 +3227,19 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>46</v>
+        <v>510</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3160,19 +3253,19 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>46</v>
+        <v>510</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3186,19 +3279,19 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>46</v>
+        <v>511</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3212,19 +3305,19 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>47</v>
+        <v>512</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3238,19 +3331,19 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="7">
-        <v>30</v>
+      <c r="K42" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3264,19 +3357,19 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="7">
-        <v>30</v>
+      <c r="K43" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3287,22 +3380,19 @@
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="7">
-        <v>30</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>517</v>
+      <c r="J44" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3316,10 +3406,10 @@
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
@@ -3339,16 +3429,19 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>22</v>
+      <c r="K46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3362,19 +3455,16 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>517</v>
+      <c r="J47" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3388,10 +3478,10 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
@@ -3411,16 +3501,19 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>22</v>
+        <v>442</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3434,19 +3527,16 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3460,10 +3550,10 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
@@ -3480,19 +3570,16 @@
         <v>24</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3506,10 +3593,10 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
@@ -3526,10 +3613,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3546,10 +3633,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3566,10 +3653,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3586,13 +3673,22 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>20</v>
+        <v>445</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3606,22 +3702,19 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3635,19 +3728,19 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3661,19 +3754,13 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -3687,13 +3774,19 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>20</v>
+        <v>300</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -3707,19 +3800,13 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>517</v>
+        <v>301</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3733,13 +3820,19 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>20</v>
+        <v>302</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3753,19 +3846,13 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>517</v>
+        <v>303</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3779,13 +3866,19 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>20</v>
+        <v>302</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -3793,25 +3886,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>517</v>
+        <v>304</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3825,13 +3912,19 @@
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3845,19 +3938,19 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="7">
-        <v>66</v>
+      <c r="K68" s="7" t="s">
+        <v>520</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3871,22 +3964,22 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="7">
-        <v>66</v>
+      <c r="K69" s="7" t="s">
+        <v>520</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3897,22 +3990,22 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>318</v>
+        <v>109</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="7">
-        <v>66</v>
+      <c r="K70" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3923,19 +4016,19 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>443</v>
+        <v>111</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>52</v>
+        <v>521</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3949,19 +4042,13 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -3975,13 +4062,19 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -3995,19 +4088,19 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="7">
-        <v>72</v>
+      <c r="K74" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -4021,19 +4114,19 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="7">
-        <v>72</v>
+      <c r="K75" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4047,19 +4140,22 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="7">
-        <v>72</v>
+      <c r="J76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4073,22 +4169,19 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="7">
-        <v>72</v>
+      <c r="K77" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4102,19 +4195,22 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="7">
-        <v>72</v>
+      <c r="J78" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4128,10 +4224,10 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
@@ -4139,11 +4235,11 @@
       <c r="J79" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K79" s="7">
-        <v>72</v>
+      <c r="K79" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4157,22 +4253,19 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="7">
-        <v>72</v>
+        <v>442</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4183,22 +4276,16 @@
         <v>21</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4212,13 +4299,19 @@
         <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4232,19 +4325,13 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4258,13 +4345,19 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4278,19 +4371,19 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="7">
-        <v>83</v>
+      <c r="K85" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4304,19 +4397,19 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K86" s="7">
-        <v>83</v>
+      <c r="K86" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4330,19 +4423,19 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K87" s="7">
-        <v>83</v>
+      <c r="K87" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4356,19 +4449,22 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K88" s="7">
-        <v>83</v>
+      <c r="J88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4382,10 +4478,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
@@ -4393,11 +4489,11 @@
       <c r="J89" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="7">
-        <v>83</v>
+      <c r="K89" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -4411,10 +4507,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4422,11 +4518,11 @@
       <c r="J90" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K90" s="7">
-        <v>83</v>
+      <c r="K90" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4440,22 +4536,19 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="7">
-        <v>83</v>
+        <v>502</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4466,22 +4559,16 @@
         <v>21</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4495,10 +4582,10 @@
         <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>20</v>
@@ -4515,13 +4602,22 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -4535,10 +4631,10 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
@@ -4546,11 +4642,11 @@
       <c r="J95" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K95" s="7">
-        <v>93</v>
+      <c r="K95" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4564,22 +4660,19 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J96" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="7">
-        <v>93</v>
+      <c r="K96" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -4593,19 +4686,19 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97" s="7">
-        <v>93</v>
+        <v>490</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -4619,19 +4712,19 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K98" s="7">
-        <v>93</v>
+        <v>490</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -4645,19 +4738,22 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K99" s="7">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -4671,22 +4767,19 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="7">
-        <v>93</v>
+        <v>442</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -4697,22 +4790,16 @@
         <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -4726,10 +4813,10 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
@@ -4746,10 +4833,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4766,13 +4853,22 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -4786,10 +4882,10 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
@@ -4797,11 +4893,11 @@
       <c r="J105" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K105" s="7">
-        <v>103</v>
+      <c r="K105" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -4815,10 +4911,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4826,11 +4922,11 @@
       <c r="J106" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="7">
-        <v>103</v>
+      <c r="K106" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -4844,10 +4940,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4855,11 +4951,11 @@
       <c r="J107" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K107" s="7">
-        <v>103</v>
+      <c r="K107" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -4873,22 +4969,19 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="7">
-        <v>103</v>
+        <v>442</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>531</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -4902,19 +4995,13 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -4925,13 +5012,13 @@
         <v>21</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>20</v>
@@ -4948,13 +5035,19 @@
         <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>20</v>
+        <v>443</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -4968,19 +5061,13 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
@@ -4994,13 +5081,19 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -5014,19 +5107,19 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K114" s="7">
-        <v>112</v>
+      <c r="K114" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -5040,19 +5133,22 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K115" s="7">
-        <v>112</v>
+      <c r="J115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -5066,10 +5162,10 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
@@ -5077,11 +5173,11 @@
       <c r="J116" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K116" s="7">
-        <v>112</v>
+      <c r="K116" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -5095,10 +5191,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5106,11 +5202,11 @@
       <c r="J117" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K117" s="7">
-        <v>112</v>
+      <c r="K117" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -5124,22 +5220,19 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="7">
-        <v>112</v>
+        <v>442</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -5150,22 +5243,16 @@
         <v>21</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
@@ -5179,13 +5266,19 @@
         <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -5199,19 +5292,19 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -5225,19 +5318,19 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -5251,19 +5344,22 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J123" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K123" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
@@ -5277,22 +5373,19 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J124" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K124" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -5306,19 +5399,22 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J125" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K125" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5332,10 +5428,10 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
@@ -5344,10 +5440,10 @@
         <v>22</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -5361,22 +5457,19 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -5387,22 +5480,16 @@
         <v>21</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
@@ -5416,13 +5503,19 @@
         <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
@@ -5436,19 +5529,19 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K130" s="7">
-        <v>128</v>
+      <c r="K130" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
@@ -5462,19 +5555,19 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K131" s="7">
-        <v>128</v>
+      <c r="K131" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -5488,19 +5581,19 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K132" s="7">
-        <v>128</v>
+      <c r="K132" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -5514,19 +5607,19 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="7">
-        <v>128</v>
+      <c r="K133" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -5540,19 +5633,22 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K134" s="7">
-        <v>128</v>
+      <c r="J134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -5566,10 +5662,10 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
@@ -5577,11 +5673,11 @@
       <c r="J135" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K135" s="7">
-        <v>128</v>
+      <c r="K135" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -5595,22 +5691,13 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" s="7">
-        <v>128</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
@@ -5624,13 +5711,19 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -5644,19 +5737,19 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K138" s="7">
-        <v>136</v>
+      <c r="K138" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
@@ -5670,19 +5763,22 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K139" s="7">
-        <v>136</v>
+      <c r="J139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
@@ -5696,10 +5792,10 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5707,11 +5803,11 @@
       <c r="J140" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K140" s="7">
-        <v>136</v>
+      <c r="K140" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -5725,22 +5821,13 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K141" s="7">
-        <v>136</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -5754,13 +5841,19 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -5774,19 +5867,22 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K143" s="7">
-        <v>141</v>
+      <c r="J143" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -5800,10 +5896,10 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
@@ -5811,11 +5907,11 @@
       <c r="J144" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K144" s="7">
-        <v>141</v>
+      <c r="K144" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -5829,22 +5925,13 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K145" s="7">
-        <v>141</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -5858,13 +5945,19 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -5878,19 +5971,22 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K147" s="7">
-        <v>145</v>
+      <c r="J147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -5904,10 +6000,10 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
@@ -5915,11 +6011,11 @@
       <c r="J148" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K148" s="7">
-        <v>145</v>
+      <c r="K148" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
@@ -5933,22 +6029,13 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J149" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" s="7">
-        <v>145</v>
-      </c>
-      <c r="L149" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
@@ -5962,13 +6049,19 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -5982,19 +6075,19 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K151" s="7">
-        <v>149</v>
+        <v>442</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -6008,19 +6101,22 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -6034,10 +6130,10 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>20</v>
@@ -6045,11 +6141,11 @@
       <c r="J153" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K153" s="7">
-        <v>149</v>
+      <c r="K153" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
@@ -6063,22 +6159,19 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J154" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K154" s="7">
-        <v>149</v>
+      <c r="K154" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
@@ -6092,19 +6185,16 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K155" s="7">
-        <v>149</v>
-      </c>
-      <c r="L155" s="4" t="s">
-        <v>517</v>
+      <c r="J155" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -6118,16 +6208,19 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J156" s="9" t="s">
-        <v>22</v>
+        <v>442</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -6138,22 +6231,16 @@
         <v>21</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K157" s="7">
-        <v>155</v>
-      </c>
-      <c r="L157" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
@@ -6167,13 +6254,19 @@
         <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
@@ -6187,19 +6280,13 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K159" s="7">
-        <v>157</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -6213,13 +6300,22 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
@@ -6233,22 +6329,19 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K161" s="7">
-        <v>159</v>
+      <c r="K161" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
@@ -6262,19 +6355,22 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K162" s="7">
-        <v>159</v>
+      <c r="J162" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
@@ -6288,10 +6384,10 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
@@ -6299,11 +6395,11 @@
       <c r="J163" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K163" s="7">
-        <v>159</v>
+      <c r="K163" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
@@ -6317,22 +6413,19 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K164" s="7">
-        <v>159</v>
+        <v>442</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
@@ -6346,19 +6439,13 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K165" s="7">
-        <v>163</v>
-      </c>
-      <c r="L165" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
@@ -6369,13 +6456,13 @@
         <v>21</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>20</v>
@@ -6392,13 +6479,19 @@
         <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
@@ -6412,19 +6505,22 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K168" s="7">
-        <v>166</v>
+      <c r="J168" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
@@ -6438,10 +6534,10 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
@@ -6449,11 +6545,11 @@
       <c r="J169" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K169" s="7">
-        <v>167</v>
+      <c r="K169" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -6467,22 +6563,19 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J170" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K170" s="7">
-        <v>167</v>
+        <v>402</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
@@ -6496,19 +6589,22 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K171" s="7">
-        <v>167</v>
+        <v>403</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
@@ -6522,22 +6618,22 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>514</v>
+        <v>20</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K172" s="7">
-        <v>167</v>
+      <c r="K172" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -6551,22 +6647,19 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K173" s="7">
-        <v>167</v>
+        <v>502</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
@@ -6574,25 +6667,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K174" s="7">
-        <v>172</v>
-      </c>
-      <c r="L174" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
@@ -6606,13 +6693,19 @@
         <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
@@ -6626,19 +6719,19 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K176" s="7">
-        <v>174</v>
+      <c r="K176" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
@@ -6652,19 +6745,19 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K177" s="7">
-        <v>174</v>
+      <c r="K177" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
@@ -6678,19 +6771,19 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K178" s="7">
-        <v>174</v>
+      <c r="K178" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
@@ -6704,19 +6797,19 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K179" s="7">
-        <v>174</v>
+      <c r="K179" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
@@ -6730,19 +6823,19 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K180" s="7">
-        <v>174</v>
+      <c r="K180" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
@@ -6756,19 +6849,22 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K181" s="7">
-        <v>174</v>
+        <v>413</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
@@ -6782,22 +6878,22 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G182" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J182" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K182" s="7">
-        <v>180</v>
+      <c r="K182" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -6811,22 +6907,19 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J183" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K183" s="7">
-        <v>180</v>
+        <v>442</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
@@ -6837,22 +6930,16 @@
         <v>18</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K184" s="7">
-        <v>182</v>
-      </c>
-      <c r="L184" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
@@ -6866,13 +6953,19 @@
         <v>42</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
@@ -6886,19 +6979,19 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K186" s="7">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
@@ -6912,19 +7005,19 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K187" s="7">
-        <v>184</v>
+      <c r="K187" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
@@ -6938,19 +7031,19 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K188" s="7">
-        <v>184</v>
+      <c r="K188" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -6964,19 +7057,19 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="7">
-        <v>184</v>
+      <c r="K189" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
@@ -6990,19 +7083,22 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K190" s="7">
-        <v>188</v>
+      <c r="J190" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
@@ -7016,22 +7112,19 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J191" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K191" s="7">
-        <v>188</v>
+        <v>502</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
@@ -7042,25 +7135,19 @@
         <v>18</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K192" s="7">
-        <v>190</v>
-      </c>
-      <c r="L192" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -7071,16 +7158,22 @@
         <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>448</v>
+        <v>233</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="K193" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -7091,19 +7184,19 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>449</v>
+        <v>234</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K194" s="7">
-        <v>192</v>
+      <c r="K194" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -7117,19 +7210,19 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K195" s="7">
-        <v>192</v>
+      <c r="K195" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
@@ -7143,19 +7236,19 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K196" s="7">
-        <v>192</v>
+      <c r="K196" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -7169,19 +7262,22 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K197" s="7">
-        <v>192</v>
+      <c r="J197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
@@ -7195,22 +7291,19 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J198" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K198" s="7">
-        <v>193</v>
+      <c r="K198" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
@@ -7224,19 +7317,13 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K199" s="7">
-        <v>193</v>
-      </c>
-      <c r="L199" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
@@ -7250,13 +7337,19 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
@@ -7270,19 +7363,22 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K201" s="7">
-        <v>199</v>
+      <c r="J201" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -7296,51 +7392,23 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K202" s="7">
-        <v>199</v>
+        <v>502</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A203" s="9">
-        <v>202</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K203" s="7">
-        <v>201</v>
-      </c>
-      <c r="L203" s="4" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7364,184 +7432,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7549,13 +7617,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E008B4-7F0E-4F7B-85F1-726CA9758E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA33475-5E88-48BB-8FB1-B833E7A63B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="530">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1438,9 +1438,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>LkSG - risk Positions</t>
-  </si>
-  <si>
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
@@ -1661,6 +1658,9 @@
   </si>
   <si>
     <t>AmountWithCurrencyComponent</t>
+  </si>
+  <si>
+    <t>LkSG Risk Position MultiSelect Component</t>
   </si>
 </sst>
 </file>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F194" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2237,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2323,7 +2323,7 @@
         <v>256</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2346,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2392,13 +2392,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2418,7 +2418,7 @@
         <v>260</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2438,7 +2438,7 @@
         <v>261</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2484,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2510,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2530,13 +2530,13 @@
         <v>265</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2556,13 +2556,13 @@
         <v>266</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2588,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2605,16 +2605,16 @@
         <v>69</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2634,13 +2634,13 @@
         <v>268</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2663,13 +2663,13 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2689,16 +2689,16 @@
         <v>270</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2718,13 +2718,13 @@
         <v>271</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2738,19 +2738,19 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2799,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2825,7 +2825,7 @@
         <v>452</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2845,16 +2845,14 @@
         <v>276</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>455</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="K27" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2877,10 +2875,10 @@
         <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2906,7 +2904,7 @@
         <v>45</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2932,7 +2930,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2981,7 +2979,7 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -3007,7 +3005,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -3033,7 +3031,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3059,7 +3057,7 @@
         <v>30</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -3085,7 +3083,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3108,7 +3106,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>22</v>
@@ -3117,7 +3115,7 @@
         <v>46</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3137,16 +3135,14 @@
         <v>287</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>455</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="H38" s="9"/>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3172,7 +3168,7 @@
         <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3198,7 +3194,7 @@
         <v>46</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3224,7 +3220,7 @@
         <v>47</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3250,7 +3246,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3276,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3302,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3374,7 +3370,7 @@
         <v>48</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3446,7 +3442,7 @@
         <v>49</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3612,16 +3608,14 @@
         <v>307</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>455</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="H58" s="9"/>
       <c r="K58" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3647,7 +3641,7 @@
         <v>50</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3670,10 +3664,10 @@
         <v>453</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -3713,13 +3707,13 @@
         <v>311</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3759,13 +3753,13 @@
         <v>313</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3805,13 +3799,13 @@
         <v>313</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3857,7 +3851,7 @@
         <v>66</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3883,7 +3877,7 @@
         <v>66</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -3909,7 +3903,7 @@
         <v>66</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3935,7 +3929,7 @@
         <v>52</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3961,7 +3955,7 @@
         <v>52</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -4007,7 +4001,7 @@
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -4033,7 +4027,7 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4059,7 +4053,7 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4088,7 +4082,7 @@
         <v>72</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4114,7 +4108,7 @@
         <v>72</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4143,7 +4137,7 @@
         <v>72</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4172,7 +4166,7 @@
         <v>72</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4198,7 +4192,7 @@
         <v>53</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4241,10 +4235,10 @@
         <v>453</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4290,7 +4284,7 @@
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4316,7 +4310,7 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4342,7 +4336,7 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4368,7 +4362,7 @@
         <v>83</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4397,7 +4391,7 @@
         <v>83</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -4426,7 +4420,7 @@
         <v>83</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4455,7 +4449,7 @@
         <v>83</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4475,13 +4469,13 @@
         <v>338</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4550,7 +4544,7 @@
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4579,7 +4573,7 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -4605,7 +4599,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -4625,13 +4619,13 @@
         <v>344</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K98" s="7">
         <v>93</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -4651,13 +4645,13 @@
         <v>345</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K99" s="7">
         <v>93</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -4686,7 +4680,7 @@
         <v>93</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -4709,10 +4703,10 @@
         <v>453</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -4801,7 +4795,7 @@
         <v>103</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -4830,7 +4824,7 @@
         <v>103</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -4859,7 +4853,7 @@
         <v>103</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -4888,7 +4882,7 @@
         <v>103</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -4911,10 +4905,10 @@
         <v>453</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -4977,10 +4971,10 @@
         <v>454</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
@@ -5026,7 +5020,7 @@
         <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -5052,7 +5046,7 @@
         <v>112</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -5081,7 +5075,7 @@
         <v>112</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -5110,7 +5104,7 @@
         <v>112</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -5139,7 +5133,7 @@
         <v>112</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -5162,10 +5156,10 @@
         <v>453</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
@@ -5208,10 +5202,10 @@
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -5234,10 +5228,10 @@
         <v>20</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -5260,10 +5254,10 @@
         <v>20</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
@@ -5289,10 +5283,10 @@
         <v>22</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -5315,10 +5309,10 @@
         <v>20</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5344,10 +5338,10 @@
         <v>22</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -5373,10 +5367,10 @@
         <v>22</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -5399,10 +5393,10 @@
         <v>453</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
@@ -5448,7 +5442,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
@@ -5474,7 +5468,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -5500,7 +5494,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -5526,7 +5520,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -5552,7 +5546,7 @@
         <v>128</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -5581,7 +5575,7 @@
         <v>128</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -5610,7 +5604,7 @@
         <v>128</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
@@ -5656,7 +5650,7 @@
         <v>136</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
@@ -5682,7 +5676,7 @@
         <v>136</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
@@ -5711,7 +5705,7 @@
         <v>136</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -5740,7 +5734,7 @@
         <v>136</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -5786,7 +5780,7 @@
         <v>141</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -5815,7 +5809,7 @@
         <v>141</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -5844,7 +5838,7 @@
         <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -5890,7 +5884,7 @@
         <v>145</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -5919,7 +5913,7 @@
         <v>145</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
@@ -5948,7 +5942,7 @@
         <v>145</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
@@ -5994,7 +5988,7 @@
         <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -6017,10 +6011,10 @@
         <v>453</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -6049,7 +6043,7 @@
         <v>149</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
@@ -6078,7 +6072,7 @@
         <v>149</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
@@ -6104,7 +6098,7 @@
         <v>149</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -6153,7 +6147,7 @@
         <v>155</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
@@ -6199,7 +6193,7 @@
         <v>157</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -6248,7 +6242,7 @@
         <v>159</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
@@ -6274,7 +6268,7 @@
         <v>159</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
@@ -6303,7 +6297,7 @@
         <v>159</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
@@ -6332,7 +6326,7 @@
         <v>159</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
@@ -6358,7 +6352,7 @@
         <v>163</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
@@ -6424,7 +6418,7 @@
         <v>166</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
@@ -6453,7 +6447,7 @@
         <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -6482,7 +6476,7 @@
         <v>167</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
@@ -6502,13 +6496,13 @@
         <v>413</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K171" s="7">
         <v>167</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
@@ -6528,7 +6522,7 @@
         <v>414</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
@@ -6537,7 +6531,7 @@
         <v>167</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -6566,7 +6560,7 @@
         <v>167</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
@@ -6586,13 +6580,13 @@
         <v>416</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K174" s="7">
         <v>172</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
@@ -6638,7 +6632,7 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
@@ -6664,7 +6658,7 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
@@ -6690,7 +6684,7 @@
         <v>174</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
@@ -6716,7 +6710,7 @@
         <v>174</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
@@ -6742,7 +6736,7 @@
         <v>174</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
@@ -6768,7 +6762,7 @@
         <v>174</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
@@ -6797,7 +6791,7 @@
         <v>180</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -6826,7 +6820,7 @@
         <v>180</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
@@ -6852,7 +6846,7 @@
         <v>182</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
@@ -6898,7 +6892,7 @@
         <v>184</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
@@ -6924,7 +6918,7 @@
         <v>184</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
@@ -6950,7 +6944,7 @@
         <v>184</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -6976,7 +6970,7 @@
         <v>184</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
@@ -7002,7 +6996,7 @@
         <v>188</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
@@ -7031,7 +7025,7 @@
         <v>188</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
@@ -7051,13 +7045,13 @@
         <v>433</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K192" s="7">
         <v>190</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
@@ -7103,7 +7097,7 @@
         <v>192</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -7129,7 +7123,7 @@
         <v>192</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
@@ -7155,7 +7149,7 @@
         <v>192</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -7181,7 +7175,7 @@
         <v>192</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
@@ -7210,7 +7204,7 @@
         <v>193</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
@@ -7236,7 +7230,7 @@
         <v>193</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
@@ -7282,7 +7276,7 @@
         <v>199</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -7311,7 +7305,7 @@
         <v>199</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
@@ -7331,13 +7325,13 @@
         <v>442</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K203" s="7">
         <v>201</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7351,7 +7345,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7364,184 +7358,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>473</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>475</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>487</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>490</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>492</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>493</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>501</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>504</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>506</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>507</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7549,13 +7543,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB582CBD-E321-4C81-B1B9-49DA82D9B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BC668-D21E-4DC6-AF41-72797EC62505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="559">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1405,9 +1405,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>LkSG - risk Positions</t>
-  </si>
-  <si>
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
@@ -1748,6 +1745,9 @@
   </si>
   <si>
     <t>198</t>
+  </si>
+  <si>
+    <t>LkSG Risk Position MultiSelect Component</t>
   </si>
 </sst>
 </file>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2330,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2396,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2416,7 +2416,7 @@
         <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2439,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2485,13 +2485,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2511,7 +2511,7 @@
         <v>250</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2531,7 +2531,7 @@
         <v>251</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2577,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2623,13 +2623,13 @@
         <v>255</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2655,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2672,16 +2672,16 @@
         <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2701,13 +2701,13 @@
         <v>257</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2730,13 +2730,13 @@
         <v>17</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K19" s="7">
         <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2756,16 +2756,16 @@
         <v>259</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2785,13 +2785,13 @@
         <v>260</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2805,19 +2805,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2863,10 +2863,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2889,10 +2889,10 @@
         <v>20</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2912,16 +2912,14 @@
         <v>265</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>444</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="K26" s="7" t="s">
         <v>441</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2947,7 +2945,7 @@
         <v>441</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2970,10 +2968,10 @@
         <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2996,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -3045,10 +3043,10 @@
         <v>20</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -3071,10 +3069,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -3097,10 +3095,10 @@
         <v>20</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -3123,10 +3121,10 @@
         <v>20</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3149,10 +3147,10 @@
         <v>20</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -3175,16 +3173,16 @@
         <v>19</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3204,16 +3202,14 @@
         <v>276</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>444</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H37" s="9"/>
       <c r="K37" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3236,10 +3232,10 @@
         <v>442</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3262,10 +3258,10 @@
         <v>20</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3288,10 +3284,10 @@
         <v>442</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3314,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3340,10 +3336,10 @@
         <v>20</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3366,10 +3362,10 @@
         <v>20</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3438,10 +3434,10 @@
         <v>20</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3510,10 +3506,10 @@
         <v>442</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3679,16 +3675,14 @@
         <v>296</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>444</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H57" s="9"/>
       <c r="K57" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3711,10 +3705,10 @@
         <v>20</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3737,10 +3731,10 @@
         <v>442</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3780,13 +3774,13 @@
         <v>300</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -3826,13 +3820,13 @@
         <v>302</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3872,13 +3866,13 @@
         <v>302</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -3921,10 +3915,10 @@
         <v>20</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3947,10 +3941,10 @@
         <v>20</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3973,10 +3967,10 @@
         <v>20</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -3999,10 +3993,10 @@
         <v>20</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -4025,10 +4019,10 @@
         <v>442</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -4071,10 +4065,10 @@
         <v>20</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -4097,10 +4091,10 @@
         <v>20</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -4123,10 +4117,10 @@
         <v>20</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4152,10 +4146,10 @@
         <v>22</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4178,10 +4172,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4207,10 +4201,10 @@
         <v>22</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4236,10 +4230,10 @@
         <v>22</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4262,10 +4256,10 @@
         <v>442</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4308,10 +4302,10 @@
         <v>442</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4354,10 +4348,10 @@
         <v>20</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4380,10 +4374,10 @@
         <v>20</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4406,10 +4400,10 @@
         <v>20</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4432,10 +4426,10 @@
         <v>20</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4461,10 +4455,10 @@
         <v>22</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4490,10 +4484,10 @@
         <v>22</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -4519,10 +4513,10 @@
         <v>22</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4542,13 +4536,13 @@
         <v>327</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4614,10 +4608,10 @@
         <v>22</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -4643,10 +4637,10 @@
         <v>22</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4669,10 +4663,10 @@
         <v>20</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -4692,13 +4686,13 @@
         <v>333</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -4718,13 +4712,13 @@
         <v>334</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -4750,10 +4744,10 @@
         <v>22</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -4776,10 +4770,10 @@
         <v>442</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -4865,10 +4859,10 @@
         <v>22</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -4894,10 +4888,10 @@
         <v>22</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -4923,10 +4917,10 @@
         <v>22</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -4952,10 +4946,10 @@
         <v>22</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -4978,10 +4972,10 @@
         <v>442</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -5044,10 +5038,10 @@
         <v>443</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -5090,10 +5084,10 @@
         <v>20</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -5116,10 +5110,10 @@
         <v>20</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -5145,10 +5139,10 @@
         <v>22</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -5174,10 +5168,10 @@
         <v>22</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -5203,10 +5197,10 @@
         <v>22</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -5229,10 +5223,10 @@
         <v>442</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -5275,10 +5269,10 @@
         <v>20</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -5301,10 +5295,10 @@
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -5327,10 +5321,10 @@
         <v>20</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -5356,10 +5350,10 @@
         <v>22</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
@@ -5382,10 +5376,10 @@
         <v>20</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -5411,10 +5405,10 @@
         <v>22</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5440,10 +5434,10 @@
         <v>22</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -5466,10 +5460,10 @@
         <v>442</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -5512,10 +5506,10 @@
         <v>20</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
@@ -5538,10 +5532,10 @@
         <v>20</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
@@ -5564,10 +5558,10 @@
         <v>20</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -5590,10 +5584,10 @@
         <v>20</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -5616,10 +5610,10 @@
         <v>20</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -5645,10 +5639,10 @@
         <v>22</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -5674,10 +5668,10 @@
         <v>22</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -5720,10 +5714,10 @@
         <v>20</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -5746,10 +5740,10 @@
         <v>20</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
@@ -5775,10 +5769,10 @@
         <v>22</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
@@ -5804,10 +5798,10 @@
         <v>22</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -5850,10 +5844,10 @@
         <v>20</v>
       </c>
       <c r="K142" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -5879,10 +5873,10 @@
         <v>22</v>
       </c>
       <c r="K143" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -5908,10 +5902,10 @@
         <v>22</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -5954,10 +5948,10 @@
         <v>20</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -5983,10 +5977,10 @@
         <v>22</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -6012,10 +6006,10 @@
         <v>22</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
@@ -6058,10 +6052,10 @@
         <v>20</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -6084,10 +6078,10 @@
         <v>442</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -6113,10 +6107,10 @@
         <v>22</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -6142,10 +6136,10 @@
         <v>22</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
@@ -6168,10 +6162,10 @@
         <v>20</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
@@ -6217,10 +6211,10 @@
         <v>442</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -6263,10 +6257,10 @@
         <v>442</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
@@ -6312,10 +6306,10 @@
         <v>22</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
@@ -6338,10 +6332,10 @@
         <v>20</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
@@ -6367,10 +6361,10 @@
         <v>22</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
@@ -6396,10 +6390,10 @@
         <v>22</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
@@ -6422,10 +6416,10 @@
         <v>442</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
@@ -6488,10 +6482,10 @@
         <v>20</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
@@ -6517,10 +6511,10 @@
         <v>22</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
@@ -6546,10 +6540,10 @@
         <v>22</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -6569,13 +6563,13 @@
         <v>402</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
@@ -6595,16 +6589,16 @@
         <v>403</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J171" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
@@ -6630,10 +6624,10 @@
         <v>22</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -6653,13 +6647,13 @@
         <v>405</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
@@ -6702,10 +6696,10 @@
         <v>20</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
@@ -6728,10 +6722,10 @@
         <v>20</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
@@ -6754,10 +6748,10 @@
         <v>20</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
@@ -6780,10 +6774,10 @@
         <v>20</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
@@ -6806,10 +6800,10 @@
         <v>20</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
@@ -6832,10 +6826,10 @@
         <v>20</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
@@ -6861,10 +6855,10 @@
         <v>22</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
@@ -6890,10 +6884,10 @@
         <v>22</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -6916,10 +6910,10 @@
         <v>442</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
@@ -6962,10 +6956,10 @@
         <v>442</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
@@ -6988,10 +6982,10 @@
         <v>20</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
@@ -7014,10 +7008,10 @@
         <v>20</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
@@ -7040,10 +7034,10 @@
         <v>20</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -7066,10 +7060,10 @@
         <v>20</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
@@ -7095,10 +7089,10 @@
         <v>22</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
@@ -7118,13 +7112,13 @@
         <v>422</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
@@ -7167,10 +7161,10 @@
         <v>20</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
@@ -7193,10 +7187,10 @@
         <v>20</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -7219,10 +7213,10 @@
         <v>20</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
@@ -7245,10 +7239,10 @@
         <v>20</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -7274,10 +7268,10 @@
         <v>22</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
@@ -7300,10 +7294,10 @@
         <v>20</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
@@ -7346,10 +7340,10 @@
         <v>20</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
@@ -7375,10 +7369,10 @@
         <v>22</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -7398,13 +7392,13 @@
         <v>431</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -7432,184 +7426,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>452</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>456</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>460</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>462</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>463</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>465</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>466</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>468</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>469</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>474</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>476</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>477</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>479</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>480</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>485</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7617,13 +7611,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BC668-D21E-4DC6-AF41-72797EC62505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B240E3-295B-4BF4-A545-C4CE288E6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="559">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2441,9 +2441,6 @@
       <c r="H7" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -3174,9 +3171,6 @@
       </c>
       <c r="H36" s="15" t="s">
         <v>491</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>509</v>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E008B4-7F0E-4F7B-85F1-726CA9758E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC7C59-56B7-4208-8B15-B1C6B041FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="522">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -206,9 +206,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -305,12 +302,6 @@
     <t>Identified Risks</t>
   </si>
   <si>
-    <t>Counteracting Measures</t>
-  </si>
-  <si>
-    <t>Which Counteracting Measures</t>
-  </si>
-  <si>
     <t>Regulated Risk Management Responsibility</t>
   </si>
   <si>
@@ -395,12 +386,6 @@
     <t>Human Rights or Environmental Violations Definition</t>
   </si>
   <si>
-    <t>Human Rights or Environmental Violations Measures</t>
-  </si>
-  <si>
-    <t>Human Rights or Environmental Violations Measures Definition</t>
-  </si>
-  <si>
     <t>High Risk Countries Raw Materials</t>
   </si>
   <si>
@@ -902,12 +887,6 @@
     <t>Which risks were specifically identified in the risk analysis?</t>
   </si>
   <si>
-    <t>Have measures been defined to counteract the risks?</t>
-  </si>
-  <si>
-    <t>Which measures have been applied to counteract the risks?</t>
-  </si>
-  <si>
     <t>Is the responsibility for Risk Management in your company regulated, for example by appointing a human rights officer?</t>
   </si>
   <si>
@@ -993,12 +972,6 @@
   </si>
   <si>
     <t>Please define those violations.</t>
-  </si>
-  <si>
-    <t>Have measures been taken to address this violation?</t>
-  </si>
-  <si>
-    <t>Please define these measures.</t>
   </si>
   <si>
     <t>Do you source materials from countries associated with high-risk or conflict?</t>
@@ -1474,9 +1447,6 @@
     <t>62</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -1661,6 +1631,12 @@
   </si>
   <si>
     <t>AmountWithCurrencyComponent</t>
+  </si>
+  <si>
+    <t>LkSG Risk Positions</t>
+  </si>
+  <si>
+    <t>LkSG General Violations</t>
   </si>
 </sst>
 </file>
@@ -2152,31 +2128,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="150.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="150.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.08984375" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2237,10 +2213,10 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2251,16 +2227,16 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2271,16 +2247,16 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2291,22 +2267,22 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2317,16 +2293,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2337,22 +2313,22 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2363,16 +2339,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2383,25 +2359,25 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2412,16 +2388,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2432,16 +2408,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2452,16 +2428,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2472,22 +2448,22 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2498,10 +2474,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2510,10 +2486,10 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2524,22 +2500,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2550,22 +2526,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2576,10 +2552,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
@@ -2588,10 +2564,10 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2602,22 +2578,22 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2628,22 +2604,22 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2654,25 +2630,25 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2683,25 +2659,25 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2712,22 +2688,22 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2738,22 +2714,22 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2764,10 +2740,10 @@
         <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
@@ -2776,7 +2752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2787,10 +2763,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
@@ -2799,10 +2775,10 @@
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2813,22 +2789,22 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2839,27 +2815,25 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>455</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="K27" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -2868,76 +2842,73 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>468</v>
+      <c r="K28" s="7">
+        <v>23</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -2946,21 +2917,24 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K31" s="7">
+        <v>30</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -2969,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
@@ -2981,12 +2955,12 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -2995,10 +2969,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -3007,12 +2981,12 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3021,10 +2995,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -3033,12 +3007,12 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3047,24 +3021,30 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="7">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3073,24 +3053,27 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="7">
-        <v>30</v>
+        <v>447</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3099,30 +3082,24 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3131,27 +3108,24 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3160,24 +3134,24 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3186,24 +3160,24 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>46</v>
+      <c r="K40" s="7">
+        <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3212,24 +3186,24 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="K41" s="7">
+        <v>30</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3238,10 +3212,10 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>20</v>
@@ -3250,64 +3224,58 @@
         <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="7">
-        <v>30</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J43" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="7">
-        <v>30</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J44" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -3316,21 +3284,24 @@
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3339,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3351,9 +3322,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3362,24 +3333,21 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J47" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3388,21 +3356,24 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3411,10 +3382,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3423,9 +3394,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3434,70 +3405,61 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -3506,18 +3468,18 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3526,18 +3488,18 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3546,18 +3508,18 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3566,18 +3528,25 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="K56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3586,18 +3555,18 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3606,27 +3575,24 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>455</v>
+        <v>302</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3635,24 +3601,18 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3661,24 +3621,24 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>453</v>
+        <v>304</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3687,18 +3647,18 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -3707,116 +3667,122 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>67</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="7">
+        <v>66</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>68</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="E65" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K65" s="7">
+        <v>66</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>465</v>
+        <v>309</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="7">
+        <v>66</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>21</v>
@@ -3825,18 +3791,24 @@
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>315</v>
+        <v>114</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3845,24 +3817,24 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="7">
-        <v>66</v>
+        <v>444</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3871,24 +3843,18 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="7">
-        <v>66</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3897,24 +3863,24 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K70" s="7">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3925,22 +3891,22 @@
       <c r="D71" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>443</v>
+      <c r="E71" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>52</v>
+      <c r="K71" s="7">
+        <v>72</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3949,24 +3915,24 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="K72" s="7">
+        <v>72</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3975,18 +3941,27 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="7">
+        <v>72</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -3995,10 +3970,10 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
@@ -4007,12 +3982,12 @@
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -4021,24 +3996,27 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K75" s="7">
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4047,24 +4025,27 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K76" s="7">
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4073,137 +4054,116 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>81</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="7">
-        <v>72</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>82</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="7">
-        <v>72</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="7">
-        <v>72</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>84</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="7">
-        <v>72</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E81" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="K81" s="7">
+        <v>83</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
@@ -4212,18 +4172,24 @@
         <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K82" s="7">
+        <v>83</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4232,24 +4198,24 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>464</v>
+        <v>20</v>
+      </c>
+      <c r="K83" s="7">
+        <v>83</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4258,18 +4224,24 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K84" s="7">
+        <v>83</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4278,24 +4250,27 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K85" s="7">
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4304,24 +4279,27 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K86" s="7">
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4330,24 +4308,27 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K87" s="7">
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4356,94 +4337,76 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="7">
-        <v>83</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>88</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>93</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="7">
-        <v>83</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>94</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="7">
-        <v>83</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="E91" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4452,41 +4415,44 @@
         <v>22</v>
       </c>
       <c r="K91" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>463</v>
+        <v>20</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="7">
+        <v>93</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
@@ -4495,18 +4461,24 @@
         <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K93" s="7">
+        <v>93</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4515,18 +4487,24 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+      <c r="K94" s="7">
+        <v>93</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4535,27 +4513,24 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="K95" s="7">
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4564,10 +4539,10 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
@@ -4579,12 +4554,12 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4593,131 +4568,113 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>101</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97" s="7">
-        <v>93</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="4">
-        <v>97</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>102</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K98" s="7">
-        <v>93</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="4">
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K99" s="7">
-        <v>93</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="4">
-        <v>99</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>104</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="9" t="s">
+      <c r="E101" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K100" s="7">
-        <v>93</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="4">
-        <v>100</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>462</v>
+      <c r="K101" s="7">
+        <v>103</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
@@ -4726,18 +4683,27 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="7">
+        <v>103</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4746,18 +4712,27 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="7">
+        <v>103</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4766,18 +4741,27 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="7">
+        <v>103</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4786,27 +4770,24 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K105" s="7">
-        <v>103</v>
+        <v>444</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4815,131 +4796,110 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>110</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="7">
-        <v>103</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="4">
-        <v>106</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>111</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" s="7">
-        <v>103</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="4">
-        <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="7">
-        <v>103</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="4">
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>113</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="4">
-        <v>109</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="E110" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K110" s="7">
+        <v>112</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
@@ -4948,18 +4908,24 @@
         <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K111" s="7">
+        <v>112</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -4968,24 +4934,27 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>460</v>
+        <v>20</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="7">
+        <v>112</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -4994,18 +4963,27 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113" s="7">
+        <v>112</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -5014,24 +4992,27 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K114" s="7">
         <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5040,137 +5021,122 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>119</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K115" s="7">
-        <v>112</v>
-      </c>
-      <c r="L115" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" s="4">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>120</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" s="7">
-        <v>112</v>
-      </c>
-      <c r="L116" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" s="4">
-        <v>116</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>121</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K117" s="7">
-        <v>112</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" s="4">
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>122</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="7">
-        <v>112</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119" s="4">
-        <v>118</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E119" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
@@ -5179,18 +5145,27 @@
         <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J120" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5199,24 +5174,24 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5225,24 +5200,27 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J122" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K122" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5251,24 +5229,27 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J123" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K123" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5277,137 +5258,122 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>128</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L124" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="4">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125" s="4" t="s">
+      <c r="E125" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>129</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="4">
-        <v>125</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D126" s="4" t="s">
+      <c r="E126" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="7">
+        <v>128</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>130</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="4">
-        <v>126</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="7">
+        <v>128</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>131</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="4">
-        <v>127</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="E128" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>458</v>
+        <v>20</v>
+      </c>
+      <c r="K128" s="7">
+        <v>128</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
@@ -5416,18 +5382,24 @@
         <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K129" s="7">
+        <v>128</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5436,10 +5408,10 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
@@ -5448,12 +5420,12 @@
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5462,24 +5434,27 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K131" s="7">
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5488,24 +5463,27 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K132" s="7">
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5514,24 +5492,18 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="7">
-        <v>128</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5540,24 +5512,24 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K134" s="7">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5566,27 +5538,24 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K135" s="7">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5595,10 +5564,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5607,15 +5576,15 @@
         <v>22</v>
       </c>
       <c r="K136" s="7">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5624,18 +5593,27 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J137" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="7">
+        <v>136</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5644,24 +5622,18 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K138" s="7">
-        <v>136</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5670,24 +5642,24 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K139" s="7">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5696,10 +5668,10 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5708,15 +5680,15 @@
         <v>22</v>
       </c>
       <c r="K140" s="7">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5725,10 +5697,10 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
@@ -5737,15 +5709,15 @@
         <v>22</v>
       </c>
       <c r="K141" s="7">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5754,18 +5726,18 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5774,24 +5746,24 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K143" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5800,10 +5772,10 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
@@ -5812,15 +5784,15 @@
         <v>22</v>
       </c>
       <c r="K144" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5829,10 +5801,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -5841,15 +5813,15 @@
         <v>22</v>
       </c>
       <c r="K145" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5858,18 +5830,18 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5878,24 +5850,24 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K147" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5904,27 +5876,24 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K148" s="7">
-        <v>145</v>
+        <v>444</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5933,10 +5902,10 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5945,15 +5914,15 @@
         <v>22</v>
       </c>
       <c r="K149" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -5962,18 +5931,27 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J150" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="7">
+        <v>149</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -5982,10 +5960,10 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
@@ -5994,12 +5972,12 @@
         <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -6008,24 +5986,21 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -6034,131 +6009,119 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K153" s="7">
+        <v>155</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>157</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J153" s="9" t="s">
+      <c r="E154" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>158</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K155" s="7">
+        <v>157</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>159</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>160</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K153" s="7">
-        <v>149</v>
-      </c>
-      <c r="L153" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="4">
-        <v>153</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J154" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K154" s="7">
-        <v>149</v>
-      </c>
-      <c r="L154" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="4">
-        <v>154</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K155" s="7">
-        <v>149</v>
-      </c>
-      <c r="L155" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="4">
-        <v>155</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J156" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="4">
-        <v>156</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="K157" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
@@ -6167,18 +6130,24 @@
         <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K158" s="7">
+        <v>159</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6187,24 +6156,27 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K159" s="7">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6213,18 +6185,27 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J160" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="7">
+        <v>159</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6233,27 +6214,24 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="K161" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6262,128 +6240,122 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>166</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K162" s="7">
-        <v>159</v>
-      </c>
-      <c r="L162" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="4">
-        <v>162</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>167</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J163" s="9" t="s">
+      <c r="E164" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="7">
+        <v>166</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>168</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K163" s="7">
-        <v>159</v>
-      </c>
-      <c r="L163" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="4">
-        <v>163</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J164" s="9" t="s">
+      <c r="K165" s="7">
+        <v>167</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>169</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J166" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K164" s="7">
-        <v>159</v>
-      </c>
-      <c r="L164" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="4">
-        <v>164</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K165" s="7">
-        <v>163</v>
-      </c>
-      <c r="L165" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="4">
-        <v>165</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K166" s="7">
+        <v>167</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
@@ -6392,18 +6364,24 @@
         <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="K167" s="7">
+        <v>167</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6412,24 +6390,27 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>20</v>
+        <v>504</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K168" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6438,10 +6419,10 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
@@ -6453,12 +6434,12 @@
         <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>21</v>
@@ -6467,137 +6448,122 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="K170" s="7">
+        <v>172</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>174</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J170" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K170" s="7">
-        <v>167</v>
-      </c>
-      <c r="L170" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="4">
-        <v>170</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171" s="4" t="s">
+      <c r="E171" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>175</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K171" s="7">
-        <v>167</v>
-      </c>
-      <c r="L171" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="4">
-        <v>171</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D172" s="4" t="s">
+      <c r="E172" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" s="7">
+        <v>174</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>176</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="J172" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K172" s="7">
-        <v>167</v>
-      </c>
-      <c r="L172" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="4">
-        <v>172</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D173" s="4" t="s">
+      <c r="E173" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" s="7">
+        <v>174</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>177</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K173" s="7">
-        <v>167</v>
-      </c>
-      <c r="L173" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="4">
-        <v>173</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="E174" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="K174" s="7">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>18</v>
@@ -6606,18 +6572,24 @@
         <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K175" s="7">
+        <v>174</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6626,10 +6598,10 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
@@ -6638,12 +6610,12 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6652,10 +6624,10 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
@@ -6664,12 +6636,12 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6678,24 +6650,27 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>20</v>
+        <v>415</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K178" s="7">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6704,24 +6679,27 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J179" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K179" s="7">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6730,134 +6708,122 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="K180" s="7">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K181" s="7">
-        <v>174</v>
-      </c>
-      <c r="L181" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G182" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J182" s="9" t="s">
-        <v>22</v>
+        <v>419</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="K182" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J183" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K183" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K184" s="7">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
@@ -6866,18 +6832,24 @@
         <v>42</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K185" s="7">
+        <v>184</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6886,24 +6858,24 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K186" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6912,24 +6884,27 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J187" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K187" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -6938,131 +6913,122 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="K188" s="7">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="7">
-        <v>184</v>
-      </c>
-      <c r="L189" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>431</v>
+        <v>238</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K190" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J191" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K191" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="K192" s="7">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
@@ -7071,18 +7037,24 @@
         <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="K193" s="7">
+        <v>192</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7091,24 +7063,27 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>449</v>
+        <v>242</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J194" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K194" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7117,24 +7092,24 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K195" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7143,24 +7118,18 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K196" s="7">
-        <v>192</v>
-      </c>
-      <c r="L196" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7169,24 +7138,24 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K197" s="7">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7195,10 +7164,10 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
@@ -7207,15 +7176,15 @@
         <v>22</v>
       </c>
       <c r="K198" s="7">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A199" s="4">
-        <v>198</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="9">
+        <v>202</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>18</v>
@@ -7224,120 +7193,19 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="K199" s="7">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A200" s="4">
-        <v>199</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A201" s="4">
-        <v>200</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K201" s="7">
-        <v>199</v>
-      </c>
-      <c r="L201" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A202" s="4">
-        <v>201</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K202" s="7">
-        <v>199</v>
-      </c>
-      <c r="L202" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A203" s="9">
-        <v>202</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K203" s="7">
-        <v>201</v>
-      </c>
-      <c r="L203" s="4" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7354,208 +7222,208 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>487</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E008B4-7F0E-4F7B-85F1-726CA9758E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B240E3-295B-4BF4-A545-C4CE288E6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="559">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -206,33 +206,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>Head Office in Germany</t>
   </si>
   <si>
@@ -272,9 +245,6 @@
     <t>Subcontracting Companies Countries</t>
   </si>
   <si>
-    <t>Subcontracting Companies Industries</t>
-  </si>
-  <si>
     <t>Production Sites</t>
   </si>
   <si>
@@ -867,9 +837,6 @@
   </si>
   <si>
     <t>In which countries do the subcontracting companies operate?</t>
-  </si>
-  <si>
-    <t>In which industries do the subcontracting companies operate?</t>
   </si>
   <si>
     <t>Do you have production sites in your company?</t>
@@ -1438,51 +1405,9 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>LkSG - risk Positions</t>
-  </si>
-  <si>
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1657,17 +1582,179 @@
     <t>ISO2 Codes Multi-Select Dropdown</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>AmountWithCurrencyComponent</t>
+  </si>
+  <si>
+    <t>LkSG Subcontracting Companies</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>LkSG Risk Position MultiSelect Component</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1717,6 +1804,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2152,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2237,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2251,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2271,10 +2364,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2291,19 +2384,19 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2317,13 +2410,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2337,19 +2430,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2363,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2383,22 +2473,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2412,13 +2502,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2432,13 +2522,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2452,10 +2542,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2472,19 +2562,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2498,10 +2588,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2510,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2524,19 +2614,19 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2550,19 +2640,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
+        <v>256</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6">
+        <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2576,19 +2666,19 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="6">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2602,19 +2692,19 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>257</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>500</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2628,19 +2718,22 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K19" s="7">
+        <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2654,22 +2747,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2680,25 +2773,22 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2712,19 +2802,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>497</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2732,25 +2822,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>522</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K23" s="7">
-        <v>11</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>517</v>
+        <v>262</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2764,16 +2851,19 @@
         <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>22</v>
+      <c r="K24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2787,19 +2877,19 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7">
-        <v>23</v>
+      <c r="K25" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2813,19 +2903,20 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2839,22 +2930,19 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2868,19 +2956,19 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2894,19 +2982,19 @@
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>45</v>
+        <v>506</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2917,22 +3005,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="7">
-        <v>23</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>517</v>
+      <c r="J30" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2946,16 +3031,19 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>22</v>
+      <c r="K31" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2969,19 +3057,19 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="7">
-        <v>30</v>
+      <c r="K32" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2995,19 +3083,19 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="7">
-        <v>30</v>
+      <c r="K33" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -3021,19 +3109,19 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="7">
-        <v>30</v>
+      <c r="K34" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3047,19 +3135,19 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="7">
-        <v>30</v>
+      <c r="K35" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -3073,19 +3161,22 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="7">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3099,25 +3190,20 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="H37" s="9"/>
       <c r="K37" s="7" t="s">
-        <v>46</v>
+        <v>509</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -3131,22 +3217,19 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>46</v>
+        <v>509</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -3160,19 +3243,19 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>46</v>
+        <v>509</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3186,19 +3269,19 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>46</v>
+        <v>510</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3212,19 +3295,19 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>47</v>
+        <v>511</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3238,19 +3321,19 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="7">
-        <v>30</v>
+      <c r="K42" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3264,19 +3347,19 @@
         <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="7">
-        <v>30</v>
+      <c r="K43" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3287,22 +3370,19 @@
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="7">
-        <v>30</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>517</v>
+      <c r="J44" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3316,10 +3396,10 @@
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
@@ -3339,16 +3419,19 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>22</v>
+      <c r="K46" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3362,19 +3445,16 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>517</v>
+      <c r="J47" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3388,10 +3468,10 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
@@ -3411,16 +3491,19 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>22</v>
+        <v>442</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3434,19 +3517,16 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3460,10 +3540,10 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
@@ -3480,19 +3560,16 @@
         <v>24</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3506,10 +3583,10 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
@@ -3526,10 +3603,10 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
@@ -3546,10 +3623,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
@@ -3566,10 +3643,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>20</v>
@@ -3586,13 +3663,20 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>20</v>
+        <v>558</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="K57" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3606,22 +3690,19 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>50</v>
+        <v>514</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3635,19 +3716,19 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3661,19 +3742,13 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -3687,13 +3762,19 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>20</v>
+        <v>300</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -3707,19 +3788,13 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>517</v>
+        <v>301</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3733,13 +3808,19 @@
         <v>31</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>20</v>
+        <v>302</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3753,19 +3834,13 @@
         <v>31</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>517</v>
+        <v>303</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3779,13 +3854,19 @@
         <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>20</v>
+        <v>302</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -3793,25 +3874,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>517</v>
+        <v>304</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3825,13 +3900,19 @@
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3845,19 +3926,19 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="7">
-        <v>66</v>
+      <c r="K68" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3871,22 +3952,22 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="7">
-        <v>66</v>
+      <c r="K69" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3897,22 +3978,22 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>318</v>
+        <v>109</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="7">
-        <v>66</v>
+      <c r="K70" s="7" t="s">
+        <v>520</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3923,19 +4004,19 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>443</v>
+        <v>111</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>52</v>
+        <v>520</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3949,19 +4030,13 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -3975,13 +4050,19 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -3995,19 +4076,19 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="7">
-        <v>72</v>
+      <c r="K74" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -4021,19 +4102,19 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="7">
-        <v>72</v>
+      <c r="K75" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4047,19 +4128,22 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="7">
-        <v>72</v>
+      <c r="J76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4073,22 +4157,19 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="7">
-        <v>72</v>
+      <c r="K77" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4102,19 +4183,22 @@
         <v>32</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="7">
-        <v>72</v>
+      <c r="J78" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4128,10 +4212,10 @@
         <v>32</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
@@ -4139,11 +4223,11 @@
       <c r="J79" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K79" s="7">
-        <v>72</v>
+      <c r="K79" s="7" t="s">
+        <v>521</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4157,22 +4241,19 @@
         <v>32</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="7">
-        <v>72</v>
+        <v>442</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4183,22 +4264,16 @@
         <v>21</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4212,13 +4287,19 @@
         <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4232,19 +4313,13 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4258,13 +4333,19 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4278,19 +4359,19 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="7">
-        <v>83</v>
+      <c r="K85" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4304,19 +4385,19 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K86" s="7">
-        <v>83</v>
+      <c r="K86" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4330,19 +4411,19 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K87" s="7">
-        <v>83</v>
+      <c r="K87" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4356,19 +4437,22 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K88" s="7">
-        <v>83</v>
+      <c r="J88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4382,10 +4466,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
@@ -4393,11 +4477,11 @@
       <c r="J89" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="7">
-        <v>83</v>
+      <c r="K89" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -4411,10 +4495,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
@@ -4422,11 +4506,11 @@
       <c r="J90" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K90" s="7">
-        <v>83</v>
+      <c r="K90" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4440,22 +4524,19 @@
         <v>33</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="7">
-        <v>83</v>
+        <v>501</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4466,22 +4547,16 @@
         <v>21</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4495,10 +4570,10 @@
         <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>20</v>
@@ -4515,13 +4590,22 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -4535,10 +4619,10 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
@@ -4546,11 +4630,11 @@
       <c r="J95" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K95" s="7">
-        <v>93</v>
+      <c r="K95" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4564,22 +4648,19 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J96" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="7">
-        <v>93</v>
+      <c r="K96" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -4593,19 +4674,19 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97" s="7">
-        <v>93</v>
+        <v>489</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -4619,19 +4700,19 @@
         <v>34</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K98" s="7">
-        <v>93</v>
+        <v>489</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -4645,19 +4726,22 @@
         <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K99" s="7">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -4671,22 +4755,19 @@
         <v>34</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="7">
-        <v>93</v>
+        <v>442</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -4697,22 +4778,16 @@
         <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -4726,10 +4801,10 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
@@ -4746,10 +4821,10 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4766,13 +4841,22 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -4786,10 +4870,10 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
@@ -4797,11 +4881,11 @@
       <c r="J105" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K105" s="7">
-        <v>103</v>
+      <c r="K105" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -4815,10 +4899,10 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
@@ -4826,11 +4910,11 @@
       <c r="J106" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="7">
-        <v>103</v>
+      <c r="K106" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -4844,10 +4928,10 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
@@ -4855,11 +4939,11 @@
       <c r="J107" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K107" s="7">
-        <v>103</v>
+      <c r="K107" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -4873,22 +4957,19 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="7">
-        <v>103</v>
+        <v>442</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -4902,19 +4983,13 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -4925,13 +5000,13 @@
         <v>21</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>20</v>
@@ -4948,13 +5023,19 @@
         <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>20</v>
+        <v>443</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -4968,19 +5049,13 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
@@ -4994,13 +5069,19 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -5014,19 +5095,19 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K114" s="7">
-        <v>112</v>
+      <c r="K114" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -5040,19 +5121,22 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K115" s="7">
-        <v>112</v>
+      <c r="J115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -5066,10 +5150,10 @@
         <v>36</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
@@ -5077,11 +5161,11 @@
       <c r="J116" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K116" s="7">
-        <v>112</v>
+      <c r="K116" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -5095,10 +5179,10 @@
         <v>36</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
@@ -5106,11 +5190,11 @@
       <c r="J117" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K117" s="7">
-        <v>112</v>
+      <c r="K117" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -5124,22 +5208,19 @@
         <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="7">
-        <v>112</v>
+        <v>442</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -5150,22 +5231,16 @@
         <v>21</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
@@ -5179,13 +5254,19 @@
         <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -5199,19 +5280,19 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -5225,19 +5306,19 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -5251,19 +5332,22 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J123" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K123" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
@@ -5277,22 +5361,19 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J124" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="K124" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -5306,19 +5387,22 @@
         <v>37</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J125" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="K125" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5332,10 +5416,10 @@
         <v>37</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
@@ -5344,10 +5428,10 @@
         <v>22</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -5361,22 +5445,19 @@
         <v>37</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -5387,22 +5468,16 @@
         <v>21</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
@@ -5416,13 +5491,19 @@
         <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
@@ -5436,19 +5517,19 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K130" s="7">
-        <v>128</v>
+      <c r="K130" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
@@ -5462,19 +5543,19 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K131" s="7">
-        <v>128</v>
+      <c r="K131" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -5488,19 +5569,19 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K132" s="7">
-        <v>128</v>
+      <c r="K132" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -5514,19 +5595,19 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="7">
-        <v>128</v>
+      <c r="K133" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -5540,19 +5621,22 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K134" s="7">
-        <v>128</v>
+      <c r="J134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -5566,10 +5650,10 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
@@ -5577,11 +5661,11 @@
       <c r="J135" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K135" s="7">
-        <v>128</v>
+      <c r="K135" s="7" t="s">
+        <v>536</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -5595,22 +5679,13 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" s="7">
-        <v>128</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
@@ -5624,13 +5699,19 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -5644,19 +5725,19 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K138" s="7">
-        <v>136</v>
+      <c r="K138" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
@@ -5670,19 +5751,22 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K139" s="7">
-        <v>136</v>
+      <c r="J139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
@@ -5696,10 +5780,10 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5707,11 +5791,11 @@
       <c r="J140" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K140" s="7">
-        <v>136</v>
+      <c r="K140" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -5725,22 +5809,13 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K141" s="7">
-        <v>136</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -5754,13 +5829,19 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -5774,19 +5855,22 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K143" s="7">
-        <v>141</v>
+      <c r="J143" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -5800,10 +5884,10 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
@@ -5811,11 +5895,11 @@
       <c r="J144" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K144" s="7">
-        <v>141</v>
+      <c r="K144" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -5829,22 +5913,13 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K145" s="7">
-        <v>141</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -5858,13 +5933,19 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -5878,19 +5959,22 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K147" s="7">
-        <v>145</v>
+      <c r="J147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -5904,10 +5988,10 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
@@ -5915,11 +5999,11 @@
       <c r="J148" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K148" s="7">
-        <v>145</v>
+      <c r="K148" s="7" t="s">
+        <v>539</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
@@ -5933,22 +6017,13 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J149" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" s="7">
-        <v>145</v>
-      </c>
-      <c r="L149" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
@@ -5962,13 +6037,19 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -5982,19 +6063,19 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K151" s="7">
-        <v>149</v>
+        <v>442</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -6008,19 +6089,22 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -6034,10 +6118,10 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>20</v>
@@ -6045,11 +6129,11 @@
       <c r="J153" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K153" s="7">
-        <v>149</v>
+      <c r="K153" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
@@ -6063,22 +6147,19 @@
         <v>38</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J154" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K154" s="7">
-        <v>149</v>
+      <c r="K154" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
@@ -6092,19 +6173,16 @@
         <v>38</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K155" s="7">
-        <v>149</v>
-      </c>
-      <c r="L155" s="4" t="s">
-        <v>517</v>
+      <c r="J155" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -6118,16 +6196,19 @@
         <v>38</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J156" s="9" t="s">
-        <v>22</v>
+        <v>442</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -6138,22 +6219,16 @@
         <v>21</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K157" s="7">
-        <v>155</v>
-      </c>
-      <c r="L157" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
@@ -6167,13 +6242,19 @@
         <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
@@ -6187,19 +6268,13 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K159" s="7">
-        <v>157</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -6213,13 +6288,22 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
@@ -6233,22 +6317,19 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K161" s="7">
-        <v>159</v>
+      <c r="K161" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
@@ -6262,19 +6343,22 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K162" s="7">
-        <v>159</v>
+      <c r="J162" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
@@ -6288,10 +6372,10 @@
         <v>39</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
@@ -6299,11 +6383,11 @@
       <c r="J163" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K163" s="7">
-        <v>159</v>
+      <c r="K163" s="7" t="s">
+        <v>544</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
@@ -6317,22 +6401,19 @@
         <v>39</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K164" s="7">
-        <v>159</v>
+        <v>442</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>545</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
@@ -6346,19 +6427,13 @@
         <v>39</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K165" s="7">
-        <v>163</v>
-      </c>
-      <c r="L165" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
@@ -6369,13 +6444,13 @@
         <v>21</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>20</v>
@@ -6392,13 +6467,19 @@
         <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
@@ -6412,19 +6493,22 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K168" s="7">
-        <v>166</v>
+      <c r="J168" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
@@ -6438,10 +6522,10 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
@@ -6449,11 +6533,11 @@
       <c r="J169" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K169" s="7">
-        <v>167</v>
+      <c r="K169" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -6467,22 +6551,19 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J170" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K170" s="7">
-        <v>167</v>
+        <v>402</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
@@ -6496,19 +6577,22 @@
         <v>40</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G171" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K171" s="7">
-        <v>167</v>
+        <v>403</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
@@ -6522,22 +6606,22 @@
         <v>40</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>514</v>
+        <v>20</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K172" s="7">
-        <v>167</v>
+      <c r="K172" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -6551,22 +6635,19 @@
         <v>40</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K173" s="7">
-        <v>167</v>
+        <v>501</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>548</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
@@ -6574,25 +6655,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K174" s="7">
-        <v>172</v>
-      </c>
-      <c r="L174" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
@@ -6606,13 +6681,19 @@
         <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
@@ -6626,19 +6707,19 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K176" s="7">
-        <v>174</v>
+      <c r="K176" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
@@ -6652,19 +6733,19 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K177" s="7">
-        <v>174</v>
+      <c r="K177" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
@@ -6678,19 +6759,19 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K178" s="7">
-        <v>174</v>
+      <c r="K178" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
@@ -6704,19 +6785,19 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K179" s="7">
-        <v>174</v>
+      <c r="K179" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
@@ -6730,19 +6811,19 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K180" s="7">
-        <v>174</v>
+      <c r="K180" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
@@ -6756,19 +6837,22 @@
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K181" s="7">
-        <v>174</v>
+        <v>413</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
@@ -6782,22 +6866,22 @@
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G182" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J182" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K182" s="7">
-        <v>180</v>
+      <c r="K182" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -6811,22 +6895,19 @@
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J183" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K183" s="7">
-        <v>180</v>
+        <v>442</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
@@ -6837,22 +6918,16 @@
         <v>18</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K184" s="7">
-        <v>182</v>
-      </c>
-      <c r="L184" s="4" t="s">
-        <v>517</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
@@ -6866,13 +6941,19 @@
         <v>42</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
@@ -6886,19 +6967,19 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K186" s="7">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
@@ -6912,19 +6993,19 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K187" s="7">
-        <v>184</v>
+      <c r="K187" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
@@ -6938,19 +7019,19 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K188" s="7">
-        <v>184</v>
+      <c r="K188" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -6964,19 +7045,19 @@
         <v>42</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="7">
-        <v>184</v>
+      <c r="K189" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
@@ -6990,19 +7071,22 @@
         <v>42</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K190" s="7">
-        <v>188</v>
+      <c r="J190" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
@@ -7016,22 +7100,19 @@
         <v>42</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J191" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K191" s="7">
-        <v>188</v>
+        <v>501</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
@@ -7042,25 +7123,19 @@
         <v>18</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K192" s="7">
-        <v>190</v>
-      </c>
-      <c r="L192" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -7071,16 +7146,22 @@
         <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>448</v>
+        <v>233</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="K193" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -7091,19 +7172,19 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>449</v>
+        <v>234</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K194" s="7">
-        <v>192</v>
+      <c r="K194" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -7117,19 +7198,19 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K195" s="7">
-        <v>192</v>
+      <c r="K195" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
@@ -7143,19 +7224,19 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K196" s="7">
-        <v>192</v>
+      <c r="K196" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -7169,19 +7250,22 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K197" s="7">
-        <v>192</v>
+      <c r="J197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
@@ -7195,22 +7279,19 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J198" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K198" s="7">
-        <v>193</v>
+      <c r="K198" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
@@ -7224,19 +7305,13 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K199" s="7">
-        <v>193</v>
-      </c>
-      <c r="L199" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
@@ -7250,13 +7325,19 @@
         <v>43</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
@@ -7270,19 +7351,22 @@
         <v>43</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K201" s="7">
-        <v>199</v>
+      <c r="J201" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -7296,51 +7380,23 @@
         <v>43</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K202" s="7">
-        <v>199</v>
+        <v>501</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A203" s="9">
-        <v>202</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K203" s="7">
-        <v>201</v>
-      </c>
-      <c r="L203" s="4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7364,184 +7420,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7549,13 +7605,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC7C59-56B7-4208-8B15-B1C6B041FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71747903-6636-40AB-9D1A-9E8FBEDDCDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="522">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1411,9 +1411,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>LkSG - risk Positions</t>
-  </si>
-  <si>
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
@@ -1637,6 +1634,9 @@
   </si>
   <si>
     <t>LkSG General Violations</t>
+  </si>
+  <si>
+    <t>LkSG Grievance Mechanism Assessment</t>
   </si>
 </sst>
 </file>
@@ -2130,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>251</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>22</v>
@@ -2368,13 +2368,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2394,7 +2394,7 @@
         <v>255</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>256</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2506,13 +2506,13 @@
         <v>260</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2532,13 +2532,13 @@
         <v>261</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2581,16 +2581,16 @@
         <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2610,13 +2610,13 @@
         <v>263</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2639,13 +2639,13 @@
         <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2665,16 +2665,16 @@
         <v>265</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K21" s="7">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2694,13 +2694,13 @@
         <v>266</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2714,19 +2714,19 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>267</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K23" s="7">
         <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2775,7 +2775,7 @@
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>443</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2821,14 +2821,14 @@
         <v>271</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H27" s="9"/>
       <c r="K27" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
         <v>23</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2903,7 +2903,7 @@
         <v>30</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2929,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2955,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3030,7 +3030,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>22</v>
@@ -3039,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3059,16 +3059,14 @@
         <v>280</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>446</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="H36" s="9"/>
       <c r="K36" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3094,7 +3092,7 @@
         <v>45</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3120,7 +3118,7 @@
         <v>45</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3146,7 +3144,7 @@
         <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3172,7 +3170,7 @@
         <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3198,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3224,7 +3222,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3296,7 +3294,7 @@
         <v>47</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3368,7 +3366,7 @@
         <v>48</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3534,14 +3532,14 @@
         <v>300</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H56" s="9"/>
       <c r="K56" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3581,13 +3579,13 @@
         <v>302</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3627,13 +3625,13 @@
         <v>304</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3673,13 +3671,13 @@
         <v>304</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3725,7 +3723,7 @@
         <v>66</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3751,7 +3749,7 @@
         <v>66</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3777,7 +3775,7 @@
         <v>66</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -3803,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3829,7 +3827,7 @@
         <v>51</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3875,7 +3873,7 @@
         <v>72</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3901,7 +3899,7 @@
         <v>72</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3927,7 +3925,7 @@
         <v>72</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3956,7 +3954,7 @@
         <v>72</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3982,7 +3980,7 @@
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4011,7 +4009,7 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4040,7 +4038,7 @@
         <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4066,7 +4064,7 @@
         <v>52</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4109,10 +4107,10 @@
         <v>444</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4158,7 +4156,7 @@
         <v>83</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4184,7 +4182,7 @@
         <v>83</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4210,7 +4208,7 @@
         <v>83</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -4236,7 +4234,7 @@
         <v>83</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4265,7 +4263,7 @@
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4294,7 +4292,7 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4323,7 +4321,7 @@
         <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4343,13 +4341,13 @@
         <v>329</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -4418,7 +4416,7 @@
         <v>93</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4447,7 +4445,7 @@
         <v>93</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4473,7 +4471,7 @@
         <v>93</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4493,13 +4491,13 @@
         <v>335</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K94" s="7">
         <v>93</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4519,13 +4517,13 @@
         <v>336</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K95" s="7">
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4554,7 +4552,7 @@
         <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4577,10 +4575,10 @@
         <v>444</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4669,7 +4667,7 @@
         <v>103</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4698,7 +4696,7 @@
         <v>103</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4727,7 +4725,7 @@
         <v>103</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4756,7 +4754,7 @@
         <v>103</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4779,10 +4777,10 @@
         <v>444</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4845,10 +4843,10 @@
         <v>445</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4894,7 +4892,7 @@
         <v>112</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4920,7 +4918,7 @@
         <v>112</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4949,7 +4947,7 @@
         <v>112</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4978,7 +4976,7 @@
         <v>112</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5007,7 +5005,7 @@
         <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5030,10 +5028,10 @@
         <v>444</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5076,10 +5074,10 @@
         <v>20</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -5102,10 +5100,10 @@
         <v>20</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5128,10 +5126,10 @@
         <v>20</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5157,10 +5155,10 @@
         <v>22</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5183,10 +5181,10 @@
         <v>20</v>
       </c>
       <c r="K121" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5212,10 +5210,10 @@
         <v>22</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5241,10 +5239,10 @@
         <v>22</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5267,10 +5265,10 @@
         <v>444</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5316,7 +5314,7 @@
         <v>128</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5342,7 +5340,7 @@
         <v>128</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5368,7 +5366,7 @@
         <v>128</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5394,7 +5392,7 @@
         <v>128</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5420,7 +5418,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5449,7 +5447,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5478,7 +5476,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5524,7 +5522,7 @@
         <v>136</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5550,7 +5548,7 @@
         <v>136</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5579,7 +5577,7 @@
         <v>136</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5608,7 +5606,7 @@
         <v>136</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5654,7 +5652,7 @@
         <v>141</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5683,7 +5681,7 @@
         <v>141</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5712,7 +5710,7 @@
         <v>141</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5758,7 +5756,7 @@
         <v>145</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5787,7 +5785,7 @@
         <v>145</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5816,7 +5814,7 @@
         <v>145</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5862,7 +5860,7 @@
         <v>149</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -5885,10 +5883,10 @@
         <v>444</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5917,7 +5915,7 @@
         <v>149</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -5946,7 +5944,7 @@
         <v>149</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -5972,7 +5970,7 @@
         <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -6021,7 +6019,7 @@
         <v>155</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6067,7 +6065,7 @@
         <v>157</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -6116,7 +6114,7 @@
         <v>159</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -6142,7 +6140,7 @@
         <v>159</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -6171,7 +6169,7 @@
         <v>159</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -6200,7 +6198,7 @@
         <v>159</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -6226,7 +6224,7 @@
         <v>163</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -6292,7 +6290,7 @@
         <v>166</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -6321,7 +6319,7 @@
         <v>167</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -6350,7 +6348,7 @@
         <v>167</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -6370,13 +6368,13 @@
         <v>404</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K167" s="7">
         <v>167</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -6396,7 +6394,7 @@
         <v>405</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J168" s="9" t="s">
         <v>22</v>
@@ -6405,7 +6403,7 @@
         <v>167</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -6434,7 +6432,7 @@
         <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -6454,13 +6452,13 @@
         <v>407</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K170" s="7">
         <v>172</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -6506,7 +6504,7 @@
         <v>174</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -6532,7 +6530,7 @@
         <v>174</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -6558,7 +6556,7 @@
         <v>174</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -6584,7 +6582,7 @@
         <v>174</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -6610,7 +6608,7 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -6636,7 +6634,7 @@
         <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -6665,7 +6663,7 @@
         <v>180</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -6694,7 +6692,7 @@
         <v>180</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -6720,7 +6718,7 @@
         <v>182</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -6766,7 +6764,7 @@
         <v>184</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -6792,7 +6790,7 @@
         <v>184</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -6818,7 +6816,7 @@
         <v>184</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -6844,7 +6842,7 @@
         <v>184</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -6870,7 +6868,7 @@
         <v>188</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -6899,7 +6897,7 @@
         <v>188</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -6919,13 +6917,13 @@
         <v>424</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K188" s="7">
         <v>190</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -6971,7 +6969,7 @@
         <v>192</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -6997,7 +6995,7 @@
         <v>192</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -7023,7 +7021,7 @@
         <v>192</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -7049,7 +7047,7 @@
         <v>192</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -7078,7 +7076,7 @@
         <v>193</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -7104,7 +7102,7 @@
         <v>193</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -7150,7 +7148,7 @@
         <v>199</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -7179,7 +7177,7 @@
         <v>199</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -7199,13 +7197,13 @@
         <v>433</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K199" s="7">
         <v>201</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -7232,184 +7230,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>465</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>466</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>479</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>480</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>491</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>494</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>497</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>499</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>500</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7417,13 +7415,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B240E3-295B-4BF4-A545-C4CE288E6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C754BE-E2F9-43CC-9E85-AFE982F523E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="522">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -206,6 +206,30 @@
     <t>13</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>Head Office in Germany</t>
   </si>
   <si>
@@ -245,6 +269,9 @@
     <t>Subcontracting Companies Countries</t>
   </si>
   <si>
+    <t>Subcontracting Companies Industries</t>
+  </si>
+  <si>
     <t>Production Sites</t>
   </si>
   <si>
@@ -275,12 +302,6 @@
     <t>Identified Risks</t>
   </si>
   <si>
-    <t>Counteracting Measures</t>
-  </si>
-  <si>
-    <t>Which Counteracting Measures</t>
-  </si>
-  <si>
     <t>Regulated Risk Management Responsibility</t>
   </si>
   <si>
@@ -365,12 +386,6 @@
     <t>Human Rights or Environmental Violations Definition</t>
   </si>
   <si>
-    <t>Human Rights or Environmental Violations Measures</t>
-  </si>
-  <si>
-    <t>Human Rights or Environmental Violations Measures Definition</t>
-  </si>
-  <si>
     <t>High Risk Countries Raw Materials</t>
   </si>
   <si>
@@ -839,6 +854,9 @@
     <t>In which countries do the subcontracting companies operate?</t>
   </si>
   <si>
+    <t>In which industries do the subcontracting companies operate?</t>
+  </si>
+  <si>
     <t>Do you have production sites in your company?</t>
   </si>
   <si>
@@ -869,12 +887,6 @@
     <t>Which risks were specifically identified in the risk analysis?</t>
   </si>
   <si>
-    <t>Have measures been defined to counteract the risks?</t>
-  </si>
-  <si>
-    <t>Which measures have been applied to counteract the risks?</t>
-  </si>
-  <si>
     <t>Is the responsibility for Risk Management in your company regulated, for example by appointing a human rights officer?</t>
   </si>
   <si>
@@ -960,12 +972,6 @@
   </si>
   <si>
     <t>Please define those violations.</t>
-  </si>
-  <si>
-    <t>Have measures been taken to address this violation?</t>
-  </si>
-  <si>
-    <t>Please define these measures.</t>
   </si>
   <si>
     <t>Do you source materials from countries associated with high-risk or conflict?</t>
@@ -1408,6 +1414,42 @@
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -1585,176 +1627,23 @@
     <t>AmountWithCurrencyComponent</t>
   </si>
   <si>
-    <t>LkSG Subcontracting Companies</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>LkSG Risk Position MultiSelect Component</t>
+    <t>LkSG Grievance Mechanism Assessment</t>
+  </si>
+  <si>
+    <t>LkSG Risk Position Assessments</t>
+  </si>
+  <si>
+    <t>LkSG General Violations Assessments</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,12 +1693,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1908,11 +1791,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -1930,6 +1808,11 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,31 +2128,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="150.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="150.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.08984375" style="4"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2183,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2310,7 +2193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2326,14 +2209,14 @@
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2344,16 +2227,16 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2364,16 +2247,16 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2384,22 +2267,23 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K5" s="6">
+        <v>444</v>
+      </c>
+      <c r="K5" s="14">
+        <f>A4</f>
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2410,16 +2294,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2430,19 +2314,19 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H7" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2453,16 +2337,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2473,25 +2357,25 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>445</v>
+        <v>509</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>459</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2502,16 +2386,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2522,16 +2406,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2542,16 +2426,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2562,22 +2446,22 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K13" s="6">
+        <v>444</v>
+      </c>
+      <c r="K13" s="14">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2588,22 +2472,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="14">
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2614,22 +2498,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="K15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2640,22 +2524,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="6">
-        <v>11</v>
+        <v>261</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2666,22 +2550,22 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>499</v>
+        <v>262</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>505</v>
+        <v>20</v>
+      </c>
+      <c r="K17" s="14">
+        <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2692,22 +2576,22 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2718,25 +2602,22 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K19" s="7">
-        <v>11</v>
+        <v>263</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2747,25 +2628,25 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>444</v>
+        <v>264</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="K20" s="7">
+        <v>504</v>
+      </c>
+      <c r="K20" s="15">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2773,25 +2654,28 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="K21" s="7">
+        <v>265</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="K21" s="15">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2802,45 +2686,48 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>497</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="K22" s="7">
+        <v>266</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="K22" s="15">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>511</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="K23" s="15">
+        <v>11</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2851,22 +2738,19 @@
         <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2877,22 +2761,22 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>507</v>
+      <c r="K25" s="15">
+        <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2903,23 +2787,22 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>20</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>443</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2930,24 +2813,25 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>441</v>
+        <v>519</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="K27" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -2956,50 +2840,47 @@
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>508</v>
+        <v>20</v>
+      </c>
+      <c r="K28" s="15">
+        <v>23</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J29" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -3008,21 +2889,24 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K30" s="15">
+        <v>30</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -3031,24 +2915,24 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>511</v>
+      <c r="K31" s="15">
+        <v>30</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -3057,24 +2941,24 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>511</v>
+      <c r="K32" s="15">
+        <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -3083,24 +2967,24 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>511</v>
+      <c r="K33" s="15">
+        <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3109,24 +2993,24 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>511</v>
+      <c r="K34" s="15">
+        <v>30</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3135,24 +3019,30 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>511</v>
+        <v>19</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3161,27 +3051,25 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="K36" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3190,25 +3078,24 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="K37" s="7" t="s">
-        <v>509</v>
+        <v>444</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3217,24 +3104,24 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>509</v>
+        <v>20</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3243,24 +3130,24 @@
         <v>29</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>509</v>
+        <v>444</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3269,24 +3156,24 @@
         <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>510</v>
+        <v>20</v>
+      </c>
+      <c r="K40" s="15">
+        <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3295,24 +3182,24 @@
         <v>29</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>511</v>
+      <c r="K41" s="15">
+        <v>30</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3321,50 +3208,47 @@
         <v>29</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>511</v>
+      <c r="K42" s="15">
+        <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J43" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3373,21 +3257,21 @@
         <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -3396,21 +3280,24 @@
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3419,24 +3306,21 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J46" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3445,21 +3329,21 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3468,21 +3352,24 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3491,24 +3378,21 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3517,44 +3401,41 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3563,18 +3444,18 @@
         <v>31</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -3583,18 +3464,18 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3603,18 +3484,18 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3623,18 +3504,18 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3643,18 +3524,25 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="K56" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3663,25 +3551,18 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="K57" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3690,24 +3571,24 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>514</v>
+        <v>302</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3716,24 +3597,18 @@
         <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3742,18 +3617,24 @@
         <v>31</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3762,24 +3643,18 @@
         <v>31</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -3788,90 +3663,96 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K64" s="15">
+        <v>66</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>518</v>
+        <v>308</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="15">
+        <v>66</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>21</v>
@@ -3880,18 +3761,24 @@
         <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K66" s="15">
+        <v>66</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>21</v>
@@ -3900,24 +3787,24 @@
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>305</v>
+        <v>114</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>519</v>
+      <c r="K67" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3926,24 +3813,24 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>519</v>
+        <v>444</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3952,24 +3839,18 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3978,24 +3859,24 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>432</v>
+        <v>118</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>520</v>
+      <c r="K70" s="15">
+        <v>72</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -4004,24 +3885,24 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>520</v>
+        <v>20</v>
+      </c>
+      <c r="K71" s="15">
+        <v>72</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -4030,18 +3911,24 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K72" s="15">
+        <v>72</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -4050,24 +3937,27 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="7" t="s">
-        <v>521</v>
+      <c r="J73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="15">
+        <v>72</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -4076,24 +3966,24 @@
         <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="7" t="s">
-        <v>521</v>
+      <c r="K74" s="15">
+        <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -4102,24 +3992,27 @@
         <v>32</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>521</v>
+      <c r="J75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="15">
+        <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4128,27 +4021,27 @@
         <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="7" t="s">
-        <v>521</v>
+      <c r="K76" s="15">
+        <v>72</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4157,108 +4050,90 @@
         <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>521</v>
+        <v>444</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>521</v>
+        <v>444</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>454</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4267,18 +4142,24 @@
         <v>33</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K81" s="15">
+        <v>83</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
@@ -4287,24 +4168,24 @@
         <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>523</v>
+        <v>20</v>
+      </c>
+      <c r="K82" s="15">
+        <v>83</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4313,18 +4194,24 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K83" s="15">
+        <v>83</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4333,24 +4220,24 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K84" s="7" t="s">
-        <v>524</v>
+      <c r="K84" s="15">
+        <v>83</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4359,24 +4246,27 @@
         <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="7" t="s">
-        <v>524</v>
+      <c r="J85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="15">
+        <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4385,24 +4275,27 @@
         <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K86" s="7" t="s">
-        <v>524</v>
+      <c r="J86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="15">
+        <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4411,24 +4304,27 @@
         <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>524</v>
+      <c r="J87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="15">
+        <v>83</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4437,111 +4333,93 @@
         <v>33</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>93</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>94</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K88" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>88</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>525</v>
+      <c r="K91" s="15">
+        <v>93</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4550,18 +4428,27 @@
         <v>34</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="15">
+        <v>93</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
@@ -4570,18 +4457,24 @@
         <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K93" s="15">
+        <v>93</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4590,27 +4483,24 @@
         <v>34</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>526</v>
+        <v>503</v>
+      </c>
+      <c r="K94" s="15">
+        <v>93</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4619,27 +4509,24 @@
         <v>34</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>526</v>
+        <v>503</v>
+      </c>
+      <c r="K95" s="15">
+        <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4648,24 +4535,27 @@
         <v>34</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K96" s="7" t="s">
-        <v>526</v>
+      <c r="J96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" s="15">
+        <v>93</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4674,105 +4564,84 @@
         <v>34</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>526</v>
+        <v>444</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>452</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4781,18 +4650,27 @@
         <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="15">
+        <v>103</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
@@ -4801,18 +4679,27 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="15">
+        <v>103</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4821,18 +4708,27 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="15">
+        <v>103</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4841,27 +4737,27 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="J104" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="7" t="s">
-        <v>529</v>
+      <c r="K104" s="15">
+        <v>103</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4870,27 +4766,24 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>529</v>
+        <v>444</v>
+      </c>
+      <c r="K105" s="15" t="s">
+        <v>451</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4899,102 +4792,84 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J107" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>530</v>
+        <v>445</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -5003,18 +4878,24 @@
         <v>36</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K110" s="15">
+        <v>112</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
@@ -5023,24 +4904,24 @@
         <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>531</v>
+        <v>20</v>
+      </c>
+      <c r="K111" s="15">
+        <v>112</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -5049,18 +4930,27 @@
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="15">
+        <v>112</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -5069,24 +4959,27 @@
         <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K113" s="7" t="s">
-        <v>532</v>
+      <c r="J113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113" s="15">
+        <v>112</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -5095,24 +4988,27 @@
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K114" s="7" t="s">
-        <v>532</v>
+      <c r="J114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" s="15">
+        <v>112</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5121,111 +5017,91 @@
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>532</v>
+        <v>444</v>
+      </c>
+      <c r="K115" s="15" t="s">
+        <v>449</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J116" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="L116" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J117" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>533</v>
+        <v>20</v>
+      </c>
+      <c r="K118" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5234,18 +5110,24 @@
         <v>37</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K119" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
@@ -5254,24 +5136,27 @@
         <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K120" s="7" t="s">
-        <v>534</v>
+      <c r="J120" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5280,24 +5165,24 @@
         <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K121" s="7" t="s">
-        <v>534</v>
+      <c r="K121" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5306,24 +5191,27 @@
         <v>37</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K122" s="7" t="s">
-        <v>534</v>
+      <c r="J122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5332,27 +5220,27 @@
         <v>37</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K123" s="7" t="s">
-        <v>534</v>
+      <c r="K123" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5361,108 +5249,96 @@
         <v>37</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>534</v>
+        <v>444</v>
+      </c>
+      <c r="K124" s="15" t="s">
+        <v>448</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J125" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J126" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>534</v>
+      <c r="K126" s="15">
+        <v>128</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>535</v>
+        <v>20</v>
+      </c>
+      <c r="K127" s="15">
+        <v>128</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5471,18 +5347,24 @@
         <v>38</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K128" s="15">
+        <v>128</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
@@ -5491,24 +5373,24 @@
         <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K129" s="7" t="s">
-        <v>536</v>
+      <c r="K129" s="15">
+        <v>128</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5517,24 +5399,24 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K130" s="7" t="s">
-        <v>536</v>
+      <c r="K130" s="15">
+        <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5543,24 +5425,27 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K131" s="7" t="s">
-        <v>536</v>
+      <c r="J131" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131" s="15">
+        <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5569,24 +5454,27 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K132" s="7" t="s">
-        <v>536</v>
+      <c r="J132" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132" s="15">
+        <v>128</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5595,24 +5483,18 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5621,27 +5503,24 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J134" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K134" s="7" t="s">
-        <v>536</v>
+      <c r="K134" s="15">
+        <v>136</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5650,27 +5529,24 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K135" s="7" t="s">
-        <v>536</v>
+      <c r="K135" s="15">
+        <v>136</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5679,18 +5555,27 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J136" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136" s="15">
+        <v>136</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5699,24 +5584,27 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K137" s="7" t="s">
-        <v>537</v>
+      <c r="J137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="15">
+        <v>136</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5725,24 +5613,18 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K138" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5751,27 +5633,24 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J139" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>537</v>
+      <c r="K139" s="15">
+        <v>141</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5780,27 +5659,27 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J140" s="9" t="s">
+      <c r="J140" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K140" s="7" t="s">
-        <v>537</v>
+      <c r="K140" s="15">
+        <v>141</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5809,18 +5688,27 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J141" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141" s="15">
+        <v>141</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5829,24 +5717,18 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K142" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5855,27 +5737,24 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J143" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K143" s="7" t="s">
-        <v>538</v>
+      <c r="K143" s="15">
+        <v>145</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5884,27 +5763,27 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J144" s="9" t="s">
+      <c r="J144" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K144" s="7" t="s">
-        <v>538</v>
+      <c r="K144" s="15">
+        <v>145</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5913,18 +5792,27 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="15">
+        <v>145</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5933,24 +5821,18 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K146" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5959,27 +5841,24 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J147" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K147" s="7" t="s">
-        <v>539</v>
+      <c r="K147" s="15">
+        <v>149</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5988,27 +5867,24 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K148" s="7" t="s">
-        <v>539</v>
+        <v>444</v>
+      </c>
+      <c r="K148" s="15" t="s">
+        <v>447</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -6017,18 +5893,27 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" s="15">
+        <v>149</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -6037,24 +5922,27 @@
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K150" s="7" t="s">
-        <v>540</v>
+      <c r="J150" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="15">
+        <v>149</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -6063,24 +5951,24 @@
         <v>38</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>541</v>
+        <v>20</v>
+      </c>
+      <c r="K151" s="15">
+        <v>149</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -6089,27 +5977,21 @@
         <v>38</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J152" s="9" t="s">
+      <c r="J152" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K152" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -6118,102 +6000,90 @@
         <v>38</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J153" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>540</v>
+        <v>444</v>
+      </c>
+      <c r="K153" s="15">
+        <v>155</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K154" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L154" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+      <c r="K155" s="15">
+        <v>157</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K156" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6222,18 +6092,27 @@
         <v>39</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="15">
+        <v>159</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
@@ -6242,24 +6121,24 @@
         <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>543</v>
+        <v>20</v>
+      </c>
+      <c r="K158" s="15">
+        <v>159</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6268,18 +6147,27 @@
         <v>39</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="15">
+        <v>159</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6288,27 +6176,27 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J160" s="9" t="s">
+      <c r="J160" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K160" s="7" t="s">
-        <v>544</v>
+      <c r="K160" s="15">
+        <v>159</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6317,24 +6205,24 @@
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K161" s="7" t="s">
-        <v>544</v>
+        <v>444</v>
+      </c>
+      <c r="K161" s="15">
+        <v>163</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6343,102 +6231,93 @@
         <v>39</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J162" s="9" t="s">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>166</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>167</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="15">
+        <v>166</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>168</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K162" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="L162" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="4">
-        <v>162</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K163" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="L163" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="4">
-        <v>163</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K164" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L164" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="4">
-        <v>164</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K165" s="15">
+        <v>167</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6447,18 +6326,27 @@
         <v>40</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J166" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K166" s="15">
+        <v>167</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
@@ -6467,24 +6355,24 @@
         <v>40</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K167" s="7" t="s">
-        <v>546</v>
+        <v>404</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K167" s="15">
+        <v>167</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6493,27 +6381,27 @@
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J168" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J168" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K168" s="7" t="s">
-        <v>547</v>
+      <c r="K168" s="15">
+        <v>167</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6522,27 +6410,27 @@
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J169" s="9" t="s">
+      <c r="J169" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K169" s="7" t="s">
-        <v>547</v>
+      <c r="K169" s="15">
+        <v>167</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>21</v>
@@ -6551,108 +6439,96 @@
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="K170" s="7" t="s">
-        <v>547</v>
+        <v>407</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K170" s="15">
+        <v>172</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="J171" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K171" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L171" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J172" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K172" s="7" t="s">
-        <v>547</v>
+      <c r="K172" s="15">
+        <v>174</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K173" s="7" t="s">
-        <v>548</v>
+        <v>20</v>
+      </c>
+      <c r="K173" s="15">
+        <v>174</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>18</v>
@@ -6661,18 +6537,24 @@
         <v>41</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K174" s="15">
+        <v>174</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>18</v>
@@ -6681,24 +6563,24 @@
         <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K175" s="7" t="s">
-        <v>549</v>
+      <c r="K175" s="15">
+        <v>174</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6707,24 +6589,24 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K176" s="7" t="s">
-        <v>549</v>
+      <c r="K176" s="15">
+        <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6733,24 +6615,24 @@
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K177" s="7" t="s">
-        <v>549</v>
+      <c r="K177" s="15">
+        <v>174</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6759,24 +6641,27 @@
         <v>41</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>549</v>
+        <v>415</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" s="15">
+        <v>180</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6785,24 +6670,27 @@
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K179" s="7" t="s">
-        <v>549</v>
+      <c r="J179" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" s="15">
+        <v>180</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6811,108 +6699,96 @@
         <v>41</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>549</v>
+        <v>444</v>
+      </c>
+      <c r="K180" s="15">
+        <v>182</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G181" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J181" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L181" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J182" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>550</v>
+        <v>444</v>
+      </c>
+      <c r="K182" s="15">
+        <v>184</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K183" s="7" t="s">
-        <v>551</v>
+        <v>20</v>
+      </c>
+      <c r="K183" s="15">
+        <v>184</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6921,18 +6797,24 @@
         <v>42</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K184" s="15">
+        <v>184</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
@@ -6941,24 +6823,24 @@
         <v>42</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K185" s="7" t="s">
-        <v>552</v>
+        <v>20</v>
+      </c>
+      <c r="K185" s="15">
+        <v>184</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6967,24 +6849,24 @@
         <v>42</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K186" s="7" t="s">
-        <v>552</v>
+      <c r="K186" s="15">
+        <v>188</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6993,24 +6875,27 @@
         <v>42</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K187" s="7" t="s">
-        <v>552</v>
+      <c r="J187" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" s="15">
+        <v>188</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -7019,105 +6904,96 @@
         <v>42</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>552</v>
+        <v>515</v>
+      </c>
+      <c r="K188" s="15">
+        <v>190</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L189" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>421</v>
+        <v>238</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J190" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>553</v>
+      <c r="K190" s="15">
+        <v>192</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>554</v>
+        <v>20</v>
+      </c>
+      <c r="K191" s="15">
+        <v>192</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -7126,18 +7002,24 @@
         <v>43</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="K192" s="15">
+        <v>192</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
@@ -7146,24 +7028,24 @@
         <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>438</v>
+        <v>241</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K193" s="7" t="s">
-        <v>555</v>
+      <c r="K193" s="15">
+        <v>192</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7172,24 +7054,27 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K194" s="7" t="s">
-        <v>555</v>
+      <c r="J194" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K194" s="15">
+        <v>193</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7198,24 +7083,24 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K195" s="7" t="s">
-        <v>555</v>
+      <c r="K195" s="15">
+        <v>193</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7224,24 +7109,18 @@
         <v>43</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K196" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="L196" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7250,27 +7129,24 @@
         <v>43</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J197" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K197" s="7" t="s">
-        <v>556</v>
+      <c r="K197" s="15">
+        <v>199</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7279,24 +7155,27 @@
         <v>43</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K198" s="7" t="s">
-        <v>556</v>
+      <c r="J198" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K198" s="15">
+        <v>199</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A199" s="4">
-        <v>198</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>202</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>18</v>
@@ -7305,98 +7184,22 @@
         <v>43</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A200" s="4">
-        <v>199</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K200" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A201" s="4">
-        <v>200</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J201" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K201" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="L201" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A202" s="4">
+        <v>515</v>
+      </c>
+      <c r="K199" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K202" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L202" s="4" t="s">
-        <v>492</v>
+      <c r="L199" s="4" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7410,208 +7213,208 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D2" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D8" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D9" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D10" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D11" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D12" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="D13" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>488</v>
+      <c r="D14" s="10" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C754BE-E2F9-43CC-9E85-AFE982F523E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D26140E-7D7B-412F-A9C6-F119084C12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="521">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Subcontracting Companies Countries</t>
   </si>
   <si>
-    <t>Subcontracting Companies Industries</t>
-  </si>
-  <si>
     <t>Production Sites</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
   </si>
   <si>
     <t>In which countries do the subcontracting companies operate?</t>
-  </si>
-  <si>
-    <t>In which industries do the subcontracting companies operate?</t>
   </si>
   <si>
     <t>Do you have production sites in your company?</t>
@@ -1637,6 +1631,9 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>LkSG Subcontracting Companies</t>
   </si>
 </sst>
 </file>
@@ -2128,31 +2125,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="150.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="150.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="14" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2213,10 +2210,10 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2230,13 +2227,13 @@
         <v>53</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2250,13 +2247,13 @@
         <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2270,20 +2267,20 @@
         <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K5" s="14">
         <f>A4</f>
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2297,13 +2294,13 @@
         <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2317,16 +2314,16 @@
         <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2340,13 +2337,13 @@
         <v>58</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2360,22 +2357,22 @@
         <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2389,13 +2386,13 @@
         <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2409,13 +2406,13 @@
         <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2429,13 +2426,13 @@
         <v>62</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2449,19 +2446,19 @@
         <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K13" s="14">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2484,10 +2481,10 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2501,21 +2498,21 @@
         <v>65</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -2527,21 +2524,21 @@
         <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>44</v>
+        <v>260</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="14">
+        <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -2553,21 +2550,21 @@
         <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>262</v>
+        <v>511</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="14">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>456</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -2579,21 +2576,21 @@
         <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="G18" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>19</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -2605,21 +2602,24 @@
         <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>458</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="K19" s="15">
+        <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -2631,53 +2631,50 @@
         <v>70</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K20" s="15">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H21" s="4" t="s">
         <v>508</v>
       </c>
       <c r="K21" s="15">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -2686,10 +2683,10 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>510</v>
@@ -2698,38 +2695,35 @@
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="K23" s="15">
-        <v>11</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -2741,18 +2735,21 @@
         <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="15">
+        <v>23</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2764,21 +2761,21 @@
         <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="15">
-        <v>23</v>
+      <c r="K25" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2790,21 +2787,22 @@
         <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="K26" s="15" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>24</v>
@@ -2816,48 +2814,44 @@
         <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="K27" s="15" t="s">
-        <v>457</v>
+        <v>20</v>
+      </c>
+      <c r="K27" s="15">
+        <v>23</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="15">
-        <v>23</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>24</v>
@@ -2866,21 +2860,24 @@
         <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="15">
+        <v>30</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -2892,7 +2889,7 @@
         <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
@@ -2901,12 +2898,12 @@
         <v>30</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -2918,7 +2915,7 @@
         <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
@@ -2927,12 +2924,12 @@
         <v>30</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -2944,7 +2941,7 @@
         <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
@@ -2953,12 +2950,12 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -2970,7 +2967,7 @@
         <v>81</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -2979,12 +2976,12 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -2996,21 +2993,27 @@
         <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="15">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -3022,27 +3025,22 @@
         <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="K35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3054,22 +3052,21 @@
         <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H36" s="6"/>
+        <v>442</v>
+      </c>
       <c r="K36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3081,21 +3078,21 @@
         <v>85</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3107,21 +3104,21 @@
         <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
@@ -3133,21 +3130,21 @@
         <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="K39" s="15">
+        <v>30</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3159,7 +3156,7 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>20</v>
@@ -3168,12 +3165,12 @@
         <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3185,7 +3182,7 @@
         <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>20</v>
@@ -3194,38 +3191,35 @@
         <v>30</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="15">
-        <v>30</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3237,7 +3231,7 @@
         <v>91</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3246,9 +3240,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3260,18 +3254,21 @@
         <v>92</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -3283,21 +3280,18 @@
         <v>93</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3309,7 +3303,7 @@
         <v>94</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3318,9 +3312,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -3332,18 +3326,21 @@
         <v>95</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -3355,21 +3352,18 @@
         <v>96</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -3381,7 +3375,7 @@
         <v>97</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
@@ -3390,32 +3384,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -3427,15 +3418,15 @@
         <v>99</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3447,15 +3438,15 @@
         <v>100</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -3467,15 +3458,15 @@
         <v>101</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3487,15 +3478,15 @@
         <v>102</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3507,15 +3498,22 @@
         <v>103</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="K55" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3527,22 +3525,15 @@
         <v>104</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="K56" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3554,15 +3545,21 @@
         <v>105</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3574,21 +3571,15 @@
         <v>106</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -3600,15 +3591,21 @@
         <v>107</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -3620,21 +3617,15 @@
         <v>108</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -3646,21 +3637,27 @@
         <v>109</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>110</v>
@@ -3668,19 +3665,13 @@
       <c r="E62" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G62" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>21</v>
@@ -3692,15 +3683,21 @@
         <v>111</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K63" s="15">
+        <v>66</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>21</v>
@@ -3712,7 +3709,7 @@
         <v>112</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>20</v>
@@ -3721,12 +3718,12 @@
         <v>66</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>21</v>
@@ -3735,10 +3732,10 @@
         <v>32</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>20</v>
@@ -3747,12 +3744,12 @@
         <v>66</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>21</v>
@@ -3761,24 +3758,24 @@
         <v>32</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>309</v>
+        <v>113</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="15">
-        <v>66</v>
+      <c r="K66" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>21</v>
@@ -3787,24 +3784,24 @@
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>434</v>
+        <v>115</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>51</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3816,21 +3813,15 @@
         <v>116</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3842,15 +3833,21 @@
         <v>117</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K69" s="15">
+        <v>72</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3862,7 +3859,7 @@
         <v>118</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3871,12 +3868,12 @@
         <v>72</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3888,7 +3885,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
@@ -3897,12 +3894,12 @@
         <v>72</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3914,21 +3911,24 @@
         <v>120</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K72" s="15">
         <v>72</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3940,24 +3940,21 @@
         <v>121</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K73" s="15">
         <v>72</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
@@ -3969,21 +3966,24 @@
         <v>122</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K74" s="15">
         <v>72</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
@@ -3995,7 +3995,7 @@
         <v>123</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>20</v>
@@ -4007,12 +4007,12 @@
         <v>72</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -4024,50 +4024,41 @@
         <v>124</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="15">
-        <v>72</v>
+        <v>442</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>319</v>
+        <v>433</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
@@ -4079,15 +4070,21 @@
         <v>126</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -4099,21 +4096,15 @@
         <v>127</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
@@ -4125,15 +4116,21 @@
         <v>128</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K80" s="15">
+        <v>83</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4145,7 +4142,7 @@
         <v>129</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>20</v>
@@ -4154,12 +4151,12 @@
         <v>83</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
@@ -4171,7 +4168,7 @@
         <v>130</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>20</v>
@@ -4180,12 +4177,12 @@
         <v>83</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4197,7 +4194,7 @@
         <v>131</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>20</v>
@@ -4206,12 +4203,12 @@
         <v>83</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4223,21 +4220,24 @@
         <v>132</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K84" s="15">
         <v>83</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
@@ -4249,7 +4249,7 @@
         <v>133</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
@@ -4261,12 +4261,12 @@
         <v>83</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
@@ -4278,7 +4278,7 @@
         <v>134</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
@@ -4290,12 +4290,12 @@
         <v>83</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
@@ -4307,50 +4307,41 @@
         <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="15">
-        <v>83</v>
+        <v>513</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>451</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>21</v>
@@ -4362,15 +4353,15 @@
         <v>137</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>21</v>
@@ -4382,15 +4373,24 @@
         <v>138</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="15">
+        <v>93</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>21</v>
@@ -4402,7 +4402,7 @@
         <v>139</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>20</v>
@@ -4414,12 +4414,12 @@
         <v>93</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4431,24 +4431,21 @@
         <v>140</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K92" s="15">
         <v>93</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
@@ -4460,21 +4457,21 @@
         <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>20</v>
+        <v>501</v>
       </c>
       <c r="K93" s="15">
         <v>93</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
@@ -4486,21 +4483,21 @@
         <v>142</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K94" s="15">
         <v>93</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
@@ -4512,21 +4509,24 @@
         <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>503</v>
+        <v>20</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K95" s="15">
         <v>93</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
@@ -4538,50 +4538,41 @@
         <v>144</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="15">
-        <v>93</v>
+        <v>442</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K97" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -4593,15 +4584,15 @@
         <v>146</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -4613,15 +4604,15 @@
         <v>147</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
@@ -4633,15 +4624,24 @@
         <v>148</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="15">
+        <v>103</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4653,7 +4653,7 @@
         <v>149</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>20</v>
@@ -4665,12 +4665,12 @@
         <v>103</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
@@ -4682,7 +4682,7 @@
         <v>150</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
@@ -4694,12 +4694,12 @@
         <v>103</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
@@ -4711,7 +4711,7 @@
         <v>151</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
@@ -4723,12 +4723,12 @@
         <v>103</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
@@ -4740,24 +4740,21 @@
         <v>152</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K104" s="15">
-        <v>103</v>
+        <v>442</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>449</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
@@ -4769,41 +4766,35 @@
         <v>153</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K105" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -4815,15 +4806,21 @@
         <v>155</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="K107" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -4835,21 +4832,15 @@
         <v>156</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -4861,15 +4852,21 @@
         <v>157</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K109" s="15">
+        <v>112</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -4881,7 +4878,7 @@
         <v>158</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>20</v>
@@ -4890,12 +4887,12 @@
         <v>112</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
@@ -4907,21 +4904,24 @@
         <v>159</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K111" s="15">
         <v>112</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
@@ -4933,7 +4933,7 @@
         <v>160</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>20</v>
@@ -4945,12 +4945,12 @@
         <v>112</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
@@ -4962,7 +4962,7 @@
         <v>161</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>20</v>
@@ -4974,12 +4974,12 @@
         <v>112</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
@@ -4991,50 +4991,41 @@
         <v>162</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K114" s="15">
-        <v>112</v>
+        <v>442</v>
+      </c>
+      <c r="K114" s="15" t="s">
+        <v>447</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K115" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="L115" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
@@ -5046,15 +5037,16 @@
         <v>164</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K116" s="15"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
@@ -5066,16 +5058,21 @@
         <v>165</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K117" s="15"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K117" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
@@ -5087,21 +5084,21 @@
         <v>166</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5113,21 +5110,24 @@
         <v>167</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J119" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K119" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
@@ -5139,24 +5139,21 @@
         <v>168</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K120" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
@@ -5168,21 +5165,24 @@
         <v>169</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J121" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K121" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
@@ -5194,7 +5194,7 @@
         <v>170</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
@@ -5203,15 +5203,15 @@
         <v>22</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
@@ -5223,50 +5223,41 @@
         <v>171</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K124" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="L124" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
@@ -5278,15 +5269,21 @@
         <v>173</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K125" s="15">
+        <v>128</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
@@ -5298,7 +5295,7 @@
         <v>174</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
@@ -5307,12 +5304,12 @@
         <v>128</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
@@ -5324,7 +5321,7 @@
         <v>175</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
@@ -5333,12 +5330,12 @@
         <v>128</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5350,7 +5347,7 @@
         <v>176</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
@@ -5359,12 +5356,12 @@
         <v>128</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
@@ -5376,7 +5373,7 @@
         <v>177</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
@@ -5385,12 +5382,12 @@
         <v>128</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5402,21 +5399,24 @@
         <v>178</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K130" s="15">
         <v>128</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5428,7 +5428,7 @@
         <v>179</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
@@ -5440,12 +5440,12 @@
         <v>128</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5457,24 +5457,15 @@
         <v>180</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J132" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K132" s="15">
-        <v>128</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5486,15 +5477,21 @@
         <v>181</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K133" s="15">
+        <v>136</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5506,7 +5503,7 @@
         <v>182</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -5515,12 +5512,12 @@
         <v>136</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5532,21 +5529,24 @@
         <v>183</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K135" s="15">
         <v>136</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5558,7 +5558,7 @@
         <v>184</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5570,12 +5570,12 @@
         <v>136</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5587,24 +5587,15 @@
         <v>185</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J137" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="15">
-        <v>136</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5616,15 +5607,21 @@
         <v>186</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K138" s="15">
+        <v>141</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5636,21 +5633,24 @@
         <v>187</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K139" s="15">
         <v>141</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5662,7 +5662,7 @@
         <v>188</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5674,12 +5674,12 @@
         <v>141</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5691,24 +5691,15 @@
         <v>189</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K141" s="15">
-        <v>141</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5720,15 +5711,21 @@
         <v>190</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K142" s="15">
+        <v>145</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5740,21 +5737,24 @@
         <v>191</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K143" s="15">
         <v>145</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5766,7 +5766,7 @@
         <v>192</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>20</v>
@@ -5778,12 +5778,12 @@
         <v>145</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5795,24 +5795,15 @@
         <v>193</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J145" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K145" s="15">
-        <v>145</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5824,15 +5815,21 @@
         <v>194</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K146" s="15">
+        <v>149</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5844,21 +5841,21 @@
         <v>195</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K147" s="15">
-        <v>149</v>
+        <v>442</v>
+      </c>
+      <c r="K147" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5870,21 +5867,24 @@
         <v>196</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K148" s="15" t="s">
-        <v>447</v>
+        <v>20</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148" s="15">
+        <v>149</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5896,7 +5896,7 @@
         <v>197</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>20</v>
@@ -5908,12 +5908,12 @@
         <v>149</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
@@ -5925,24 +5925,21 @@
         <v>198</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K150" s="15">
         <v>149</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -5954,21 +5951,18 @@
         <v>199</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K151" s="15">
-        <v>149</v>
-      </c>
-      <c r="L151" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J151" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
@@ -5980,44 +5974,41 @@
         <v>200</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="K152" s="15">
+        <v>155</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K153" s="15">
-        <v>155</v>
-      </c>
-      <c r="L153" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
@@ -6029,15 +6020,21 @@
         <v>202</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="K154" s="15">
+        <v>157</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
@@ -6049,21 +6046,15 @@
         <v>203</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K155" s="15">
-        <v>157</v>
-      </c>
-      <c r="L155" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -6075,15 +6066,24 @@
         <v>204</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J156" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" s="15">
+        <v>159</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6095,24 +6095,21 @@
         <v>205</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K157" s="15">
         <v>159</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
@@ -6124,21 +6121,24 @@
         <v>206</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K158" s="15">
         <v>159</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
@@ -6150,7 +6150,7 @@
         <v>207</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>20</v>
@@ -6162,12 +6162,12 @@
         <v>159</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -6179,24 +6179,21 @@
         <v>208</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="K160" s="15">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
@@ -6208,41 +6205,35 @@
         <v>209</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K161" s="15">
-        <v>163</v>
-      </c>
-      <c r="L161" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>21</v>
@@ -6254,15 +6245,21 @@
         <v>211</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K163" s="15">
+        <v>166</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>21</v>
@@ -6274,21 +6271,24 @@
         <v>212</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J164" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K164" s="15">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>21</v>
@@ -6300,7 +6300,7 @@
         <v>213</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>20</v>
@@ -6312,12 +6312,12 @@
         <v>167</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6329,24 +6329,21 @@
         <v>214</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>22</v>
+        <v>402</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="K166" s="15">
         <v>167</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>21</v>
@@ -6358,21 +6355,24 @@
         <v>215</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>503</v>
+        <v>403</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K167" s="15">
         <v>167</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>21</v>
@@ -6384,10 +6384,10 @@
         <v>216</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>503</v>
+        <v>20</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>22</v>
@@ -6396,12 +6396,12 @@
         <v>167</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>21</v>
@@ -6413,50 +6413,41 @@
         <v>217</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J169" s="6" t="s">
-        <v>22</v>
+        <v>513</v>
       </c>
       <c r="K169" s="15">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K170" s="15">
-        <v>172</v>
-      </c>
-      <c r="L170" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>18</v>
@@ -6468,15 +6459,21 @@
         <v>219</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K171" s="15">
+        <v>174</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>18</v>
@@ -6488,7 +6485,7 @@
         <v>220</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>20</v>
@@ -6497,12 +6494,12 @@
         <v>174</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>18</v>
@@ -6514,7 +6511,7 @@
         <v>221</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>20</v>
@@ -6523,12 +6520,12 @@
         <v>174</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>18</v>
@@ -6540,7 +6537,7 @@
         <v>222</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>20</v>
@@ -6549,12 +6546,12 @@
         <v>174</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>18</v>
@@ -6566,7 +6563,7 @@
         <v>223</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>20</v>
@@ -6575,12 +6572,12 @@
         <v>174</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6592,7 +6589,7 @@
         <v>224</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>20</v>
@@ -6601,12 +6598,12 @@
         <v>174</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
@@ -6618,21 +6615,24 @@
         <v>225</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>20</v>
+        <v>413</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K177" s="15">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
@@ -6644,9 +6644,9 @@
         <v>226</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G178" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G178" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J178" s="6" t="s">
@@ -6656,12 +6656,12 @@
         <v>180</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
@@ -6673,50 +6673,41 @@
         <v>227</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="K179" s="15">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K180" s="15">
-        <v>182</v>
-      </c>
-      <c r="L180" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
@@ -6728,15 +6719,21 @@
         <v>229</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="K181" s="15">
+        <v>184</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
@@ -6748,21 +6745,21 @@
         <v>230</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="K182" s="15">
         <v>184</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
@@ -6774,7 +6771,7 @@
         <v>231</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>20</v>
@@ -6783,12 +6780,12 @@
         <v>184</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6800,7 +6797,7 @@
         <v>232</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>20</v>
@@ -6809,12 +6806,12 @@
         <v>184</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
@@ -6826,21 +6823,21 @@
         <v>233</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K185" s="15">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
@@ -6852,21 +6849,24 @@
         <v>234</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K186" s="15">
         <v>188</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
@@ -6878,50 +6878,41 @@
         <v>235</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J187" s="6" t="s">
-        <v>22</v>
+        <v>513</v>
       </c>
       <c r="K187" s="15">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K188" s="15">
-        <v>190</v>
-      </c>
-      <c r="L188" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
@@ -6932,16 +6923,22 @@
       <c r="D189" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>439</v>
+      <c r="E189" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="K189" s="15">
+        <v>192</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
@@ -6952,8 +6949,8 @@
       <c r="D190" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>440</v>
+      <c r="E190" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
@@ -6962,12 +6959,12 @@
         <v>192</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
@@ -6979,7 +6976,7 @@
         <v>239</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
@@ -6988,12 +6985,12 @@
         <v>192</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -7005,7 +7002,7 @@
         <v>240</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>20</v>
@@ -7014,12 +7011,12 @@
         <v>192</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
@@ -7031,21 +7028,24 @@
         <v>241</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J193" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K193" s="15">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7057,24 +7057,21 @@
         <v>242</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J194" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="K194" s="15">
         <v>193</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7086,21 +7083,15 @@
         <v>243</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K195" s="15">
-        <v>193</v>
-      </c>
-      <c r="L195" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>18</v>
@@ -7112,15 +7103,21 @@
         <v>244</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K196" s="15">
+        <v>199</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>18</v>
@@ -7132,21 +7129,24 @@
         <v>245</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K197" s="15">
         <v>199</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A198" s="4">
-        <v>201</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A198" s="6">
+        <v>202</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>18</v>
@@ -7158,45 +7158,16 @@
         <v>246</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>22</v>
+        <v>513</v>
       </c>
       <c r="K198" s="15">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A199" s="6">
-        <v>202</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K199" s="15">
-        <v>201</v>
-      </c>
-      <c r="L199" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7213,208 +7184,208 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>482</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>487</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>493</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D26140E-7D7B-412F-A9C6-F119084C12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04646A-DBEB-4F6A-A3DC-F411E4ED8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="514">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -209,9 +209,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -323,15 +320,6 @@
     <t>Complaints Risk Position</t>
   </si>
   <si>
-    <t>Complaints Reason</t>
-  </si>
-  <si>
-    <t>Actions for Complaints Undertaken</t>
-  </si>
-  <si>
-    <t>Which Actions for Complaints Undertaken</t>
-  </si>
-  <si>
     <t>Public Access to Grievance Handling</t>
   </si>
   <si>
@@ -906,15 +894,6 @@
   </si>
   <si>
     <t>Please define the respective risk position of each complaint</t>
-  </si>
-  <si>
-    <t>Please specify the complaint.</t>
-  </si>
-  <si>
-    <t>Were measures taken to address the complaints?</t>
-  </si>
-  <si>
-    <t>Which measures were taken to address the reported complaints?</t>
   </si>
   <si>
     <t>Does your company have publicly accessible rules that clearly describe the process for dealing with complaints?</t>
@@ -2125,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="145" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2210,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2224,10 +2203,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2244,10 +2223,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2264,20 +2243,20 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K5" s="14">
         <f>A4</f>
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2291,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2311,16 +2290,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2334,10 +2313,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2354,22 +2333,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2383,13 +2362,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2403,13 +2382,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2423,10 +2402,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2443,19 +2422,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K13" s="14">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2469,10 +2448,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2481,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2495,19 +2474,19 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2521,10 +2500,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>20</v>
@@ -2533,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2547,19 +2526,19 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2573,19 +2552,19 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2599,22 +2578,22 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K19" s="15">
         <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2628,22 +2607,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K20" s="15">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2657,19 +2636,19 @@
         <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K21" s="15">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2683,19 +2662,19 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K22" s="15">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2709,10 +2688,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>20</v>
@@ -2732,10 +2711,10 @@
         <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
@@ -2744,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2758,19 +2737,19 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2784,20 +2763,20 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H26" s="6"/>
       <c r="K26" s="15" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2811,10 +2790,10 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>20</v>
@@ -2823,7 +2802,7 @@
         <v>23</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2840,7 +2819,7 @@
         <v>23</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>20</v>
@@ -2860,10 +2839,10 @@
         <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>20</v>
@@ -2872,7 +2851,7 @@
         <v>30</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2886,10 +2865,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>20</v>
@@ -2898,7 +2877,7 @@
         <v>30</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2912,10 +2891,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>20</v>
@@ -2924,7 +2903,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2938,10 +2917,10 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
@@ -2950,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2964,10 +2943,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>20</v>
@@ -2976,7 +2955,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2990,25 +2969,22 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3022,25 +2998,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H35" s="6"/>
       <c r="K35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -3049,24 +3025,24 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="K36" s="15">
+        <v>30</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
@@ -3075,24 +3051,24 @@
         <v>29</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>45</v>
+      <c r="K37" s="15">
+        <v>30</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3101,102 +3077,96 @@
         <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="K38" s="15">
+        <v>30</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="15">
-        <v>30</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>504</v>
+      <c r="J39" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="15">
-        <v>30</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>504</v>
+      <c r="J40" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="15">
-        <v>30</v>
+      <c r="K41" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3205,10 +3175,10 @@
         <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>20</v>
@@ -3219,7 +3189,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3228,10 +3198,10 @@
         <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>20</v>
@@ -3242,7 +3212,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3251,24 +3221,24 @@
         <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>47</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -3277,10 +3247,10 @@
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>20</v>
@@ -3291,7 +3261,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3300,10 +3270,10 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>20</v>
@@ -3314,79 +3284,67 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -3395,10 +3353,10 @@
         <v>31</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>20</v>
@@ -3406,7 +3364,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -3415,10 +3373,10 @@
         <v>31</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
@@ -3426,7 +3384,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -3435,18 +3393,25 @@
         <v>31</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>20</v>
+        <v>511</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="K52" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -3455,10 +3420,10 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>20</v>
@@ -3466,7 +3431,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -3475,18 +3440,24 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>20</v>
+        <v>293</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -3495,25 +3466,18 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="K55" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -3522,18 +3486,24 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>20</v>
+        <v>295</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -3542,24 +3512,18 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>504</v>
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -3568,90 +3532,96 @@
         <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>20</v>
+        <v>295</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>504</v>
+        <v>297</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K60" s="15">
+        <v>66</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="K61" s="15" t="s">
-        <v>453</v>
+        <v>299</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="15">
+        <v>66</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>21</v>
@@ -3663,15 +3633,21 @@
         <v>110</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K62" s="15">
+        <v>66</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>21</v>
@@ -3680,24 +3656,24 @@
         <v>32</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>305</v>
+        <v>109</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="15">
-        <v>66</v>
+      <c r="K63" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>21</v>
@@ -3706,24 +3682,24 @@
         <v>32</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="15">
-        <v>66</v>
+        <v>435</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>21</v>
@@ -3732,24 +3708,18 @@
         <v>32</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="15">
-        <v>66</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>21</v>
@@ -3760,22 +3730,22 @@
       <c r="D66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>432</v>
+      <c r="E66" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="15" t="s">
-        <v>51</v>
+      <c r="K66" s="15">
+        <v>72</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>21</v>
@@ -3784,24 +3754,24 @@
         <v>32</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="K67" s="15">
+        <v>72</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>21</v>
@@ -3810,18 +3780,24 @@
         <v>32</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K68" s="15">
+        <v>72</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>21</v>
@@ -3830,24 +3806,27 @@
         <v>32</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K69" s="15">
         <v>72</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>21</v>
@@ -3856,10 +3835,10 @@
         <v>32</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>20</v>
@@ -3868,12 +3847,12 @@
         <v>72</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>21</v>
@@ -3882,24 +3861,27 @@
         <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K71" s="15">
         <v>72</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>21</v>
@@ -3908,10 +3890,10 @@
         <v>32</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>20</v>
@@ -3923,12 +3905,12 @@
         <v>72</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>21</v>
@@ -3937,108 +3919,90 @@
         <v>32</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="15">
-        <v>72</v>
+        <v>435</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>315</v>
+        <v>426</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="15">
-        <v>72</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="15">
-        <v>72</v>
+        <v>435</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>21</v>
@@ -4047,18 +4011,24 @@
         <v>33</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K77" s="15">
+        <v>83</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>21</v>
@@ -4067,24 +4037,24 @@
         <v>33</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>452</v>
+        <v>20</v>
+      </c>
+      <c r="K78" s="15">
+        <v>83</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>21</v>
@@ -4093,18 +4063,24 @@
         <v>33</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K79" s="15">
+        <v>83</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>21</v>
@@ -4113,10 +4089,10 @@
         <v>33</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>20</v>
@@ -4125,12 +4101,12 @@
         <v>83</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>21</v>
@@ -4139,24 +4115,27 @@
         <v>33</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K81" s="15">
         <v>83</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>21</v>
@@ -4165,24 +4144,27 @@
         <v>33</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K82" s="15">
         <v>83</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -4191,24 +4173,27 @@
         <v>33</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K83" s="15">
         <v>83</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>21</v>
@@ -4217,111 +4202,93 @@
         <v>33</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="15">
-        <v>83</v>
+        <v>506</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="15">
-        <v>83</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="15">
-        <v>83</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>451</v>
+        <v>20</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="15">
+        <v>93</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>21</v>
@@ -4330,18 +4297,27 @@
         <v>34</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="15">
+        <v>93</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>21</v>
@@ -4350,18 +4326,24 @@
         <v>34</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K89" s="15">
+        <v>93</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>21</v>
@@ -4370,27 +4352,24 @@
         <v>34</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>22</v>
+        <v>494</v>
       </c>
       <c r="K90" s="15">
         <v>93</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>21</v>
@@ -4399,27 +4378,24 @@
         <v>34</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>22</v>
+        <v>494</v>
       </c>
       <c r="K91" s="15">
         <v>93</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>21</v>
@@ -4428,24 +4404,27 @@
         <v>34</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K92" s="15">
         <v>93</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>21</v>
@@ -4454,105 +4433,84 @@
         <v>34</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K93" s="15">
-        <v>93</v>
+        <v>435</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>443</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K94" s="15">
-        <v>93</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="15">
-        <v>93</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>21</v>
@@ -4561,18 +4519,27 @@
         <v>35</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="15">
+        <v>103</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>21</v>
@@ -4581,18 +4548,27 @@
         <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="15">
+        <v>103</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -4601,18 +4577,27 @@
         <v>35</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="15">
+        <v>103</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>21</v>
@@ -4621,10 +4606,10 @@
         <v>35</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>20</v>
@@ -4636,12 +4621,12 @@
         <v>103</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>21</v>
@@ -4650,27 +4635,24 @@
         <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="15">
-        <v>103</v>
+        <v>435</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>21</v>
@@ -4679,94 +4661,76 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K102" s="15">
-        <v>103</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="15">
-        <v>103</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>20</v>
@@ -4774,7 +4738,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -4783,18 +4747,24 @@
         <v>36</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K106" s="15">
+        <v>112</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>21</v>
@@ -4803,24 +4773,24 @@
         <v>36</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K107" s="15" t="s">
-        <v>448</v>
+        <v>20</v>
+      </c>
+      <c r="K107" s="15">
+        <v>112</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>21</v>
@@ -4829,18 +4799,27 @@
         <v>36</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" s="15">
+        <v>112</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>21</v>
@@ -4849,24 +4828,27 @@
         <v>36</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K109" s="15">
         <v>112</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>21</v>
@@ -4875,24 +4857,27 @@
         <v>36</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K110" s="15">
         <v>112</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>21</v>
@@ -4901,111 +4886,91 @@
         <v>36</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" s="15">
-        <v>112</v>
+        <v>435</v>
+      </c>
+      <c r="K111" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K112" s="15">
-        <v>112</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K113" s="15">
-        <v>112</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>504</v>
-      </c>
+      <c r="K113" s="15"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>21</v>
@@ -5014,18 +4979,24 @@
         <v>37</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K115" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>21</v>
@@ -5034,19 +5005,27 @@
         <v>37</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K116" s="15"/>
+      <c r="J116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>21</v>
@@ -5055,24 +5034,24 @@
         <v>37</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>21</v>
@@ -5081,24 +5060,27 @@
         <v>37</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J118" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K118" s="15" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>21</v>
@@ -5107,10 +5089,10 @@
         <v>37</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>20</v>
@@ -5119,15 +5101,15 @@
         <v>22</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>21</v>
@@ -5136,108 +5118,96 @@
         <v>37</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="K120" s="15" t="s">
-        <v>519</v>
+        <v>439</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K121" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J122" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K122" s="15" t="s">
-        <v>519</v>
+      <c r="K122" s="15">
+        <v>128</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K123" s="15" t="s">
-        <v>446</v>
+        <v>20</v>
+      </c>
+      <c r="K123" s="15">
+        <v>128</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>21</v>
@@ -5246,18 +5216,24 @@
         <v>38</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K124" s="15">
+        <v>128</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>21</v>
@@ -5266,10 +5242,10 @@
         <v>38</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>20</v>
@@ -5278,12 +5254,12 @@
         <v>128</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>21</v>
@@ -5292,10 +5268,10 @@
         <v>38</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>20</v>
@@ -5304,12 +5280,12 @@
         <v>128</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>21</v>
@@ -5318,24 +5294,27 @@
         <v>38</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K127" s="15">
         <v>128</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>21</v>
@@ -5344,24 +5323,27 @@
         <v>38</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K128" s="15">
         <v>128</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>21</v>
@@ -5370,24 +5352,18 @@
         <v>38</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K129" s="15">
-        <v>128</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>21</v>
@@ -5396,27 +5372,24 @@
         <v>38</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J130" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K130" s="15">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>21</v>
@@ -5425,27 +5398,24 @@
         <v>38</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J131" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K131" s="15">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>21</v>
@@ -5454,18 +5424,27 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132" s="15">
+        <v>136</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>21</v>
@@ -5474,24 +5453,27 @@
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K133" s="15">
         <v>136</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>21</v>
@@ -5500,24 +5482,18 @@
         <v>38</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K134" s="15">
-        <v>136</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
@@ -5526,27 +5502,24 @@
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J135" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K135" s="15">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
@@ -5555,10 +5528,10 @@
         <v>38</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>20</v>
@@ -5567,15 +5540,15 @@
         <v>22</v>
       </c>
       <c r="K136" s="15">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>21</v>
@@ -5584,18 +5557,27 @@
         <v>38</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="15">
+        <v>141</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>21</v>
@@ -5604,24 +5586,18 @@
         <v>38</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K138" s="15">
-        <v>141</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>21</v>
@@ -5630,27 +5606,24 @@
         <v>38</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J139" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K139" s="15">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>21</v>
@@ -5659,10 +5632,10 @@
         <v>38</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>20</v>
@@ -5671,15 +5644,15 @@
         <v>22</v>
       </c>
       <c r="K140" s="15">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5688,18 +5661,27 @@
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141" s="15">
+        <v>145</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>21</v>
@@ -5708,24 +5690,18 @@
         <v>38</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K142" s="15">
-        <v>145</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>21</v>
@@ -5734,27 +5710,24 @@
         <v>38</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K143" s="15">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>21</v>
@@ -5763,27 +5736,24 @@
         <v>38</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K144" s="15">
-        <v>145</v>
+        <v>435</v>
+      </c>
+      <c r="K144" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>21</v>
@@ -5792,18 +5762,27 @@
         <v>38</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="15">
+        <v>149</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>21</v>
@@ -5812,24 +5791,27 @@
         <v>38</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K146" s="15">
         <v>149</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>21</v>
@@ -5838,24 +5820,24 @@
         <v>38</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K147" s="15" t="s">
-        <v>445</v>
+        <v>20</v>
+      </c>
+      <c r="K147" s="15">
+        <v>149</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>21</v>
@@ -5864,10 +5846,10 @@
         <v>38</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>20</v>
@@ -5875,16 +5857,10 @@
       <c r="J148" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K148" s="15">
-        <v>149</v>
-      </c>
-      <c r="L148" s="4" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>21</v>
@@ -5893,102 +5869,90 @@
         <v>38</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="K149" s="15">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K150" s="15">
-        <v>149</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>22</v>
+        <v>435</v>
+      </c>
+      <c r="K151" s="15">
+        <v>157</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K152" s="15">
-        <v>155</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>21</v>
@@ -5997,18 +5961,27 @@
         <v>39</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="15">
+        <v>159</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>21</v>
@@ -6017,24 +5990,24 @@
         <v>39</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="K154" s="15">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>21</v>
@@ -6043,18 +6016,27 @@
         <v>39</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" s="15">
+        <v>159</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -6063,10 +6045,10 @@
         <v>39</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>20</v>
@@ -6078,12 +6060,12 @@
         <v>159</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -6092,24 +6074,24 @@
         <v>39</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="K157" s="15">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>21</v>
@@ -6118,102 +6100,93 @@
         <v>39</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K158" s="15">
-        <v>159</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K159" s="15">
-        <v>159</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="K160" s="15">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="15">
+        <v>167</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>21</v>
@@ -6222,18 +6195,27 @@
         <v>40</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" s="15">
+        <v>167</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>21</v>
@@ -6242,24 +6224,24 @@
         <v>40</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>20</v>
+        <v>395</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="K163" s="15">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>21</v>
@@ -6268,13 +6250,13 @@
         <v>40</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="J164" s="6" t="s">
         <v>22</v>
@@ -6283,12 +6265,12 @@
         <v>167</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>21</v>
@@ -6297,10 +6279,10 @@
         <v>40</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>20</v>
@@ -6312,12 +6294,12 @@
         <v>167</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>21</v>
@@ -6326,108 +6308,96 @@
         <v>40</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>501</v>
+        <v>398</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="K166" s="15">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K167" s="15">
-        <v>167</v>
-      </c>
-      <c r="L167" s="4" t="s">
-        <v>504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J168" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K168" s="15">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>513</v>
+        <v>20</v>
       </c>
       <c r="K169" s="15">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>18</v>
@@ -6436,18 +6406,24 @@
         <v>41</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K170" s="15">
+        <v>174</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>18</v>
@@ -6456,10 +6432,10 @@
         <v>41</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>20</v>
@@ -6468,12 +6444,12 @@
         <v>174</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>18</v>
@@ -6482,10 +6458,10 @@
         <v>41</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>20</v>
@@ -6494,12 +6470,12 @@
         <v>174</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>18</v>
@@ -6508,10 +6484,10 @@
         <v>41</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>20</v>
@@ -6520,12 +6496,12 @@
         <v>174</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>18</v>
@@ -6534,24 +6510,27 @@
         <v>41</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>20</v>
+        <v>406</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K174" s="15">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>18</v>
@@ -6560,24 +6539,27 @@
         <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J175" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K175" s="15">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>18</v>
@@ -6586,108 +6568,96 @@
         <v>41</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="K176" s="15">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J177" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K177" s="15">
-        <v>180</v>
-      </c>
-      <c r="L177" s="4" t="s">
-        <v>504</v>
+        <v>409</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J178" s="6" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="K178" s="15">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="K179" s="15">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>18</v>
@@ -6696,18 +6666,24 @@
         <v>42</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="K180" s="15">
+        <v>184</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>18</v>
@@ -6716,24 +6692,24 @@
         <v>42</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="K181" s="15">
         <v>184</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
@@ -6742,24 +6718,24 @@
         <v>42</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K182" s="15">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>18</v>
@@ -6768,24 +6744,27 @@
         <v>42</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J183" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K183" s="15">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>18</v>
@@ -6794,105 +6773,96 @@
         <v>42</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>20</v>
+        <v>506</v>
       </c>
       <c r="K184" s="15">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K185" s="15">
-        <v>188</v>
-      </c>
-      <c r="L185" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>421</v>
+        <v>233</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J186" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K186" s="15">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>513</v>
+        <v>20</v>
       </c>
       <c r="K187" s="15">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>18</v>
@@ -6901,18 +6871,24 @@
         <v>43</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="K188" s="15">
+        <v>192</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>18</v>
@@ -6921,10 +6897,10 @@
         <v>43</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>438</v>
+        <v>236</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>20</v>
@@ -6933,12 +6909,12 @@
         <v>192</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>18</v>
@@ -6947,24 +6923,27 @@
         <v>43</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J190" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K190" s="15">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>18</v>
@@ -6973,24 +6952,24 @@
         <v>43</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K191" s="15">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>18</v>
@@ -6999,24 +6978,18 @@
         <v>43</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K192" s="15">
-        <v>192</v>
-      </c>
-      <c r="L192" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>18</v>
@@ -7025,27 +6998,24 @@
         <v>43</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J193" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K193" s="15">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -7054,24 +7024,27 @@
         <v>43</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="J194" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K194" s="15">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="4">
-        <v>199</v>
+      <c r="A195" s="6">
+        <v>202</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>18</v>
@@ -7080,94 +7053,19 @@
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A196" s="4">
-        <v>200</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K196" s="15">
-        <v>199</v>
-      </c>
-      <c r="L196" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A197" s="4">
+        <v>506</v>
+      </c>
+      <c r="K195" s="15">
         <v>201</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K197" s="15">
-        <v>199</v>
-      </c>
-      <c r="L197" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A198" s="6">
-        <v>202</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="K198" s="15">
-        <v>201</v>
-      </c>
-      <c r="L198" s="4" t="s">
-        <v>504</v>
+      <c r="L195" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7194,184 +7092,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -7379,13 +7277,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
+++ b/dataland-framework-toolbox/inputs/lksg/lksg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\lksg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\Dataland\dataland-framework-toolbox\inputs\lksg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B240E3-295B-4BF4-A545-C4CE288E6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04646A-DBEB-4F6A-A3DC-F411E4ED8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64EA21DF-A91B-4C8A-A36C-EACA4F178F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="514">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -206,6 +206,27 @@
     <t>13</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>Head Office in Germany</t>
   </si>
   <si>
@@ -275,12 +296,6 @@
     <t>Identified Risks</t>
   </si>
   <si>
-    <t>Counteracting Measures</t>
-  </si>
-  <si>
-    <t>Which Counteracting Measures</t>
-  </si>
-  <si>
     <t>Regulated Risk Management Responsibility</t>
   </si>
   <si>
@@ -305,15 +320,6 @@
     <t>Complaints Risk Position</t>
   </si>
   <si>
-    <t>Complaints Reason</t>
-  </si>
-  <si>
-    <t>Actions for Complaints Undertaken</t>
-  </si>
-  <si>
-    <t>Which Actions for Complaints Undertaken</t>
-  </si>
-  <si>
     <t>Public Access to Grievance Handling</t>
   </si>
   <si>
@@ -365,12 +371,6 @@
     <t>Human Rights or Environmental Violations Definition</t>
   </si>
   <si>
-    <t>Human Rights or Environmental Violations Measures</t>
-  </si>
-  <si>
-    <t>Human Rights or Environmental Violations Measures Definition</t>
-  </si>
-  <si>
     <t>High Risk Countries Raw Materials</t>
   </si>
   <si>
@@ -869,12 +869,6 @@
     <t>Which risks were specifically identified in the risk analysis?</t>
   </si>
   <si>
-    <t>Have measures been defined to counteract the risks?</t>
-  </si>
-  <si>
-    <t>Which measures have been applied to counteract the risks?</t>
-  </si>
-  <si>
     <t>Is the responsibility for Risk Management in your company regulated, for example by appointing a human rights officer?</t>
   </si>
   <si>
@@ -902,15 +896,6 @@
     <t>Please define the respective risk position of each complaint</t>
   </si>
   <si>
-    <t>Please specify the complaint.</t>
-  </si>
-  <si>
-    <t>Were measures taken to address the complaints?</t>
-  </si>
-  <si>
-    <t>Which measures were taken to address the reported complaints?</t>
-  </si>
-  <si>
     <t>Does your company have publicly accessible rules that clearly describe the process for dealing with complaints?</t>
   </si>
   <si>
@@ -960,12 +945,6 @@
   </si>
   <si>
     <t>Please define those violations.</t>
-  </si>
-  <si>
-    <t>Have measures been taken to address this violation?</t>
-  </si>
-  <si>
-    <t>Please define these measures.</t>
   </si>
   <si>
     <t>Do you source materials from countries associated with high-risk or conflict?</t>
@@ -1408,6 +1387,42 @@
     <t>Multi-Select Dropdown</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -1585,176 +1600,26 @@
     <t>AmountWithCurrencyComponent</t>
   </si>
   <si>
+    <t>LkSG Grievance Mechanism Assessment</t>
+  </si>
+  <si>
+    <t>LkSG Risk Position Assessments</t>
+  </si>
+  <si>
+    <t>LkSG General Violations Assessments</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>LkSG Subcontracting Companies</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>LkSG Risk Position MultiSelect Component</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,12 +1669,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1908,11 +1767,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -1930,6 +1784,11 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBCA27A-793A-4293-9394-36A2BE726731}">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="145" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,7 +2122,7 @@
     <col min="8" max="8" width="23.08984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.90625" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.08984375" style="4"/>
@@ -2300,7 +2159,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2326,11 +2185,11 @@
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2344,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>243</v>
@@ -2364,7 +2223,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>244</v>
@@ -2384,19 +2243,20 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K5" s="6">
+        <v>435</v>
+      </c>
+      <c r="K5" s="14">
+        <f>A4</f>
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -2410,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>493</v>
+      <c r="G6" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -2430,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>247</v>
@@ -2438,8 +2298,8 @@
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>491</v>
+      <c r="H7" s="12" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2453,7 +2313,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>248</v>
@@ -2473,22 +2333,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>445</v>
+        <v>500</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -2502,13 +2362,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -2522,13 +2382,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2542,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>252</v>
@@ -2562,19 +2422,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K13" s="6">
+        <v>435</v>
+      </c>
+      <c r="K13" s="14">
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2588,7 +2448,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>254</v>
@@ -2596,11 +2456,11 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="14">
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2614,24 +2474,24 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="G15" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -2640,7 +2500,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>256</v>
@@ -2648,16 +2508,16 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="14">
         <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -2666,24 +2526,24 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>505</v>
+      <c r="K17" s="15" t="s">
+        <v>449</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -2692,24 +2552,24 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>505</v>
       </c>
+      <c r="K18" s="15" t="s">
+        <v>449</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -2718,27 +2578,27 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K19" s="7">
+        <v>495</v>
+      </c>
+      <c r="K19" s="15">
         <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -2747,27 +2607,27 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>444</v>
+      <c r="G20" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="K20" s="7">
+        <v>499</v>
+      </c>
+      <c r="K20" s="15">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -2776,24 +2636,24 @@
         <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="G21" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="K21" s="15">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -2802,24 +2662,24 @@
         <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="G22" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K22" s="15">
         <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
@@ -2828,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>262</v>
@@ -2836,13 +2696,13 @@
       <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -2851,7 +2711,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>263</v>
@@ -2859,16 +2719,16 @@
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>506</v>
+      <c r="K24" s="15">
+        <v>23</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2877,7 +2737,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>264</v>
@@ -2885,16 +2745,16 @@
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>507</v>
+      <c r="K25" s="15" t="s">
+        <v>434</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2903,25 +2763,25 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>265</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>558</v>
-    